--- a/InputData/fuels/BFPIaE/BAU Fuel Production Imports and Exports.xlsx
+++ b/InputData/fuels/BFPIaE/BAU Fuel Production Imports and Exports.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\World Resources Institute\TRAC City - HK 2050 is now\EPS HK 2.0\eps-2.0.0-us-wipF\InputData\fuels\BFPIaE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mengpin.ge\World Resources Institute\TRAC City - HK 2050 is now\EPS HK 2.0\eps-hongkong-web\InputData\fuels\BFPIaE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="193" documentId="8_{E3CE54DA-D06C-4FD4-A6A0-66CEE35AB35B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9B225BD8-D549-4F91-9CE0-D83C7CF50DC4}"/>
+  <xr:revisionPtr revIDLastSave="479" documentId="8_{E3CE54DA-D06C-4FD4-A6A0-66CEE35AB35B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{C2B2A532-B9A9-4B4B-B404-1A1710E8FEFB}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="684" firstSheet="8" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1815" yWindow="405" windowWidth="25560" windowHeight="14745" tabRatio="684" firstSheet="7" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="4" r:id="rId1"/>
@@ -20,20 +20,21 @@
     <sheet name="Uranium, Coal, MSW, Hydrogen" sheetId="8" r:id="rId5"/>
     <sheet name="AEO Table 73" sheetId="15" r:id="rId6"/>
     <sheet name="GREET1 Fuel_Specs" sheetId="16" r:id="rId7"/>
-    <sheet name="Start Year Data" sheetId="9" r:id="rId8"/>
+    <sheet name="HK energy statistics" sheetId="21" r:id="rId8"/>
     <sheet name="HK start year data" sheetId="20" r:id="rId9"/>
-    <sheet name="Time Series Scaling Factors" sheetId="18" r:id="rId10"/>
-    <sheet name="BFPIaE-production" sheetId="12" r:id="rId11"/>
-    <sheet name="BFPIaE-imports" sheetId="19" r:id="rId12"/>
-    <sheet name="BFPIaE-exports" sheetId="13" r:id="rId13"/>
+    <sheet name="Start Year Data" sheetId="9" r:id="rId10"/>
+    <sheet name="Time Series Scaling Factors" sheetId="18" r:id="rId11"/>
+    <sheet name="BFPIaE-production" sheetId="12" r:id="rId12"/>
+    <sheet name="BFPIaE-imports" sheetId="19" r:id="rId13"/>
+    <sheet name="BFPIaE-exports" sheetId="13" r:id="rId14"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId14"/>
+    <externalReference r:id="rId15"/>
   </externalReferences>
   <definedNames>
     <definedName name="gal_per_barrel">[1]About!$A$63</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1196,7 +1197,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1411" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1537" uniqueCount="719">
   <si>
     <t>Source:</t>
   </si>
@@ -3215,6 +3216,144 @@
   </si>
   <si>
     <t>1m3=</t>
+  </si>
+  <si>
+    <t>1TJ=947.817120 MBTu</t>
+  </si>
+  <si>
+    <t>https://www.statistics.gov.hk/pub/B11000022017AN17B0100.pdf</t>
+  </si>
+  <si>
+    <t>Aviation gasoline</t>
+  </si>
+  <si>
+    <t>Unleaded motor gasoline</t>
+  </si>
+  <si>
+    <t>Gas oil, diesel oil and naphtha</t>
+  </si>
+  <si>
+    <t>Fuel oil</t>
+  </si>
+  <si>
+    <t>LPG (tonne)</t>
+  </si>
+  <si>
+    <t>Natural Gas (tonne)</t>
+  </si>
+  <si>
+    <t>kilolitre</t>
+  </si>
+  <si>
+    <t>Net</t>
+  </si>
+  <si>
+    <t>Import</t>
+  </si>
+  <si>
+    <t>Re-export</t>
+  </si>
+  <si>
+    <t>Steam coal and other coal</t>
+  </si>
+  <si>
+    <t>Wood charcoal</t>
+  </si>
+  <si>
+    <t>Anthracite</t>
+  </si>
+  <si>
+    <t>Tonne</t>
+  </si>
+  <si>
+    <t>Coal products</t>
+  </si>
+  <si>
+    <t>Oil products</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>Gas</t>
+  </si>
+  <si>
+    <t>terajoule</t>
+  </si>
+  <si>
+    <t>Indigenous production</t>
+  </si>
+  <si>
+    <t>Bunker</t>
+  </si>
+  <si>
+    <t>Supply from stock</t>
+  </si>
+  <si>
+    <t>Gas manufacture</t>
+  </si>
+  <si>
+    <t>Primary energy requirements</t>
+  </si>
+  <si>
+    <t>Electricity generation</t>
+  </si>
+  <si>
+    <t>System loss</t>
+  </si>
+  <si>
+    <t>Final energy requirements</t>
+  </si>
+  <si>
+    <t>https://www.eia.gov/energyexplained/units-and-calculators/energy-conversion-calculators.php</t>
+  </si>
+  <si>
+    <t>1litre=31,788.803 BTU</t>
+  </si>
+  <si>
+    <t>1litre=36292.321 BTU</t>
+  </si>
+  <si>
+    <t>https://www.convertunits.com/from/tons/to/hundred+cubic+foot+of+natural+gas</t>
+  </si>
+  <si>
+    <t>1 ton = 38.484179543782 hundred cubic feet</t>
+  </si>
+  <si>
+    <t>1 cubic feet = 1,036 BTU</t>
+  </si>
+  <si>
+    <t>https://www.iea.org/statistics/resources/unitconverter/</t>
+  </si>
+  <si>
+    <t>using crude oil as substitute</t>
+  </si>
+  <si>
+    <t>1litre=35883.369 BTU</t>
+  </si>
+  <si>
+    <t>1 million metric tons LNG = 52 trillion Btus</t>
+  </si>
+  <si>
+    <t>https://www.extension.iastate.edu/agdm/wholefarm/html/c6-89.html</t>
+  </si>
+  <si>
+    <t>https://www.engineeringtoolbox.com/energy-content-d_868.html</t>
+  </si>
+  <si>
+    <t>1 Gallon= 135000 BTU</t>
+  </si>
+  <si>
+    <t>1 litre = 0.264172052 US Gallon</t>
+  </si>
+  <si>
+    <t>Oil products (BTU)</t>
+  </si>
+  <si>
+    <t>total check</t>
+  </si>
+  <si>
+    <t>below are residuel data from previous calculations</t>
   </si>
 </sst>
 </file>
@@ -3237,7 +3376,7 @@
     <numFmt numFmtId="175" formatCode="#,##0.0000000"/>
     <numFmt numFmtId="176" formatCode="0.0000E+00"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3435,8 +3574,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF444444"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="24">
+  <fills count="27">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3572,6 +3717,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3876,7 +4039,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="287">
+  <cellXfs count="313">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -4404,21 +4567,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -4462,6 +4610,63 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="26" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="26" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="4" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="11" fontId="26" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="21">
     <cellStyle name="Body: normal cell" xfId="7" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -4497,6 +4702,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>180149</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>132621</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDBDA50E-9361-41FC-99F6-ABEDFD36172B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12487275" y="590550"/>
+          <a:ext cx="6609524" cy="5828571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>227811</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>141884</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B33CC3A-3438-4DCC-8DA5-9292A676290D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6734175" y="600075"/>
+          <a:ext cx="6314286" cy="7923809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4853,7 +5151,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B107"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0"/>
+    <sheetView topLeftCell="A85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5343,6 +5641,1076 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:J46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="44.5703125" customWidth="1"/>
+    <col min="2" max="4" width="13.5703125" style="19" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" style="19" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="59" t="s">
+        <v>254</v>
+      </c>
+      <c r="B1" s="60" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="61" t="s">
+        <v>255</v>
+      </c>
+      <c r="F1" s="62" t="s">
+        <v>120</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="58" t="s">
+        <v>266</v>
+      </c>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="57"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="54" t="s">
+        <v>267</v>
+      </c>
+      <c r="B3" s="37">
+        <f>'Uranium, Coal, MSW, Hydrogen'!B13</f>
+        <v>705.25</v>
+      </c>
+      <c r="C3" s="37">
+        <f>'Uranium, Coal, MSW, Hydrogen'!C13</f>
+        <v>6</v>
+      </c>
+      <c r="D3" s="37">
+        <f>'Uranium, Coal, MSW, Hydrogen'!D13</f>
+        <v>97</v>
+      </c>
+      <c r="E3" s="40">
+        <f>B3+C3-D3</f>
+        <v>614.25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="54" t="s">
+        <v>257</v>
+      </c>
+      <c r="B4" s="39">
+        <f>'AEO Table 1'!C18</f>
+        <v>28.178221000000001</v>
+      </c>
+      <c r="C4" s="39">
+        <f>'AEO Table 1'!C30</f>
+        <v>3.107542</v>
+      </c>
+      <c r="D4" s="39">
+        <f>'AEO Table 1'!C36</f>
+        <v>3.1944560000000002</v>
+      </c>
+      <c r="E4" s="40">
+        <f t="shared" ref="E4:E5" si="0">B4+C4-D4</f>
+        <v>28.091307</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="54" t="s">
+        <v>259</v>
+      </c>
+      <c r="B5" s="39">
+        <f>'Uranium, Coal, MSW, Hydrogen'!B3</f>
+        <v>3</v>
+      </c>
+      <c r="C5" s="19">
+        <f>'Uranium, Coal, MSW, Hydrogen'!C3</f>
+        <v>40</v>
+      </c>
+      <c r="D5" s="19">
+        <f>'Uranium, Coal, MSW, Hydrogen'!D3</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="38">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="55" t="s">
+        <v>269</v>
+      </c>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="57"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="55" t="s">
+        <v>270</v>
+      </c>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="57"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="55" t="s">
+        <v>271</v>
+      </c>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="57"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="54" t="s">
+        <v>260</v>
+      </c>
+      <c r="B9" s="41">
+        <f>'Biomass Data'!A33</f>
+        <v>6892028</v>
+      </c>
+      <c r="C9" s="42">
+        <f>'Biomass Data'!A50</f>
+        <v>214221.29902704654</v>
+      </c>
+      <c r="D9" s="43">
+        <f>'Biomass Data'!A36</f>
+        <v>4827647</v>
+      </c>
+      <c r="E9" s="40">
+        <f t="shared" ref="E9:E14" si="1">B9+C9-D9</f>
+        <v>2278602.2990270462</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="54" t="s">
+        <v>261</v>
+      </c>
+      <c r="B10" s="19">
+        <f>SUM('Petroleum and Biofuel Data'!C32:D32)</f>
+        <v>3634459</v>
+      </c>
+      <c r="C10" s="19">
+        <f>'Petroleum and Biofuel Data'!E32</f>
+        <v>11784</v>
+      </c>
+      <c r="D10" s="19">
+        <f>'Petroleum and Biofuel Data'!J32</f>
+        <v>273483</v>
+      </c>
+      <c r="E10" s="38">
+        <f t="shared" si="1"/>
+        <v>3372760</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="54" t="s">
+        <v>272</v>
+      </c>
+      <c r="B11" s="19">
+        <f>'Petroleum and Biofuel Data'!D38</f>
+        <v>1833879</v>
+      </c>
+      <c r="C11" s="19">
+        <f>'Petroleum and Biofuel Data'!E38</f>
+        <v>54975</v>
+      </c>
+      <c r="D11" s="19">
+        <f>'Petroleum and Biofuel Data'!J38</f>
+        <v>504155</v>
+      </c>
+      <c r="E11" s="38">
+        <f t="shared" si="1"/>
+        <v>1384699</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="54" t="s">
+        <v>273</v>
+      </c>
+      <c r="B12" s="38">
+        <f>'Petroleum and Biofuel Data'!C23</f>
+        <v>379435</v>
+      </c>
+      <c r="C12" s="19">
+        <f>'Petroleum and Biofuel Data'!E23</f>
+        <v>1824</v>
+      </c>
+      <c r="D12" s="19">
+        <f>'Petroleum and Biofuel Data'!J23</f>
+        <v>33092</v>
+      </c>
+      <c r="E12" s="38">
+        <f t="shared" si="1"/>
+        <v>348167</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="54" t="s">
+        <v>274</v>
+      </c>
+      <c r="B13" s="38">
+        <f>'Petroleum and Biofuel Data'!C24</f>
+        <v>37993</v>
+      </c>
+      <c r="C13" s="19">
+        <f>'Petroleum and Biofuel Data'!E24</f>
+        <v>13883</v>
+      </c>
+      <c r="D13" s="19">
+        <f>'Petroleum and Biofuel Data'!J24</f>
+        <v>2228</v>
+      </c>
+      <c r="E13" s="38">
+        <f t="shared" si="1"/>
+        <v>49648</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="54" t="s">
+        <v>263</v>
+      </c>
+      <c r="B14" s="38">
+        <f>SUM('Petroleum and Biofuel Data'!D36:D37)</f>
+        <v>623914</v>
+      </c>
+      <c r="C14" s="19">
+        <f>SUM('Petroleum and Biofuel Data'!E36:E37)</f>
+        <v>59702</v>
+      </c>
+      <c r="D14" s="19">
+        <f>SUM('Petroleum and Biofuel Data'!J36:J37)</f>
+        <v>69428</v>
+      </c>
+      <c r="E14" s="38">
+        <f t="shared" si="1"/>
+        <v>614188</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="55" t="s">
+        <v>315</v>
+      </c>
+      <c r="B15" s="56"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="57"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="55" t="s">
+        <v>276</v>
+      </c>
+      <c r="B16" s="56"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="57"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="54" t="s">
+        <v>277</v>
+      </c>
+      <c r="B17" s="40">
+        <f>'Uranium, Coal, MSW, Hydrogen'!B14</f>
+        <v>69.75</v>
+      </c>
+      <c r="C17" s="19">
+        <f>'Uranium, Coal, MSW, Hydrogen'!C14</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="19">
+        <f>'Uranium, Coal, MSW, Hydrogen'!D14</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="40">
+        <f t="shared" ref="E17:E22" si="2">B17+C17-D17</f>
+        <v>69.75</v>
+      </c>
+      <c r="F17" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="54" t="s">
+        <v>264</v>
+      </c>
+      <c r="B18" s="38">
+        <f>'Petroleum and Biofuel Data'!B5</f>
+        <v>3413376</v>
+      </c>
+      <c r="C18" s="19">
+        <f>'Petroleum and Biofuel Data'!E5</f>
+        <v>2908670</v>
+      </c>
+      <c r="D18" s="19">
+        <f>'Petroleum and Biofuel Data'!J5</f>
+        <v>422518</v>
+      </c>
+      <c r="E18" s="38">
+        <f t="shared" si="2"/>
+        <v>5899528</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="54" t="s">
+        <v>278</v>
+      </c>
+      <c r="B19" s="38">
+        <f>'Petroleum and Biofuel Data'!D42</f>
+        <v>155851</v>
+      </c>
+      <c r="C19" s="19">
+        <f>'Petroleum and Biofuel Data'!E42</f>
+        <v>69015</v>
+      </c>
+      <c r="D19" s="19">
+        <f>'Petroleum and Biofuel Data'!J42</f>
+        <v>112240</v>
+      </c>
+      <c r="E19" s="38">
+        <f t="shared" si="2"/>
+        <v>112626</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="54" t="s">
+        <v>265</v>
+      </c>
+      <c r="B20" s="38">
+        <f>SUM('Petroleum and Biofuel Data'!B9:D11)</f>
+        <v>820120</v>
+      </c>
+      <c r="C20" s="19">
+        <f>SUM('Petroleum and Biofuel Data'!E9:E11)</f>
+        <v>57845</v>
+      </c>
+      <c r="D20" s="19">
+        <f>SUM('Petroleum and Biofuel Data'!J9:J11)</f>
+        <v>384433</v>
+      </c>
+      <c r="E20" s="38">
+        <f t="shared" si="2"/>
+        <v>493532</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="54" t="s">
+        <v>279</v>
+      </c>
+      <c r="B21" s="19">
+        <f>'Uranium, Coal, MSW, Hydrogen'!A18</f>
+        <v>262.39999999999998</v>
+      </c>
+      <c r="C21" s="19">
+        <v>0</v>
+      </c>
+      <c r="D21" s="19">
+        <v>0</v>
+      </c>
+      <c r="E21" s="38">
+        <f t="shared" si="2"/>
+        <v>262.39999999999998</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="I21" s="256"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="54" t="s">
+        <v>280</v>
+      </c>
+      <c r="B22" s="19">
+        <f>'Uranium, Coal, MSW, Hydrogen'!A35</f>
+        <v>10</v>
+      </c>
+      <c r="C22" s="19">
+        <v>0</v>
+      </c>
+      <c r="D22" s="19">
+        <v>0</v>
+      </c>
+      <c r="E22" s="38">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="249" t="s">
+        <v>611</v>
+      </c>
+      <c r="B24" s="250"/>
+      <c r="C24" s="250"/>
+      <c r="D24" s="250"/>
+      <c r="E24" s="250"/>
+      <c r="F24" s="251"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="59" t="s">
+        <v>254</v>
+      </c>
+      <c r="B25" s="60" t="s">
+        <v>139</v>
+      </c>
+      <c r="C25" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="61" t="s">
+        <v>255</v>
+      </c>
+      <c r="F25" s="62" t="s">
+        <v>120</v>
+      </c>
+      <c r="H25" s="257" t="s">
+        <v>627</v>
+      </c>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="58" t="s">
+        <v>266</v>
+      </c>
+      <c r="B26" s="56"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="57"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="54" t="s">
+        <v>267</v>
+      </c>
+      <c r="B27" s="252">
+        <f>B3*$H27</f>
+        <v>1.370828065425E+16</v>
+      </c>
+      <c r="C27" s="252">
+        <f t="shared" ref="C27:E27" si="3">C3*$H27</f>
+        <v>116624862000000</v>
+      </c>
+      <c r="D27" s="252">
+        <f>D3*$H27</f>
+        <v>1885435269000000</v>
+      </c>
+      <c r="E27" s="252">
+        <f t="shared" si="3"/>
+        <v>1.193947024725E+16</v>
+      </c>
+      <c r="F27" t="s">
+        <v>608</v>
+      </c>
+      <c r="H27">
+        <f>'AEO Table 73'!$C66*10^12</f>
+        <v>19437477000000</v>
+      </c>
+      <c r="I27" t="s">
+        <v>626</v>
+      </c>
+      <c r="J27" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="54" t="s">
+        <v>257</v>
+      </c>
+      <c r="B28" s="252">
+        <f t="shared" ref="B28:E29" si="4">B4*$H28</f>
+        <v>2.8178221E+16</v>
+      </c>
+      <c r="C28" s="252">
+        <f t="shared" si="4"/>
+        <v>3107542000000000</v>
+      </c>
+      <c r="D28" s="252">
+        <f t="shared" si="4"/>
+        <v>3194456000000000</v>
+      </c>
+      <c r="E28" s="252">
+        <f t="shared" si="4"/>
+        <v>2.8091307E+16</v>
+      </c>
+      <c r="F28" t="s">
+        <v>608</v>
+      </c>
+      <c r="H28">
+        <f>10^15</f>
+        <v>1000000000000000</v>
+      </c>
+      <c r="I28" t="s">
+        <v>626</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="54" t="s">
+        <v>259</v>
+      </c>
+      <c r="B29" s="252">
+        <f t="shared" si="4"/>
+        <v>540000000000000</v>
+      </c>
+      <c r="C29" s="252">
+        <f t="shared" si="4"/>
+        <v>7200000000000000</v>
+      </c>
+      <c r="D29" s="252">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="252">
+        <f t="shared" si="4"/>
+        <v>7740000000000000</v>
+      </c>
+      <c r="F29" t="s">
+        <v>608</v>
+      </c>
+      <c r="H29">
+        <f>10^6*1.8*10^8</f>
+        <v>180000000000000</v>
+      </c>
+      <c r="I29" t="s">
+        <v>626</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="55" t="s">
+        <v>269</v>
+      </c>
+      <c r="B30" s="253"/>
+      <c r="C30" s="253"/>
+      <c r="D30" s="253"/>
+      <c r="E30" s="253"/>
+      <c r="F30" s="57"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="55" t="s">
+        <v>270</v>
+      </c>
+      <c r="B31" s="253"/>
+      <c r="C31" s="253"/>
+      <c r="D31" s="253"/>
+      <c r="E31" s="253"/>
+      <c r="F31" s="57"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="55" t="s">
+        <v>271</v>
+      </c>
+      <c r="B32" s="253"/>
+      <c r="C32" s="253"/>
+      <c r="D32" s="253"/>
+      <c r="E32" s="253"/>
+      <c r="F32" s="57"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="54" t="s">
+        <v>260</v>
+      </c>
+      <c r="B33" s="252">
+        <f>B9*$H33</f>
+        <v>123408653368000</v>
+      </c>
+      <c r="C33" s="252">
+        <f t="shared" ref="C33:E33" si="5">C9*$H33</f>
+        <v>3835846580378.2954</v>
+      </c>
+      <c r="D33" s="252">
+        <f t="shared" si="5"/>
+        <v>86443847182000</v>
+      </c>
+      <c r="E33" s="252">
+        <f t="shared" si="5"/>
+        <v>40800652766378.289</v>
+      </c>
+      <c r="F33" t="s">
+        <v>608</v>
+      </c>
+      <c r="H33" s="255">
+        <f>'GREET1 Fuel_Specs'!$D$79</f>
+        <v>17906000</v>
+      </c>
+      <c r="I33" t="s">
+        <v>626</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="54" t="s">
+        <v>261</v>
+      </c>
+      <c r="B34" s="252">
+        <f t="shared" ref="B34:E38" si="6">B10*$H34</f>
+        <v>1.8378161661137E+16</v>
+      </c>
+      <c r="C34" s="252">
+        <f t="shared" si="6"/>
+        <v>59587481112000</v>
+      </c>
+      <c r="D34" s="252">
+        <f t="shared" si="6"/>
+        <v>1382905897569000</v>
+      </c>
+      <c r="E34" s="252">
+        <f t="shared" si="6"/>
+        <v>1.705484324468E+16</v>
+      </c>
+      <c r="F34" t="s">
+        <v>608</v>
+      </c>
+      <c r="H34">
+        <f>'AEO Table 73'!$C32*10^9</f>
+        <v>5056643000</v>
+      </c>
+      <c r="I34" t="s">
+        <v>626</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="54" t="s">
+        <v>272</v>
+      </c>
+      <c r="B35" s="252">
+        <f t="shared" si="6"/>
+        <v>1.0682345175E+16</v>
+      </c>
+      <c r="C35" s="252">
+        <f t="shared" si="6"/>
+        <v>320229375000000</v>
+      </c>
+      <c r="D35" s="252">
+        <f t="shared" si="6"/>
+        <v>2936702875000000</v>
+      </c>
+      <c r="E35" s="252">
+        <f t="shared" si="6"/>
+        <v>8065871675000000</v>
+      </c>
+      <c r="F35" t="s">
+        <v>608</v>
+      </c>
+      <c r="H35">
+        <f>'AEO Table 73'!$C19*10^9</f>
+        <v>5825000000</v>
+      </c>
+      <c r="I35" t="s">
+        <v>626</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="54" t="s">
+        <v>273</v>
+      </c>
+      <c r="B36" s="252">
+        <f t="shared" si="6"/>
+        <v>1516685170700000</v>
+      </c>
+      <c r="C36" s="252">
+        <f t="shared" si="6"/>
+        <v>7290929280000</v>
+      </c>
+      <c r="D36" s="252">
+        <f t="shared" si="6"/>
+        <v>132276004240000</v>
+      </c>
+      <c r="E36" s="252">
+        <f t="shared" si="6"/>
+        <v>1391700095740000</v>
+      </c>
+      <c r="F36" t="s">
+        <v>608</v>
+      </c>
+      <c r="H36">
+        <f>'AEO Table 73'!$C29*10^9</f>
+        <v>3997220000</v>
+      </c>
+      <c r="I36" t="s">
+        <v>626</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="54" t="s">
+        <v>274</v>
+      </c>
+      <c r="B37" s="252">
+        <f t="shared" si="6"/>
+        <v>203604487000000</v>
+      </c>
+      <c r="C37" s="252">
+        <f t="shared" si="6"/>
+        <v>74398997000000</v>
+      </c>
+      <c r="D37" s="252">
+        <f t="shared" si="6"/>
+        <v>11939852000000</v>
+      </c>
+      <c r="E37" s="252">
+        <f t="shared" si="6"/>
+        <v>266063632000000</v>
+      </c>
+      <c r="F37" t="s">
+        <v>608</v>
+      </c>
+      <c r="H37">
+        <f>'AEO Table 73'!$C18*10^9</f>
+        <v>5359000000</v>
+      </c>
+      <c r="I37" t="s">
+        <v>626</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="54" t="s">
+        <v>263</v>
+      </c>
+      <c r="B38" s="252">
+        <f t="shared" si="6"/>
+        <v>3537592380000000</v>
+      </c>
+      <c r="C38" s="252">
+        <f t="shared" si="6"/>
+        <v>338510340000000</v>
+      </c>
+      <c r="D38" s="252">
+        <f t="shared" si="6"/>
+        <v>393656760000000</v>
+      </c>
+      <c r="E38" s="252">
+        <f t="shared" si="6"/>
+        <v>3482445960000000</v>
+      </c>
+      <c r="F38" t="s">
+        <v>608</v>
+      </c>
+      <c r="H38">
+        <f>'AEO Table 73'!$C30*10^9</f>
+        <v>5670000000</v>
+      </c>
+      <c r="I38" t="s">
+        <v>626</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="55" t="s">
+        <v>315</v>
+      </c>
+      <c r="B39" s="253"/>
+      <c r="C39" s="253"/>
+      <c r="D39" s="253"/>
+      <c r="E39" s="253"/>
+      <c r="F39" s="57"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="55" t="s">
+        <v>276</v>
+      </c>
+      <c r="B40" s="253"/>
+      <c r="C40" s="253"/>
+      <c r="D40" s="253"/>
+      <c r="E40" s="253"/>
+      <c r="F40" s="57"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="54" t="s">
+        <v>277</v>
+      </c>
+      <c r="B41" s="252">
+        <f t="shared" ref="B41:E42" si="7">B17*$H41</f>
+        <v>906213062527442.13</v>
+      </c>
+      <c r="C41" s="252">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="D41" s="252">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E41" s="252">
+        <f t="shared" si="7"/>
+        <v>906213062527442.13</v>
+      </c>
+      <c r="F41" t="s">
+        <v>608</v>
+      </c>
+      <c r="H41">
+        <f>'GREET1 Fuel_Specs'!$D$68*10^6</f>
+        <v>12992301971719.6</v>
+      </c>
+      <c r="I41" t="s">
+        <v>626</v>
+      </c>
+      <c r="J41" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="54" t="s">
+        <v>264</v>
+      </c>
+      <c r="B42" s="252">
+        <f t="shared" si="7"/>
+        <v>1.9534750848E+16</v>
+      </c>
+      <c r="C42" s="252">
+        <f t="shared" si="7"/>
+        <v>1.664631841E+16</v>
+      </c>
+      <c r="D42" s="252">
+        <f t="shared" si="7"/>
+        <v>2418070514000000</v>
+      </c>
+      <c r="E42" s="252">
+        <f t="shared" si="7"/>
+        <v>3.3762998744E+16</v>
+      </c>
+      <c r="F42" t="s">
+        <v>608</v>
+      </c>
+      <c r="H42">
+        <f>'AEO Table 73'!$C48*10^9</f>
+        <v>5723000000</v>
+      </c>
+      <c r="I42" t="s">
+        <v>626</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="54" t="s">
+        <v>278</v>
+      </c>
+      <c r="B43" s="252">
+        <f t="shared" ref="B43:E43" si="8">B19*$H43</f>
+        <v>979835237000000</v>
+      </c>
+      <c r="C43" s="252">
+        <f t="shared" si="8"/>
+        <v>433897305000000</v>
+      </c>
+      <c r="D43" s="252">
+        <f t="shared" si="8"/>
+        <v>705652880000000</v>
+      </c>
+      <c r="E43" s="252">
+        <f t="shared" si="8"/>
+        <v>708079662000000</v>
+      </c>
+      <c r="F43" t="s">
+        <v>608</v>
+      </c>
+      <c r="H43">
+        <f>'AEO Table 73'!$C41*10^9</f>
+        <v>6287000000</v>
+      </c>
+      <c r="I43" t="s">
+        <v>626</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="54" t="s">
+        <v>265</v>
+      </c>
+      <c r="B44" s="252">
+        <f t="shared" ref="B44:E44" si="9">B20*$H44</f>
+        <v>3148621106400000</v>
+      </c>
+      <c r="C44" s="252">
+        <f t="shared" si="9"/>
+        <v>222079680900000</v>
+      </c>
+      <c r="D44" s="252">
+        <f t="shared" si="9"/>
+        <v>1475922862260000</v>
+      </c>
+      <c r="E44" s="252">
+        <f t="shared" si="9"/>
+        <v>1894777925040000</v>
+      </c>
+      <c r="F44" t="s">
+        <v>608</v>
+      </c>
+      <c r="H44">
+        <f>'GREET1 Fuel_Specs'!$D$35*10^3*42</f>
+        <v>3839220000</v>
+      </c>
+      <c r="I44" t="s">
+        <v>626</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="54" t="s">
+        <v>279</v>
+      </c>
+      <c r="B45" s="252">
+        <f t="shared" ref="B45:E45" si="10">B21*$H45</f>
+        <v>3564295858911020.5</v>
+      </c>
+      <c r="C45" s="252">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D45" s="252">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E45" s="252">
+        <f t="shared" si="10"/>
+        <v>3564295858911020.5</v>
+      </c>
+      <c r="F45" t="s">
+        <v>608</v>
+      </c>
+      <c r="H45">
+        <f>'GREET1 Fuel_Specs'!$D$87*10^6</f>
+        <v>13583444584264.561</v>
+      </c>
+      <c r="I45" t="s">
+        <v>626</v>
+      </c>
+      <c r="J45" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="54" t="s">
+        <v>280</v>
+      </c>
+      <c r="B46" s="252">
+        <f t="shared" ref="B46:E46" si="11">B22*$H46</f>
+        <v>8746500000000000</v>
+      </c>
+      <c r="C46" s="252">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="D46" s="252">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E46" s="252">
+        <f t="shared" si="11"/>
+        <v>8746500000000000</v>
+      </c>
+      <c r="F46" t="s">
+        <v>608</v>
+      </c>
+      <c r="H46">
+        <f>'GREET1 Fuel_Specs'!$D$61*'GREET1 Fuel_Specs'!$E$61*10^12</f>
+        <v>874650000000000</v>
+      </c>
+      <c r="I46" t="s">
+        <v>626</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -13764,7 +15132,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
@@ -13893,7 +15261,7 @@
         <v>266</v>
       </c>
       <c r="B2" s="44">
-        <f>'HK start year data'!B51</f>
+        <f>'HK start year data'!B82</f>
         <v>0</v>
       </c>
       <c r="C2">
@@ -14034,7 +15402,7 @@
         <v>267</v>
       </c>
       <c r="B3" s="44">
-        <f>'HK start year data'!B52</f>
+        <f>'HK start year data'!B83</f>
         <v>0</v>
       </c>
       <c r="C3">
@@ -14175,7 +15543,7 @@
         <v>257</v>
       </c>
       <c r="B4" s="44">
-        <f>'HK start year data'!B53</f>
+        <f>'HK start year data'!B84</f>
         <v>0</v>
       </c>
       <c r="C4">
@@ -14316,7 +15684,7 @@
         <v>268</v>
       </c>
       <c r="B5" s="44">
-        <f>'HK start year data'!B54</f>
+        <f>'HK start year data'!B85</f>
         <v>0</v>
       </c>
       <c r="C5">
@@ -14457,7 +15825,7 @@
         <v>269</v>
       </c>
       <c r="B6" s="44">
-        <f>'HK start year data'!B55</f>
+        <f>'HK start year data'!B86</f>
         <v>0</v>
       </c>
       <c r="C6">
@@ -14598,7 +15966,7 @@
         <v>270</v>
       </c>
       <c r="B7" s="44">
-        <f>'HK start year data'!B56</f>
+        <f>'HK start year data'!B87</f>
         <v>0</v>
       </c>
       <c r="C7">
@@ -14739,7 +16107,7 @@
         <v>271</v>
       </c>
       <c r="B8" s="44">
-        <f>'HK start year data'!B57</f>
+        <f>'HK start year data'!B88</f>
         <v>0</v>
       </c>
       <c r="C8">
@@ -14880,7 +16248,7 @@
         <v>260</v>
       </c>
       <c r="B9" s="44">
-        <f>'HK start year data'!B58</f>
+        <f>'HK start year data'!B89</f>
         <v>0</v>
       </c>
       <c r="C9">
@@ -15021,7 +16389,7 @@
         <v>261</v>
       </c>
       <c r="B10" s="44">
-        <f>'HK start year data'!B59</f>
+        <f>'HK start year data'!B90</f>
         <v>0</v>
       </c>
       <c r="C10">
@@ -15162,7 +16530,7 @@
         <v>272</v>
       </c>
       <c r="B11" s="44">
-        <f>'HK start year data'!B60</f>
+        <f>'HK start year data'!B91</f>
         <v>0</v>
       </c>
       <c r="C11">
@@ -15303,7 +16671,7 @@
         <v>273</v>
       </c>
       <c r="B12" s="44">
-        <f>'HK start year data'!B61</f>
+        <f>'HK start year data'!B92</f>
         <v>0</v>
       </c>
       <c r="C12">
@@ -15444,7 +16812,7 @@
         <v>274</v>
       </c>
       <c r="B13" s="44">
-        <f>'HK start year data'!B62</f>
+        <f>'HK start year data'!B93</f>
         <v>0</v>
       </c>
       <c r="C13">
@@ -15585,7 +16953,7 @@
         <v>263</v>
       </c>
       <c r="B14" s="44">
-        <f>'HK start year data'!B63</f>
+        <f>'HK start year data'!B94</f>
         <v>0</v>
       </c>
       <c r="C14">
@@ -15726,7 +17094,7 @@
         <v>315</v>
       </c>
       <c r="B15" s="44">
-        <f>'HK start year data'!B64</f>
+        <f>'HK start year data'!B95</f>
         <v>0</v>
       </c>
       <c r="C15">
@@ -15867,7 +17235,7 @@
         <v>276</v>
       </c>
       <c r="B16" s="44">
-        <f>'HK start year data'!B65</f>
+        <f>'HK start year data'!B96</f>
         <v>0</v>
       </c>
       <c r="C16">
@@ -16008,7 +17376,7 @@
         <v>277</v>
       </c>
       <c r="B17" s="44">
-        <f>'HK start year data'!B66</f>
+        <f>'HK start year data'!B97</f>
         <v>0</v>
       </c>
       <c r="C17">
@@ -16149,7 +17517,7 @@
         <v>264</v>
       </c>
       <c r="B18" s="44">
-        <f>'HK start year data'!B67</f>
+        <f>'HK start year data'!B98</f>
         <v>0</v>
       </c>
       <c r="C18">
@@ -16290,7 +17658,7 @@
         <v>278</v>
       </c>
       <c r="B19" s="44">
-        <f>'HK start year data'!B68</f>
+        <f>'HK start year data'!B99</f>
         <v>0</v>
       </c>
       <c r="C19">
@@ -16431,7 +17799,7 @@
         <v>265</v>
       </c>
       <c r="B20" s="44">
-        <f>'HK start year data'!B69</f>
+        <f>'HK start year data'!B100</f>
         <v>0</v>
       </c>
       <c r="C20">
@@ -16572,7 +17940,7 @@
         <v>279</v>
       </c>
       <c r="B21" s="44">
-        <f>'HK start year data'!B70</f>
+        <f>'HK start year data'!B101</f>
         <v>0</v>
       </c>
       <c r="C21">
@@ -16713,7 +18081,7 @@
         <v>280</v>
       </c>
       <c r="B22" s="44">
-        <f>'HK start year data'!B71</f>
+        <f>'HK start year data'!B102</f>
         <v>0</v>
       </c>
       <c r="C22">
@@ -16858,15 +18226,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AI23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="A1:AI22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16988,7 +18356,7 @@
         <v>266</v>
       </c>
       <c r="B2" s="44">
-        <f>'HK start year data'!C51</f>
+        <f>'HK start year data'!C27</f>
         <v>0</v>
       </c>
       <c r="C2">
@@ -17129,140 +18497,140 @@
         <v>267</v>
       </c>
       <c r="B3" s="44">
-        <f>'HK start year data'!C52</f>
-        <v>2.8357153035611023E+20</v>
+        <f>'HK start year data'!C28</f>
+        <v>262600315632960</v>
       </c>
       <c r="C3">
         <f>$B3*'Time Series Scaling Factors'!C29</f>
-        <v>2.8827401017985833E+20</v>
+        <v>266955028831506.84</v>
       </c>
       <c r="D3">
         <f>$B3*'Time Series Scaling Factors'!D29</f>
-        <v>2.9624778031577904E+20</v>
+        <v>274339107733390.63</v>
       </c>
       <c r="E3">
         <f>$B3*'Time Series Scaling Factors'!E29</f>
-        <v>2.9522296751911961E+20</v>
+        <v>273390083818579.72</v>
       </c>
       <c r="F3">
         <f>$B3*'Time Series Scaling Factors'!F29</f>
-        <v>2.6653496807693658E+20</v>
+        <v>246823673223923.53</v>
       </c>
       <c r="G3">
         <f>$B3*'Time Series Scaling Factors'!G29</f>
-        <v>2.3930350388738415E+20</v>
+        <v>221606081449658.06</v>
       </c>
       <c r="H3">
         <f>$B3*'Time Series Scaling Factors'!H29</f>
-        <v>2.2699307745694332E+20</v>
+        <v>210206058809337.19</v>
       </c>
       <c r="I3">
         <f>$B3*'Time Series Scaling Factors'!I29</f>
-        <v>2.1569141152049368E+20</v>
+        <v>199740194911212.66</v>
       </c>
       <c r="J3">
         <f>$B3*'Time Series Scaling Factors'!J29</f>
-        <v>2.0893592667128604E+20</v>
+        <v>193484304373019.94</v>
       </c>
       <c r="K3">
         <f>$B3*'Time Series Scaling Factors'!K29</f>
-        <v>2.0162705980904299E+20</v>
+        <v>186715956568379.53</v>
       </c>
       <c r="L3">
         <f>$B3*'Time Series Scaling Factors'!L29</f>
-        <v>2.0316554629108489E+20</v>
+        <v>188140666006854.84</v>
       </c>
       <c r="M3">
         <f>$B3*'Time Series Scaling Factors'!M29</f>
-        <v>2.1103877832082054E+20</v>
+        <v>195431641985521.41</v>
       </c>
       <c r="N3">
         <f>$B3*'Time Series Scaling Factors'!N29</f>
-        <v>2.0853377424654582E+20</v>
+        <v>193111892680151.06</v>
       </c>
       <c r="O3">
         <f>$B3*'Time Series Scaling Factors'!O29</f>
-        <v>2.0940313316473422E+20</v>
+        <v>193916959133852.94</v>
       </c>
       <c r="P3">
         <f>$B3*'Time Series Scaling Factors'!P29</f>
-        <v>2.0282506850291198E+20</v>
+        <v>187825367871925.94</v>
       </c>
       <c r="Q3">
         <f>$B3*'Time Series Scaling Factors'!Q29</f>
-        <v>2.0763991444533746E+20</v>
+        <v>192284137278774.34</v>
       </c>
       <c r="R3">
         <f>$B3*'Time Series Scaling Factors'!R29</f>
-        <v>2.0783085236128557E+20</v>
+        <v>192460954595136.47</v>
       </c>
       <c r="S3">
         <f>$B3*'Time Series Scaling Factors'!S29</f>
-        <v>2.1392565822699143E+20</v>
+        <v>198105025923616</v>
       </c>
       <c r="T3">
         <f>$B3*'Time Series Scaling Factors'!T29</f>
-        <v>2.0871034957589604E+20</v>
+        <v>193275409578910.72</v>
       </c>
       <c r="U3">
         <f>$B3*'Time Series Scaling Factors'!U29</f>
-        <v>2.0891311550433647E+20</v>
+        <v>193463180180357.22</v>
       </c>
       <c r="V3">
         <f>$B3*'Time Series Scaling Factors'!V29</f>
-        <v>2.0924176528001706E+20</v>
+        <v>193767525030201.78</v>
       </c>
       <c r="W3">
         <f>$B3*'Time Series Scaling Factors'!W29</f>
-        <v>2.0986189107783077E+20</v>
+        <v>194341790119625.66</v>
       </c>
       <c r="X3">
         <f>$B3*'Time Series Scaling Factors'!X29</f>
-        <v>2.1075321630493357E+20</v>
+        <v>195167198388484.25</v>
       </c>
       <c r="Y3">
         <f>$B3*'Time Series Scaling Factors'!Y29</f>
-        <v>2.1257895451893275E+20</v>
+        <v>196857916179008.78</v>
       </c>
       <c r="Z3">
         <f>$B3*'Time Series Scaling Factors'!Z29</f>
-        <v>2.1065014362464302E+20</v>
+        <v>195071748332748.94</v>
       </c>
       <c r="AA3">
         <f>$B3*'Time Series Scaling Factors'!AA29</f>
-        <v>2.0867402068038379E+20</v>
+        <v>193241767346151.53</v>
       </c>
       <c r="AB3">
         <f>$B3*'Time Series Scaling Factors'!AB29</f>
-        <v>2.067612620887622E+20</v>
+        <v>191470464672506.19</v>
       </c>
       <c r="AC3">
         <f>$B3*'Time Series Scaling Factors'!AC29</f>
-        <v>2.0477753542218646E+20</v>
+        <v>189633442288354.56</v>
       </c>
       <c r="AD3">
         <f>$B3*'Time Series Scaling Factors'!AD29</f>
-        <v>2.037316011746478E+20</v>
+        <v>188664858935893</v>
       </c>
       <c r="AE3">
         <f>$B3*'Time Series Scaling Factors'!AE29</f>
-        <v>2.0157129917872184E+20</v>
+        <v>186664319652981.72</v>
       </c>
       <c r="AF3">
         <f>$B3*'Time Series Scaling Factors'!AF29</f>
-        <v>2.0002858840650406E+20</v>
+        <v>185235698326976.22</v>
       </c>
       <c r="AG3">
         <f>$B3*'Time Series Scaling Factors'!AG29</f>
-        <v>1.9872074816806319E+20</v>
+        <v>184024577947646.28</v>
       </c>
       <c r="AH3">
         <f>$B3*'Time Series Scaling Factors'!AH29</f>
-        <v>1.979764282390797E+20</v>
+        <v>183335303364836.44</v>
       </c>
       <c r="AI3">
         <f>$B3*'Time Series Scaling Factors'!AI29</f>
-        <v>1.9726252319936227E+20</v>
+        <v>182674194372243.5</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
@@ -17270,140 +18638,140 @@
         <v>257</v>
       </c>
       <c r="B4" s="44">
-        <f>'HK start year data'!C53</f>
-        <v>122357182809544.66</v>
+        <f>'HK start year data'!C29</f>
+        <v>9744252294628.3535</v>
       </c>
       <c r="C4">
         <f>$B4*'Time Series Scaling Factors'!C30</f>
-        <v>117823551166575.2</v>
+        <v>9383204013476.209</v>
       </c>
       <c r="D4">
         <f>$B4*'Time Series Scaling Factors'!D30</f>
-        <v>107288966513916.06</v>
+        <v>8544253260299.6416</v>
       </c>
       <c r="E4">
         <f>$B4*'Time Series Scaling Factors'!E30</f>
-        <v>106571016162368.36</v>
+        <v>8487077300541.0107</v>
       </c>
       <c r="F4">
         <f>$B4*'Time Series Scaling Factors'!F30</f>
-        <v>107871115024809.59</v>
+        <v>8590614265292.0371</v>
       </c>
       <c r="G4">
         <f>$B4*'Time Series Scaling Factors'!G30</f>
-        <v>108625329074600.98</v>
+        <v>8650678184847.624</v>
       </c>
       <c r="H4">
         <f>$B4*'Time Series Scaling Factors'!H30</f>
-        <v>111261199883749.23</v>
+        <v>8860593038970.7871</v>
       </c>
       <c r="I4">
         <f>$B4*'Time Series Scaling Factors'!I30</f>
-        <v>111573752800859.34</v>
+        <v>8885484054028.5918</v>
       </c>
       <c r="J4">
         <f>$B4*'Time Series Scaling Factors'!J30</f>
-        <v>113676574807810.98</v>
+        <v>9052948094111.3711</v>
       </c>
       <c r="K4">
         <f>$B4*'Time Series Scaling Factors'!K30</f>
-        <v>111653643184937.98</v>
+        <v>8891846345481.3848</v>
       </c>
       <c r="L4">
         <f>$B4*'Time Series Scaling Factors'!L30</f>
-        <v>109359816617530.17</v>
+        <v>8709171129529.9473</v>
       </c>
       <c r="M4">
         <f>$B4*'Time Series Scaling Factors'!M30</f>
-        <v>110209552634682.23</v>
+        <v>8776842204859.0576</v>
       </c>
       <c r="N4">
         <f>$B4*'Time Series Scaling Factors'!N30</f>
-        <v>107890565911815.45</v>
+        <v>8592163290416.5723</v>
       </c>
       <c r="O4">
         <f>$B4*'Time Series Scaling Factors'!O30</f>
-        <v>107181474769936.41</v>
+        <v>8535692858295.6348</v>
       </c>
       <c r="P4">
         <f>$B4*'Time Series Scaling Factors'!P30</f>
-        <v>106455610191084.7</v>
+        <v>8477886627180.666</v>
       </c>
       <c r="Q4">
         <f>$B4*'Time Series Scaling Factors'!Q30</f>
-        <v>108788141661178.23</v>
+        <v>8663644214989.2236</v>
       </c>
       <c r="R4">
         <f>$B4*'Time Series Scaling Factors'!R30</f>
-        <v>107364210734701.84</v>
+        <v>8550245541702.4473</v>
       </c>
       <c r="S4">
         <f>$B4*'Time Series Scaling Factors'!S30</f>
-        <v>105088338832222.48</v>
+        <v>8369000195096.7324</v>
       </c>
       <c r="T4">
         <f>$B4*'Time Series Scaling Factors'!T30</f>
-        <v>104324359964662.98</v>
+        <v>8308158627300.4893</v>
       </c>
       <c r="U4">
         <f>$B4*'Time Series Scaling Factors'!U30</f>
-        <v>102297254669679.42</v>
+        <v>8146724496761.1914</v>
       </c>
       <c r="V4">
         <f>$B4*'Time Series Scaling Factors'!V30</f>
-        <v>100065560692747.75</v>
+        <v>7968997381308.7725</v>
       </c>
       <c r="W4">
         <f>$B4*'Time Series Scaling Factors'!W30</f>
-        <v>98267731743988.938</v>
+        <v>7825822306032.9648</v>
       </c>
       <c r="X4">
         <f>$B4*'Time Series Scaling Factors'!X30</f>
-        <v>96948142620276.672</v>
+        <v>7720733180479.0146</v>
       </c>
       <c r="Y4">
         <f>$B4*'Time Series Scaling Factors'!Y30</f>
-        <v>96445215130953.516</v>
+        <v>7680681160406.7881</v>
       </c>
       <c r="Z4">
         <f>$B4*'Time Series Scaling Factors'!Z30</f>
-        <v>94116109221931.844</v>
+        <v>7495196376618.1377</v>
       </c>
       <c r="AA4">
         <f>$B4*'Time Series Scaling Factors'!AA30</f>
-        <v>92735450612903.672</v>
+        <v>7385243813881.6914</v>
       </c>
       <c r="AB4">
         <f>$B4*'Time Series Scaling Factors'!AB30</f>
-        <v>91628915638156.219</v>
+        <v>7297121844094.6563</v>
       </c>
       <c r="AC4">
         <f>$B4*'Time Series Scaling Factors'!AC30</f>
-        <v>87938956375498.938</v>
+        <v>7003261743799.6006</v>
       </c>
       <c r="AD4">
         <f>$B4*'Time Series Scaling Factors'!AD30</f>
-        <v>86102343775524.047</v>
+        <v>6856998025309.8945</v>
       </c>
       <c r="AE4">
         <f>$B4*'Time Series Scaling Factors'!AE30</f>
-        <v>82887435022432.594</v>
+        <v>6600969884787.126</v>
       </c>
       <c r="AF4">
         <f>$B4*'Time Series Scaling Factors'!AF30</f>
-        <v>80096232737093.953</v>
+        <v>6378684779416.416</v>
       </c>
       <c r="AG4">
         <f>$B4*'Time Series Scaling Factors'!AG30</f>
-        <v>77739249848314.922</v>
+        <v>6190979935327.8242</v>
       </c>
       <c r="AH4">
         <f>$B4*'Time Series Scaling Factors'!AH30</f>
-        <v>75606582148346.203</v>
+        <v>6021139051025.6172</v>
       </c>
       <c r="AI4">
         <f>$B4*'Time Series Scaling Factors'!AI30</f>
-        <v>71382747223923.281</v>
+        <v>5684762287443.9951</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
@@ -17411,7 +18779,7 @@
         <v>268</v>
       </c>
       <c r="B5" s="44">
-        <f>'HK start year data'!C54</f>
+        <f>'HK start year data'!C30</f>
         <v>0</v>
       </c>
       <c r="C5">
@@ -17552,7 +18920,7 @@
         <v>269</v>
       </c>
       <c r="B6" s="44">
-        <f>'HK start year data'!C55</f>
+        <f>'HK start year data'!C31</f>
         <v>0</v>
       </c>
       <c r="C6">
@@ -17693,7 +19061,7 @@
         <v>270</v>
       </c>
       <c r="B7" s="44">
-        <f>'HK start year data'!C56</f>
+        <f>'HK start year data'!C32</f>
         <v>0</v>
       </c>
       <c r="C7">
@@ -17834,7 +19202,7 @@
         <v>271</v>
       </c>
       <c r="B8" s="44">
-        <f>'HK start year data'!C57</f>
+        <f>'HK start year data'!C33</f>
         <v>0</v>
       </c>
       <c r="C8">
@@ -17975,7 +19343,7 @@
         <v>260</v>
       </c>
       <c r="B9" s="44">
-        <f>'HK start year data'!C58</f>
+        <f>'HK start year data'!C34</f>
         <v>0</v>
       </c>
       <c r="C9">
@@ -18116,140 +19484,140 @@
         <v>261</v>
       </c>
       <c r="B10" s="44">
-        <f>'HK start year data'!C59</f>
-        <v>26533188658450.684</v>
+        <f>'HK start year data'!C35</f>
+        <v>20373793519533</v>
       </c>
       <c r="C10">
         <f>$B10*'Time Series Scaling Factors'!C36</f>
-        <v>30335815172834.707</v>
+        <v>23293681077460.816</v>
       </c>
       <c r="D10">
         <f>$B10*'Time Series Scaling Factors'!D36</f>
-        <v>29143848005842.199</v>
+        <v>22378416302654.586</v>
       </c>
       <c r="E10">
         <f>$B10*'Time Series Scaling Factors'!E36</f>
-        <v>27773431100194.707</v>
+        <v>21326126981881.723</v>
       </c>
       <c r="F10">
         <f>$B10*'Time Series Scaling Factors'!F36</f>
-        <v>28788516607131.902</v>
+        <v>22105571276694.063</v>
       </c>
       <c r="G10">
         <f>$B10*'Time Series Scaling Factors'!G36</f>
-        <v>28496842017528.609</v>
+        <v>21881605814420.859</v>
       </c>
       <c r="H10">
         <f>$B10*'Time Series Scaling Factors'!H36</f>
-        <v>27531103106218.266</v>
+        <v>21140052832376.656</v>
       </c>
       <c r="I10">
         <f>$B10*'Time Series Scaling Factors'!I36</f>
-        <v>27897524770749.859</v>
+        <v>21421413637907.754</v>
       </c>
       <c r="J10">
         <f>$B10*'Time Series Scaling Factors'!J36</f>
-        <v>27162724335953.508</v>
+        <v>20857189242215.461</v>
       </c>
       <c r="K10">
         <f>$B10*'Time Series Scaling Factors'!K36</f>
-        <v>25508449293569.746</v>
+        <v>19586936406346.488</v>
       </c>
       <c r="L10">
         <f>$B10*'Time Series Scaling Factors'!L36</f>
-        <v>26326896547102.414</v>
+        <v>20215389909042.727</v>
       </c>
       <c r="M10">
         <f>$B10*'Time Series Scaling Factors'!M36</f>
-        <v>24758823932470.461</v>
+        <v>19011328531972.977</v>
       </c>
       <c r="N10">
         <f>$B10*'Time Series Scaling Factors'!N36</f>
-        <v>24581445514690.824</v>
+        <v>18875126611231.996</v>
       </c>
       <c r="O10">
         <f>$B10*'Time Series Scaling Factors'!O36</f>
-        <v>24218890181362.984</v>
+        <v>18596734609587.887</v>
       </c>
       <c r="P10">
         <f>$B10*'Time Series Scaling Factors'!P36</f>
-        <v>24247755994669.027</v>
+        <v>18618899533963.961</v>
       </c>
       <c r="Q10">
         <f>$B10*'Time Series Scaling Factors'!Q36</f>
-        <v>24288382397472.559</v>
+        <v>18650094953135.598</v>
       </c>
       <c r="R10">
         <f>$B10*'Time Series Scaling Factors'!R36</f>
-        <v>24352284592925.305</v>
+        <v>18699162939360.633</v>
       </c>
       <c r="S10">
         <f>$B10*'Time Series Scaling Factors'!S36</f>
-        <v>23603820328193.711</v>
+        <v>18124446625287.547</v>
       </c>
       <c r="T10">
         <f>$B10*'Time Series Scaling Factors'!T36</f>
-        <v>23049474618048.098</v>
+        <v>17698786325565.203</v>
       </c>
       <c r="U10">
         <f>$B10*'Time Series Scaling Factors'!U36</f>
-        <v>23927335292416.156</v>
+        <v>18372861060747.715</v>
       </c>
       <c r="V10">
         <f>$B10*'Time Series Scaling Factors'!V36</f>
-        <v>23215439578233.988</v>
+        <v>17826224300466.418</v>
       </c>
       <c r="W10">
         <f>$B10*'Time Series Scaling Factors'!W36</f>
-        <v>23311421549618.816</v>
+        <v>17899925086744.488</v>
       </c>
       <c r="X10">
         <f>$B10*'Time Series Scaling Factors'!X36</f>
-        <v>23580095658082.754</v>
+        <v>18106229382860.27</v>
       </c>
       <c r="Y10">
         <f>$B10*'Time Series Scaling Factors'!Y36</f>
-        <v>23757216719450.996</v>
+        <v>18242233689720.227</v>
       </c>
       <c r="Z10">
         <f>$B10*'Time Series Scaling Factors'!Z36</f>
-        <v>24042918246296.789</v>
+        <v>18461612671685.051</v>
       </c>
       <c r="AA10">
         <f>$B10*'Time Series Scaling Factors'!AA36</f>
-        <v>24000143216709.75</v>
+        <v>18428767406390.461</v>
       </c>
       <c r="AB10">
         <f>$B10*'Time Series Scaling Factors'!AB36</f>
-        <v>24245930559657.969</v>
+        <v>18617497854110.199</v>
       </c>
       <c r="AC10">
         <f>$B10*'Time Series Scaling Factors'!AC36</f>
-        <v>24917463212480.82</v>
+        <v>19133141404772.531</v>
       </c>
       <c r="AD10">
         <f>$B10*'Time Series Scaling Factors'!AD36</f>
-        <v>25221670460815.789</v>
+        <v>19366730203484.363</v>
       </c>
       <c r="AE10">
         <f>$B10*'Time Series Scaling Factors'!AE36</f>
-        <v>25132613172407.348</v>
+        <v>19298346609307.297</v>
       </c>
       <c r="AF10">
         <f>$B10*'Time Series Scaling Factors'!AF36</f>
-        <v>25590234767098.07</v>
+        <v>19649736259466.766</v>
       </c>
       <c r="AG10">
         <f>$B10*'Time Series Scaling Factors'!AG36</f>
-        <v>25926880893334.5</v>
+        <v>19908233598530.727</v>
       </c>
       <c r="AH10">
         <f>$B10*'Time Series Scaling Factors'!AH36</f>
-        <v>26533056987728.57</v>
+        <v>20373692414756.66</v>
       </c>
       <c r="AI10">
         <f>$B10*'Time Series Scaling Factors'!AI36</f>
-        <v>26866572941798.496</v>
+        <v>20629786217546.793</v>
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
@@ -18257,140 +19625,140 @@
         <v>272</v>
       </c>
       <c r="B11" s="44">
-        <f>'HK start year data'!C60</f>
-        <v>355101156047220.06</v>
+        <f>'HK start year data'!C36</f>
+        <v>268504345547659.03</v>
       </c>
       <c r="C11">
         <f>$B11*'Time Series Scaling Factors'!C37</f>
-        <v>405992780444708.69</v>
+        <v>306985274347811.69</v>
       </c>
       <c r="D11">
         <f>$B11*'Time Series Scaling Factors'!D37</f>
-        <v>390040347270622</v>
+        <v>294923084303205.5</v>
       </c>
       <c r="E11">
         <f>$B11*'Time Series Scaling Factors'!E37</f>
-        <v>371699670854895.13</v>
+        <v>281055060406230.97</v>
       </c>
       <c r="F11">
         <f>$B11*'Time Series Scaling Factors'!F37</f>
-        <v>385284846826022.56</v>
+        <v>291327284872862.44</v>
       </c>
       <c r="G11">
         <f>$B11*'Time Series Scaling Factors'!G37</f>
-        <v>381381283432606.63</v>
+        <v>288375664703781.44</v>
       </c>
       <c r="H11">
         <f>$B11*'Time Series Scaling Factors'!H37</f>
-        <v>368456526884853.25</v>
+        <v>278602806353086.94</v>
       </c>
       <c r="I11">
         <f>$B11*'Time Series Scaling Factors'!I37</f>
-        <v>373360451488520.31</v>
+        <v>282310834456908.69</v>
       </c>
       <c r="J11">
         <f>$B11*'Time Series Scaling Factors'!J37</f>
-        <v>363526409782527.25</v>
+        <v>274874973189239.59</v>
       </c>
       <c r="K11">
         <f>$B11*'Time Series Scaling Factors'!K37</f>
-        <v>341386779769251.75</v>
+        <v>258134428231420.97</v>
       </c>
       <c r="L11">
         <f>$B11*'Time Series Scaling Factors'!L37</f>
-        <v>352340290469917.44</v>
+        <v>266416758975904.47</v>
       </c>
       <c r="M11">
         <f>$B11*'Time Series Scaling Factors'!M37</f>
-        <v>331354331888401.56</v>
+        <v>250548545148206.03</v>
       </c>
       <c r="N11">
         <f>$B11*'Time Series Scaling Factors'!N37</f>
-        <v>328980426436547.25</v>
+        <v>248753552597808.88</v>
       </c>
       <c r="O11">
         <f>$B11*'Time Series Scaling Factors'!O37</f>
-        <v>324128246035123.94</v>
+        <v>245084650086576.03</v>
       </c>
       <c r="P11">
         <f>$B11*'Time Series Scaling Factors'!P37</f>
-        <v>324514565365497.94</v>
+        <v>245376759580471</v>
       </c>
       <c r="Q11">
         <f>$B11*'Time Series Scaling Factors'!Q37</f>
-        <v>325058279985978.69</v>
+        <v>245787881132318.22</v>
       </c>
       <c r="R11">
         <f>$B11*'Time Series Scaling Factors'!R37</f>
-        <v>325913501111917.44</v>
+        <v>246434543596825.06</v>
       </c>
       <c r="S11">
         <f>$B11*'Time Series Scaling Factors'!S37</f>
-        <v>315896592511617.25</v>
+        <v>238860410304573.38</v>
       </c>
       <c r="T11">
         <f>$B11*'Time Series Scaling Factors'!T37</f>
-        <v>308477627340997.63</v>
+        <v>233250672476760.72</v>
       </c>
       <c r="U11">
         <f>$B11*'Time Series Scaling Factors'!U37</f>
-        <v>320226284629393.5</v>
+        <v>242134241236151.03</v>
       </c>
       <c r="V11">
         <f>$B11*'Time Series Scaling Factors'!V37</f>
-        <v>310698783267033.38</v>
+        <v>234930165793308</v>
       </c>
       <c r="W11">
         <f>$B11*'Time Series Scaling Factors'!W37</f>
-        <v>311983337092703.56</v>
+        <v>235901461657623.53</v>
       </c>
       <c r="X11">
         <f>$B11*'Time Series Scaling Factors'!X37</f>
-        <v>315579078552338.31</v>
+        <v>238620326946953.69</v>
       </c>
       <c r="Y11">
         <f>$B11*'Time Series Scaling Factors'!Y37</f>
-        <v>317949539730668.69</v>
+        <v>240412715162240.44</v>
       </c>
       <c r="Z11">
         <f>$B11*'Time Series Scaling Factors'!Z37</f>
-        <v>321773163938575</v>
+        <v>243303890530386.91</v>
       </c>
       <c r="AA11">
         <f>$B11*'Time Series Scaling Factors'!AA37</f>
-        <v>321200693639138.38</v>
+        <v>242871025808664.47</v>
       </c>
       <c r="AB11">
         <f>$B11*'Time Series Scaling Factors'!AB37</f>
-        <v>324490135053293.06</v>
+        <v>245358286970966.97</v>
       </c>
       <c r="AC11">
         <f>$B11*'Time Series Scaling Factors'!AC37</f>
-        <v>333477446168080.69</v>
+        <v>252153905763005.97</v>
       </c>
       <c r="AD11">
         <f>$B11*'Time Series Scaling Factors'!AD37</f>
-        <v>337548737672175.31</v>
+        <v>255232350995370.44</v>
       </c>
       <c r="AE11">
         <f>$B11*'Time Series Scaling Factors'!AE37</f>
-        <v>336356858834115.06</v>
+        <v>254331129915304.69</v>
       </c>
       <c r="AF11">
         <f>$B11*'Time Series Scaling Factors'!AF37</f>
-        <v>342481337855414</v>
+        <v>258962061703134.63</v>
       </c>
       <c r="AG11">
         <f>$B11*'Time Series Scaling Factors'!AG37</f>
-        <v>346986768022296.75</v>
+        <v>262368774291275.75</v>
       </c>
       <c r="AH11">
         <f>$B11*'Time Series Scaling Factors'!AH37</f>
-        <v>355099393860765.94</v>
+        <v>268503013097137.41</v>
       </c>
       <c r="AI11">
         <f>$B11*'Time Series Scaling Factors'!AI37</f>
-        <v>359562932049671.13</v>
+        <v>271878049702424.06</v>
       </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
@@ -18398,7 +19766,7 @@
         <v>273</v>
       </c>
       <c r="B12" s="44">
-        <f>'HK start year data'!C61</f>
+        <f>'HK start year data'!C37</f>
         <v>0</v>
       </c>
       <c r="C12">
@@ -18539,7 +19907,7 @@
         <v>274</v>
       </c>
       <c r="B13" s="44">
-        <f>'HK start year data'!C62</f>
+        <f>'HK start year data'!C38</f>
         <v>0</v>
       </c>
       <c r="C13">
@@ -18680,140 +20048,140 @@
         <v>263</v>
       </c>
       <c r="B14" s="44">
-        <f>'HK start year data'!C63</f>
-        <v>370295645421240</v>
+        <f>'HK start year data'!C39</f>
+        <v>277723635779412.88</v>
       </c>
       <c r="C14">
         <f>$B14*'Time Series Scaling Factors'!C40</f>
-        <v>423364880995053.38</v>
+        <v>317525835005459.19</v>
       </c>
       <c r="D14">
         <f>$B14*'Time Series Scaling Factors'!D40</f>
-        <v>406729856192565.44</v>
+        <v>305049480971719.19</v>
       </c>
       <c r="E14">
         <f>$B14*'Time Series Scaling Factors'!E40</f>
-        <v>387604397164432.69</v>
+        <v>290705288478715.69</v>
       </c>
       <c r="F14">
         <f>$B14*'Time Series Scaling Factors'!F40</f>
-        <v>401770871755466.69</v>
+        <v>301330217176224.44</v>
       </c>
       <c r="G14">
         <f>$B14*'Time Series Scaling Factors'!G40</f>
-        <v>397700278062396.69</v>
+        <v>298277251001226.25</v>
       </c>
       <c r="H14">
         <f>$B14*'Time Series Scaling Factors'!H40</f>
-        <v>384222481704205.44</v>
+        <v>288168834515168.63</v>
       </c>
       <c r="I14">
         <f>$B14*'Time Series Scaling Factors'!I40</f>
-        <v>389336241249303.94</v>
+        <v>292004180436535.94</v>
       </c>
       <c r="J14">
         <f>$B14*'Time Series Scaling Factors'!J40</f>
-        <v>379081408904754.06</v>
+        <v>284313003512765</v>
       </c>
       <c r="K14">
         <f>$B14*'Time Series Scaling Factors'!K40</f>
-        <v>355994442147419.25</v>
+        <v>266997659877893.09</v>
       </c>
       <c r="L14">
         <f>$B14*'Time Series Scaling Factors'!L40</f>
-        <v>367416644653547.19</v>
+        <v>275564370418066.81</v>
       </c>
       <c r="M14">
         <f>$B14*'Time Series Scaling Factors'!M40</f>
-        <v>345532713989315.63</v>
+        <v>259151310031409.72</v>
       </c>
       <c r="N14">
         <f>$B14*'Time Series Scaling Factors'!N40</f>
-        <v>343057231055808.88</v>
+        <v>257294685118034.66</v>
       </c>
       <c r="O14">
         <f>$B14*'Time Series Scaling Factors'!O40</f>
-        <v>337997429805242.44</v>
+        <v>253499808194677.94</v>
       </c>
       <c r="P14">
         <f>$B14*'Time Series Scaling Factors'!P40</f>
-        <v>338400279425254.63</v>
+        <v>253801947478586.84</v>
       </c>
       <c r="Q14">
         <f>$B14*'Time Series Scaling Factors'!Q40</f>
-        <v>338967259151699.44</v>
+        <v>254227185185237</v>
       </c>
       <c r="R14">
         <f>$B14*'Time Series Scaling Factors'!R40</f>
-        <v>339859074493368.63</v>
+        <v>254896051271551.53</v>
       </c>
       <c r="S14">
         <f>$B14*'Time Series Scaling Factors'!S40</f>
-        <v>329413550528978.94</v>
+        <v>247061854653572.91</v>
       </c>
       <c r="T14">
         <f>$B14*'Time Series Scaling Factors'!T40</f>
-        <v>321677133878600.69</v>
+        <v>241259502434163.84</v>
       </c>
       <c r="U14">
         <f>$B14*'Time Series Scaling Factors'!U40</f>
-        <v>333928506647606.81</v>
+        <v>250448094929834.91</v>
       </c>
       <c r="V14">
         <f>$B14*'Time Series Scaling Factors'!V40</f>
-        <v>323993331258434.69</v>
+        <v>242996662364247.53</v>
       </c>
       <c r="W14">
         <f>$B14*'Time Series Scaling Factors'!W40</f>
-        <v>325332850096530.56</v>
+        <v>244001308372136.19</v>
       </c>
       <c r="X14">
         <f>$B14*'Time Series Scaling Factors'!X40</f>
-        <v>329082450405875.38</v>
+        <v>246813527860826.72</v>
       </c>
       <c r="Y14">
         <f>$B14*'Time Series Scaling Factors'!Y40</f>
-        <v>331554341688198.06</v>
+        <v>248667459017368.28</v>
       </c>
       <c r="Z14">
         <f>$B14*'Time Series Scaling Factors'!Z40</f>
-        <v>335541575663090.19</v>
+        <v>251657904975625.59</v>
       </c>
       <c r="AA14">
         <f>$B14*'Time Series Scaling Factors'!AA40</f>
-        <v>334944609825597.44</v>
+        <v>251210177531690.94</v>
       </c>
       <c r="AB14">
         <f>$B14*'Time Series Scaling Factors'!AB40</f>
-        <v>338374803759879.63</v>
+        <v>253782840598721.16</v>
       </c>
       <c r="AC14">
         <f>$B14*'Time Series Scaling Factors'!AC40</f>
-        <v>347746674600562.69</v>
+        <v>260811791859999.63</v>
       </c>
       <c r="AD14">
         <f>$B14*'Time Series Scaling Factors'!AD40</f>
-        <v>351992173353617.31</v>
+        <v>263995937728239.63</v>
       </c>
       <c r="AE14">
         <f>$B14*'Time Series Scaling Factors'!AE40</f>
-        <v>350749294990403.13</v>
+        <v>263063772572825.09</v>
       </c>
       <c r="AF14">
         <f>$B14*'Time Series Scaling Factors'!AF40</f>
-        <v>357135835482992.06</v>
+        <v>267853710741383.72</v>
       </c>
       <c r="AG14">
         <f>$B14*'Time Series Scaling Factors'!AG40</f>
-        <v>361834049338776.63</v>
+        <v>271377395261663.16</v>
       </c>
       <c r="AH14">
         <f>$B14*'Time Series Scaling Factors'!AH40</f>
-        <v>370293807832262.06</v>
+        <v>277722257578242.22</v>
       </c>
       <c r="AI14">
         <f>$B14*'Time Series Scaling Factors'!AI40</f>
-        <v>374948337186436.38</v>
+        <v>281213178497965.06</v>
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
@@ -18821,7 +20189,7 @@
         <v>275</v>
       </c>
       <c r="B15" s="44">
-        <f>'HK start year data'!C64</f>
+        <f>'HK start year data'!C40</f>
         <v>0</v>
       </c>
       <c r="C15">
@@ -18962,7 +20330,7 @@
         <v>276</v>
       </c>
       <c r="B16" s="44">
-        <f>'HK start year data'!C65</f>
+        <f>'HK start year data'!C41</f>
         <v>0</v>
       </c>
       <c r="C16">
@@ -19103,7 +20471,7 @@
         <v>277</v>
       </c>
       <c r="B17" s="44">
-        <f>'HK start year data'!C66</f>
+        <f>'HK start year data'!C42</f>
         <v>0</v>
       </c>
       <c r="C17">
@@ -19244,7 +20612,7 @@
         <v>264</v>
       </c>
       <c r="B18" s="44">
-        <f>'HK start year data'!C67</f>
+        <f>'HK start year data'!C43</f>
         <v>0</v>
       </c>
       <c r="C18">
@@ -19385,140 +20753,140 @@
         <v>278</v>
       </c>
       <c r="B19" s="44">
-        <f>'HK start year data'!C68</f>
-        <v>425756771659999.94</v>
+        <f>'HK start year data'!C44</f>
+        <v>295990499969658</v>
       </c>
       <c r="C19">
         <f>$B19*'Time Series Scaling Factors'!C45</f>
-        <v>486774465742434.31</v>
+        <v>338410630383645.25</v>
       </c>
       <c r="D19">
         <f>$B19*'Time Series Scaling Factors'!D45</f>
-        <v>467647925789920.31</v>
+        <v>325113662490072.38</v>
       </c>
       <c r="E19">
         <f>$B19*'Time Series Scaling Factors'!E45</f>
-        <v>445657946180329.31</v>
+        <v>309826001806278.88</v>
       </c>
       <c r="F19">
         <f>$B19*'Time Series Scaling Factors'!F45</f>
-        <v>461946208173852.94</v>
+        <v>321149769581721.13</v>
       </c>
       <c r="G19">
         <f>$B19*'Time Series Scaling Factors'!G45</f>
-        <v>457265940255688.44</v>
+        <v>317895999041118.38</v>
       </c>
       <c r="H19">
         <f>$B19*'Time Series Scaling Factors'!H45</f>
-        <v>441769503455772.19</v>
+        <v>307122716309121.5</v>
       </c>
       <c r="I19">
         <f>$B19*'Time Series Scaling Factors'!I45</f>
-        <v>447649177661743.25</v>
+        <v>311210326474659.5</v>
       </c>
       <c r="J19">
         <f>$B19*'Time Series Scaling Factors'!J45</f>
-        <v>435858425145700.63</v>
+        <v>303013273686432.94</v>
       </c>
       <c r="K19">
         <f>$B19*'Time Series Scaling Factors'!K45</f>
-        <v>409313601960316.31</v>
+        <v>284559038758790.88</v>
       </c>
       <c r="L19">
         <f>$B19*'Time Series Scaling Factors'!L45</f>
-        <v>422446567806359.81</v>
+        <v>293689212100952.38</v>
       </c>
       <c r="M19">
         <f>$B19*'Time Series Scaling Factors'!M45</f>
-        <v>397284965756637</v>
+        <v>276196606776796.72</v>
       </c>
       <c r="N19">
         <f>$B19*'Time Series Scaling Factors'!N45</f>
-        <v>394438716725352</v>
+        <v>274217865086973.47</v>
       </c>
       <c r="O19">
         <f>$B19*'Time Series Scaling Factors'!O45</f>
-        <v>388621082431457.44</v>
+        <v>270173385708344.59</v>
       </c>
       <c r="P19">
         <f>$B19*'Time Series Scaling Factors'!P45</f>
-        <v>389084268957687.75</v>
+        <v>270495397759834.88</v>
       </c>
       <c r="Q19">
         <f>$B19*'Time Series Scaling Factors'!Q45</f>
-        <v>389736168219568.63</v>
+        <v>270948604852000.78</v>
       </c>
       <c r="R19">
         <f>$B19*'Time Series Scaling Factors'!R45</f>
-        <v>390761555435110.94</v>
+        <v>271661464622633.5</v>
       </c>
       <c r="S19">
         <f>$B19*'Time Series Scaling Factors'!S45</f>
-        <v>378751550412457.69</v>
+        <v>263311985229896.88</v>
       </c>
       <c r="T19">
         <f>$B19*'Time Series Scaling Factors'!T45</f>
-        <v>369856409953717.69</v>
+        <v>257127991816433.69</v>
       </c>
       <c r="U19">
         <f>$B19*'Time Series Scaling Factors'!U45</f>
-        <v>383942735253604.88</v>
+        <v>266920950486221.94</v>
       </c>
       <c r="V19">
         <f>$B19*'Time Series Scaling Factors'!V45</f>
-        <v>372519516396256.81</v>
+        <v>258979410889173.75</v>
       </c>
       <c r="W19">
         <f>$B19*'Time Series Scaling Factors'!W45</f>
-        <v>374059662015405.75</v>
+        <v>260050136012489.06</v>
       </c>
       <c r="X19">
         <f>$B19*'Time Series Scaling Factors'!X45</f>
-        <v>378370859682626.25</v>
+        <v>263047325107129.41</v>
       </c>
       <c r="Y19">
         <f>$B19*'Time Series Scaling Factors'!Y45</f>
-        <v>381212979122240.56</v>
+        <v>265023195862220.31</v>
       </c>
       <c r="Z19">
         <f>$B19*'Time Series Scaling Factors'!Z45</f>
-        <v>385797402098838.06</v>
+        <v>268210334010663.22</v>
       </c>
       <c r="AA19">
         <f>$B19*'Time Series Scaling Factors'!AA45</f>
-        <v>385111025548357.44</v>
+        <v>267733157951778.5</v>
       </c>
       <c r="AB19">
         <f>$B19*'Time Series Scaling Factors'!AB45</f>
-        <v>389054977667930.31</v>
+        <v>270475034153012.47</v>
       </c>
       <c r="AC19">
         <f>$B19*'Time Series Scaling Factors'!AC45</f>
-        <v>399830522892083.81</v>
+        <v>277966304358551.09</v>
       </c>
       <c r="AD19">
         <f>$B19*'Time Series Scaling Factors'!AD45</f>
-        <v>404711892320911.13</v>
+        <v>281359882744026.56</v>
       </c>
       <c r="AE19">
         <f>$B19*'Time Series Scaling Factors'!AE45</f>
-        <v>403282861528809.38</v>
+        <v>280366405794788.47</v>
       </c>
       <c r="AF19">
         <f>$B19*'Time Series Scaling Factors'!AF45</f>
-        <v>410625947778466.25</v>
+        <v>285471395110359.38</v>
       </c>
       <c r="AG19">
         <f>$B19*'Time Series Scaling Factors'!AG45</f>
-        <v>416027837831836</v>
+        <v>289226844803957.88</v>
       </c>
       <c r="AH19">
         <f>$B19*'Time Series Scaling Factors'!AH45</f>
-        <v>425754658845656.75</v>
+        <v>295989031119329.81</v>
       </c>
       <c r="AI19">
         <f>$B19*'Time Series Scaling Factors'!AI45</f>
-        <v>431106321539868.63</v>
+        <v>299709562234672.13</v>
       </c>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.25">
@@ -19526,140 +20894,140 @@
         <v>265</v>
       </c>
       <c r="B20" s="44">
-        <f>'HK start year data'!C69</f>
-        <v>2.2988291357989852E+16</v>
+        <f>'HK start year data'!C45</f>
+        <v>19661720000000</v>
       </c>
       <c r="C20">
         <f>$B20*'Time Series Scaling Factors'!C46</f>
-        <v>2.6282877898776228E+16</v>
+        <v>22479556135446.238</v>
       </c>
       <c r="D20">
         <f>$B20*'Time Series Scaling Factors'!D46</f>
-        <v>2.5250160388766196E+16</v>
+        <v>21596280288420.004</v>
       </c>
       <c r="E20">
         <f>$B20*'Time Series Scaling Factors'!E46</f>
-        <v>2.4062834450882524E+16</v>
+        <v>20580768966770.934</v>
       </c>
       <c r="F20">
         <f>$B20*'Time Series Scaling Factors'!F46</f>
-        <v>2.4942302112576964E+16</v>
+        <v>21332971322483.672</v>
       </c>
       <c r="G20">
         <f>$B20*'Time Series Scaling Factors'!G46</f>
-        <v>2.4689595943942872E+16</v>
+        <v>21116833556845.453</v>
       </c>
       <c r="H20">
         <f>$B20*'Time Series Scaling Factors'!H46</f>
-        <v>2.38528820549818E+16</v>
+        <v>20401198194970.426</v>
       </c>
       <c r="I20">
         <f>$B20*'Time Series Scaling Factors'!I46</f>
-        <v>2.4170348911022456E+16</v>
+        <v>20672725310037.297</v>
       </c>
       <c r="J20">
         <f>$B20*'Time Series Scaling Factors'!J46</f>
-        <v>2.3533719567202664E+16</v>
+        <v>20128220818292.285</v>
       </c>
       <c r="K20">
         <f>$B20*'Time Series Scaling Factors'!K46</f>
-        <v>2.2100459616802512E+16</v>
+        <v>18902363907348.477</v>
       </c>
       <c r="L20">
         <f>$B20*'Time Series Scaling Factors'!L46</f>
-        <v>2.2809560364833532E+16</v>
+        <v>19508852669060.238</v>
       </c>
       <c r="M20">
         <f>$B20*'Time Series Scaling Factors'!M46</f>
-        <v>2.1450985992199152E+16</v>
+        <v>18346873794774.363</v>
       </c>
       <c r="N20">
         <f>$B20*'Time Series Scaling Factors'!N46</f>
-        <v>2.129730575417624E+16</v>
+        <v>18215432194244.547</v>
       </c>
       <c r="O20">
         <f>$B20*'Time Series Scaling Factors'!O46</f>
-        <v>2.0983188678267272E+16</v>
+        <v>17946770121993.828</v>
       </c>
       <c r="P20">
         <f>$B20*'Time Series Scaling Factors'!P46</f>
-        <v>2.1008197950055392E+16</v>
+        <v>17968160371997.379</v>
       </c>
       <c r="Q20">
         <f>$B20*'Time Series Scaling Factors'!Q46</f>
-        <v>2.1043396568528908E+16</v>
+        <v>17998265496820.961</v>
       </c>
       <c r="R20">
         <f>$B20*'Time Series Scaling Factors'!R46</f>
-        <v>2.1098761278228628E+16</v>
+        <v>18045618534201.828</v>
       </c>
       <c r="S20">
         <f>$B20*'Time Series Scaling Factors'!S46</f>
-        <v>2.0450293624748404E+16</v>
+        <v>17490988821482.715</v>
       </c>
       <c r="T20">
         <f>$B20*'Time Series Scaling Factors'!T46</f>
-        <v>1.9970009823886028E+16</v>
+        <v>17080205546378.205</v>
       </c>
       <c r="U20">
         <f>$B20*'Time Series Scaling Factors'!U46</f>
-        <v>2.0730586217996392E+16</v>
+        <v>17730721057371.59</v>
       </c>
       <c r="V20">
         <f>$B20*'Time Series Scaling Factors'!V46</f>
-        <v>2.0113801469476856E+16</v>
+        <v>17203189505034.334</v>
       </c>
       <c r="W20">
         <f>$B20*'Time Series Scaling Factors'!W46</f>
-        <v>2.0196960020516888E+16</v>
+        <v>17274314414697.816</v>
       </c>
       <c r="X20">
         <f>$B20*'Time Series Scaling Factors'!X46</f>
-        <v>2.042973862716016E+16</v>
+        <v>17473408280115.498</v>
       </c>
       <c r="Y20">
         <f>$B20*'Time Series Scaling Factors'!Y46</f>
-        <v>2.0583195892202168E+16</v>
+        <v>17604659173460.957</v>
       </c>
       <c r="Z20">
         <f>$B20*'Time Series Scaling Factors'!Z46</f>
-        <v>2.083072701351208E+16</v>
+        <v>17816370758401.777</v>
       </c>
       <c r="AA20">
         <f>$B20*'Time Series Scaling Factors'!AA46</f>
-        <v>2.0793666829918944E+16</v>
+        <v>17784673450341.359</v>
       </c>
       <c r="AB20">
         <f>$B20*'Time Series Scaling Factors'!AB46</f>
-        <v>2.100661639751644E+16</v>
+        <v>17966807681503.688</v>
       </c>
       <c r="AC20">
         <f>$B20*'Time Series Scaling Factors'!AC46</f>
-        <v>2.158843068596152E+16</v>
+        <v>18464429251252.52</v>
       </c>
       <c r="AD20">
         <f>$B20*'Time Series Scaling Factors'!AD46</f>
-        <v>2.1851995120223712E+16</v>
+        <v>18689854013263.836</v>
       </c>
       <c r="AE20">
         <f>$B20*'Time Series Scaling Factors'!AE46</f>
-        <v>2.1774836097995388E+16</v>
+        <v>18623860457374.793</v>
       </c>
       <c r="AF20">
         <f>$B20*'Time Series Scaling Factors'!AF46</f>
-        <v>2.2171318355965828E+16</v>
+        <v>18962968876516.746</v>
       </c>
       <c r="AG20">
         <f>$B20*'Time Series Scaling Factors'!AG46</f>
-        <v>2.2462987756657964E+16</v>
+        <v>19212431613858.613</v>
       </c>
       <c r="AH20">
         <f>$B20*'Time Series Scaling Factors'!AH46</f>
-        <v>2.298817727879032E+16</v>
+        <v>19661622428882.422</v>
       </c>
       <c r="AI20">
         <f>$B20*'Time Series Scaling Factors'!AI46</f>
-        <v>2.3277134705784512E+16</v>
+        <v>19908765634656.414</v>
       </c>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.25">
@@ -19667,7 +21035,7 @@
         <v>279</v>
       </c>
       <c r="B21" s="44">
-        <f>'HK start year data'!C70</f>
+        <f>'HK start year data'!C46</f>
         <v>0</v>
       </c>
       <c r="C21">
@@ -19808,7 +21176,7 @@
         <v>280</v>
       </c>
       <c r="B22" s="44">
-        <f>'HK start year data'!C71</f>
+        <f>'HK start year data'!C47</f>
         <v>0</v>
       </c>
       <c r="C22">
@@ -19953,15 +21321,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AI23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20082,8 +21450,8 @@
       <c r="A2" s="45" t="s">
         <v>266</v>
       </c>
-      <c r="B2" s="44">
-        <f>'HK start year data'!D51</f>
+      <c r="B2">
+        <f>'HK start year data'!D27</f>
         <v>0</v>
       </c>
       <c r="C2">
@@ -20223,149 +21591,149 @@
       <c r="A3" s="46" t="s">
         <v>267</v>
       </c>
-      <c r="B3" s="44">
-        <f>'HK start year data'!D52</f>
-        <v>9211586646857310</v>
-      </c>
-      <c r="C3">
+      <c r="B3" s="291">
+        <f>'HK start year data'!D28</f>
+        <v>8530354080</v>
+      </c>
+      <c r="C3" s="291">
         <f>$B3*'Time Series Scaling Factors'!C54</f>
-        <v>9472935521978474</v>
-      </c>
-      <c r="D3">
+        <v>8772375191.960537</v>
+      </c>
+      <c r="D3" s="291">
         <f>$B3*'Time Series Scaling Factors'!D54</f>
-        <v>9324274573669790</v>
-      </c>
-      <c r="E3">
+        <v>8634708297.476696</v>
+      </c>
+      <c r="E3" s="291">
         <f>$B3*'Time Series Scaling Factors'!E54</f>
-        <v>8971723018482495</v>
-      </c>
-      <c r="F3">
+        <v>8308229297.441637</v>
+      </c>
+      <c r="F3" s="291">
         <f>$B3*'Time Series Scaling Factors'!F54</f>
-        <v>7707372959234503</v>
-      </c>
-      <c r="G3">
+        <v>7137382829.8427067</v>
+      </c>
+      <c r="G3" s="291">
         <f>$B3*'Time Series Scaling Factors'!G54</f>
-        <v>7864767158455432</v>
-      </c>
-      <c r="H3">
+        <v>7283137117.4551067</v>
+      </c>
+      <c r="H3" s="291">
         <f>$B3*'Time Series Scaling Factors'!H54</f>
-        <v>7707372959234503</v>
-      </c>
-      <c r="I3">
+        <v>7137382829.8427067</v>
+      </c>
+      <c r="I3" s="291">
         <f>$B3*'Time Series Scaling Factors'!I54</f>
-        <v>7864767158455432</v>
-      </c>
-      <c r="J3">
+        <v>7283137117.4551067</v>
+      </c>
+      <c r="J3" s="291">
         <f>$B3*'Time Series Scaling Factors'!J54</f>
-        <v>7707372959234503</v>
-      </c>
-      <c r="K3">
+        <v>7137382829.8427067</v>
+      </c>
+      <c r="K3" s="291">
         <f>$B3*'Time Series Scaling Factors'!K54</f>
-        <v>7864767158455432</v>
-      </c>
-      <c r="L3">
+        <v>7283137117.4551067</v>
+      </c>
+      <c r="L3" s="291">
         <f>$B3*'Time Series Scaling Factors'!L54</f>
-        <v>7707372959234503</v>
-      </c>
-      <c r="M3">
+        <v>7137382829.8427067</v>
+      </c>
+      <c r="M3" s="291">
         <f>$B3*'Time Series Scaling Factors'!M54</f>
-        <v>6939510026225407</v>
-      </c>
-      <c r="N3">
+        <v>6426306339.4848156</v>
+      </c>
+      <c r="N3" s="291">
         <f>$B3*'Time Series Scaling Factors'!N54</f>
-        <v>7269873326086696</v>
-      </c>
-      <c r="O3">
+        <v>6732237991.7496786</v>
+      </c>
+      <c r="O3" s="291">
         <f>$B3*'Time Series Scaling Factors'!O54</f>
-        <v>6910052517235516</v>
-      </c>
-      <c r="P3">
+        <v>6399027327.5586472</v>
+      </c>
+      <c r="P3" s="291">
         <f>$B3*'Time Series Scaling Factors'!P54</f>
-        <v>6765758194382954</v>
-      </c>
-      <c r="Q3">
+        <v>6265404129.6390877</v>
+      </c>
+      <c r="Q3" s="291">
         <f>$B3*'Time Series Scaling Factors'!Q54</f>
-        <v>6909081350744030</v>
-      </c>
-      <c r="R3">
+        <v>6398127982.596633</v>
+      </c>
+      <c r="R3" s="291">
         <f>$B3*'Time Series Scaling Factors'!R54</f>
-        <v>6820168884195134</v>
-      </c>
-      <c r="S3">
+        <v>6315790937.865366</v>
+      </c>
+      <c r="S3" s="291">
         <f>$B3*'Time Series Scaling Factors'!S54</f>
-        <v>6145447340479576</v>
-      </c>
-      <c r="T3">
+        <v>5690967669.7412434</v>
+      </c>
+      <c r="T3" s="291">
         <f>$B3*'Time Series Scaling Factors'!T54</f>
-        <v>6215650357045102</v>
-      </c>
-      <c r="U3">
+        <v>5755978900.8946037</v>
+      </c>
+      <c r="U3" s="291">
         <f>$B3*'Time Series Scaling Factors'!U54</f>
-        <v>6353316830968827</v>
-      </c>
-      <c r="V3">
+        <v>5883464405.0248947</v>
+      </c>
+      <c r="V3" s="291">
         <f>$B3*'Time Series Scaling Factors'!V54</f>
-        <v>6424936735960364</v>
-      </c>
-      <c r="W3">
+        <v>5949787740.2086544</v>
+      </c>
+      <c r="W3" s="291">
         <f>$B3*'Time Series Scaling Factors'!W54</f>
-        <v>6500912395141328</v>
-      </c>
-      <c r="X3">
+        <v>6020144704.6623449</v>
+      </c>
+      <c r="X3" s="291">
         <f>$B3*'Time Series Scaling Factors'!X54</f>
-        <v>6528681234037814</v>
-      </c>
-      <c r="Y3">
+        <v>6045859930.1993399</v>
+      </c>
+      <c r="Y3" s="291">
         <f>$B3*'Time Series Scaling Factors'!Y54</f>
-        <v>6399577694514768</v>
-      </c>
-      <c r="Z3">
+        <v>5926304098.2527781</v>
+      </c>
+      <c r="Z3" s="291">
         <f>$B3*'Time Series Scaling Factors'!Z54</f>
-        <v>6496886402708339</v>
-      </c>
-      <c r="AA3">
+        <v>6016416449.9877262</v>
+      </c>
+      <c r="AA3" s="291">
         <f>$B3*'Time Series Scaling Factors'!AA54</f>
-        <v>6365807916402233</v>
-      </c>
-      <c r="AB3">
+        <v>5895031726.2340841</v>
+      </c>
+      <c r="AB3" s="291">
         <f>$B3*'Time Series Scaling Factors'!AB54</f>
-        <v>6197506212929912</v>
-      </c>
-      <c r="AC3">
+        <v>5739176586.6229429</v>
+      </c>
+      <c r="AC3" s="291">
         <f>$B3*'Time Series Scaling Factors'!AC54</f>
-        <v>6155387301995048</v>
-      </c>
-      <c r="AD3">
+        <v>5700172532.5427542</v>
+      </c>
+      <c r="AD3" s="291">
         <f>$B3*'Time Series Scaling Factors'!AD54</f>
-        <v>6319351370055768</v>
-      </c>
-      <c r="AE3">
+        <v>5852010821.7078838</v>
+      </c>
+      <c r="AE3" s="291">
         <f>$B3*'Time Series Scaling Factors'!AE54</f>
-        <v>5907395589887384</v>
-      </c>
-      <c r="AF3">
+        <v>5470520769.5746975</v>
+      </c>
+      <c r="AF3" s="291">
         <f>$B3*'Time Series Scaling Factors'!AF54</f>
-        <v>5584250811112069</v>
-      </c>
-      <c r="AG3">
+        <v>5171273800.7588367</v>
+      </c>
+      <c r="AG3" s="256">
         <f>$B3*'Time Series Scaling Factors'!AG54</f>
-        <v>5584250811112069</v>
-      </c>
-      <c r="AH3">
+        <v>5171273800.7588367</v>
+      </c>
+      <c r="AH3" s="256">
         <f>$B3*'Time Series Scaling Factors'!AH54</f>
-        <v>5584250811112069</v>
-      </c>
-      <c r="AI3">
+        <v>5171273800.7588367</v>
+      </c>
+      <c r="AI3" s="256">
         <f>$B3*'Time Series Scaling Factors'!AI54</f>
-        <v>5584250811112069</v>
+        <v>5171273800.7588367</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="46" t="s">
         <v>257</v>
       </c>
-      <c r="B4" s="44">
-        <f>'HK start year data'!D53</f>
+      <c r="B4">
+        <f>'HK start year data'!D29</f>
         <v>0</v>
       </c>
       <c r="C4">
@@ -20505,8 +21873,8 @@
       <c r="A5" s="46" t="s">
         <v>268</v>
       </c>
-      <c r="B5" s="44">
-        <f>'HK start year data'!D54</f>
+      <c r="B5">
+        <f>'HK start year data'!D30</f>
         <v>0</v>
       </c>
       <c r="C5">
@@ -20646,8 +22014,8 @@
       <c r="A6" s="46" t="s">
         <v>269</v>
       </c>
-      <c r="B6" s="44">
-        <f>'HK start year data'!D55</f>
+      <c r="B6">
+        <f>'HK start year data'!D31</f>
         <v>0</v>
       </c>
       <c r="C6">
@@ -20787,8 +22155,8 @@
       <c r="A7" s="46" t="s">
         <v>270</v>
       </c>
-      <c r="B7" s="44">
-        <f>'HK start year data'!D56</f>
+      <c r="B7">
+        <f>'HK start year data'!D32</f>
         <v>0</v>
       </c>
       <c r="C7">
@@ -20928,8 +22296,8 @@
       <c r="A8" s="46" t="s">
         <v>271</v>
       </c>
-      <c r="B8" s="44">
-        <f>'HK start year data'!D57</f>
+      <c r="B8">
+        <f>'HK start year data'!D33</f>
         <v>0</v>
       </c>
       <c r="C8">
@@ -21069,8 +22437,8 @@
       <c r="A9" s="46" t="s">
         <v>260</v>
       </c>
-      <c r="B9" s="44">
-        <f>'HK start year data'!D58</f>
+      <c r="B9">
+        <f>'HK start year data'!D34</f>
         <v>0</v>
       </c>
       <c r="C9">
@@ -21210,290 +22578,290 @@
       <c r="A10" s="46" t="s">
         <v>261</v>
       </c>
-      <c r="B10" s="44">
-        <f>'HK start year data'!D59</f>
-        <v>0</v>
+      <c r="B10" s="291">
+        <f>'HK start year data'!D35</f>
+        <v>484207047296</v>
       </c>
       <c r="C10">
         <f>$B10*'Time Series Scaling Factors'!C61</f>
-        <v>0</v>
+        <v>602619001476.00293</v>
       </c>
       <c r="D10">
         <f>$B10*'Time Series Scaling Factors'!D61</f>
-        <v>0</v>
+        <v>599675990075.51379</v>
       </c>
       <c r="E10">
         <f>$B10*'Time Series Scaling Factors'!E61</f>
-        <v>0</v>
+        <v>703994579677.9657</v>
       </c>
       <c r="F10">
         <f>$B10*'Time Series Scaling Factors'!F61</f>
-        <v>0</v>
+        <v>745107772749.42749</v>
       </c>
       <c r="G10">
         <f>$B10*'Time Series Scaling Factors'!G61</f>
-        <v>0</v>
+        <v>735933367118.36169</v>
       </c>
       <c r="H10">
         <f>$B10*'Time Series Scaling Factors'!H61</f>
-        <v>0</v>
+        <v>748322652843.17432</v>
       </c>
       <c r="I10">
         <f>$B10*'Time Series Scaling Factors'!I61</f>
-        <v>0</v>
+        <v>754876918476.97351</v>
       </c>
       <c r="J10">
         <f>$B10*'Time Series Scaling Factors'!J61</f>
-        <v>0</v>
+        <v>780636546730.35767</v>
       </c>
       <c r="K10">
         <f>$B10*'Time Series Scaling Factors'!K61</f>
-        <v>0</v>
+        <v>775489526562.46326</v>
       </c>
       <c r="L10">
         <f>$B10*'Time Series Scaling Factors'!L61</f>
-        <v>0</v>
+        <v>744241442228.56702</v>
       </c>
       <c r="M10">
         <f>$B10*'Time Series Scaling Factors'!M61</f>
-        <v>0</v>
+        <v>758292589442.14087</v>
       </c>
       <c r="N10">
         <f>$B10*'Time Series Scaling Factors'!N61</f>
-        <v>0</v>
+        <v>763099088009.44397</v>
       </c>
       <c r="O10">
         <f>$B10*'Time Series Scaling Factors'!O61</f>
-        <v>0</v>
+        <v>772216647284.11865</v>
       </c>
       <c r="P10">
         <f>$B10*'Time Series Scaling Factors'!P61</f>
-        <v>0</v>
+        <v>787502433754.19153</v>
       </c>
       <c r="Q10">
         <f>$B10*'Time Series Scaling Factors'!Q61</f>
-        <v>0</v>
+        <v>785461212280.08801</v>
       </c>
       <c r="R10">
         <f>$B10*'Time Series Scaling Factors'!R61</f>
-        <v>0</v>
+        <v>787353877926.33606</v>
       </c>
       <c r="S10">
         <f>$B10*'Time Series Scaling Factors'!S61</f>
-        <v>0</v>
+        <v>807537554413.60217</v>
       </c>
       <c r="T10">
         <f>$B10*'Time Series Scaling Factors'!T61</f>
-        <v>0</v>
+        <v>808319251443.02454</v>
       </c>
       <c r="U10">
         <f>$B10*'Time Series Scaling Factors'!U61</f>
-        <v>0</v>
+        <v>817747756311.88867</v>
       </c>
       <c r="V10">
         <f>$B10*'Time Series Scaling Factors'!V61</f>
-        <v>0</v>
+        <v>823702829547.1687</v>
       </c>
       <c r="W10">
         <f>$B10*'Time Series Scaling Factors'!W61</f>
-        <v>0</v>
+        <v>833017244176.28296</v>
       </c>
       <c r="X10">
         <f>$B10*'Time Series Scaling Factors'!X61</f>
-        <v>0</v>
+        <v>826656812691.96826</v>
       </c>
       <c r="Y10">
         <f>$B10*'Time Series Scaling Factors'!Y61</f>
-        <v>0</v>
+        <v>836468295041.58179</v>
       </c>
       <c r="Z10">
         <f>$B10*'Time Series Scaling Factors'!Z61</f>
-        <v>0</v>
+        <v>834497038313.80554</v>
       </c>
       <c r="AA10">
         <f>$B10*'Time Series Scaling Factors'!AA61</f>
-        <v>0</v>
+        <v>787454730518.05933</v>
       </c>
       <c r="AB10">
         <f>$B10*'Time Series Scaling Factors'!AB61</f>
-        <v>0</v>
+        <v>811429581944.24792</v>
       </c>
       <c r="AC10">
         <f>$B10*'Time Series Scaling Factors'!AC61</f>
-        <v>0</v>
+        <v>779912769380.13953</v>
       </c>
       <c r="AD10">
         <f>$B10*'Time Series Scaling Factors'!AD61</f>
-        <v>0</v>
+        <v>803228322330.28223</v>
       </c>
       <c r="AE10">
         <f>$B10*'Time Series Scaling Factors'!AE61</f>
-        <v>0</v>
+        <v>761274518732.77466</v>
       </c>
       <c r="AF10">
         <f>$B10*'Time Series Scaling Factors'!AF61</f>
-        <v>0</v>
+        <v>751585355431.14392</v>
       </c>
       <c r="AG10">
         <f>$B10*'Time Series Scaling Factors'!AG61</f>
-        <v>0</v>
+        <v>740270147820.5481</v>
       </c>
       <c r="AH10">
         <f>$B10*'Time Series Scaling Factors'!AH61</f>
-        <v>0</v>
+        <v>727471965856.68738</v>
       </c>
       <c r="AI10">
         <f>$B10*'Time Series Scaling Factors'!AI61</f>
-        <v>0</v>
+        <v>723142221381.83057</v>
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="46" t="s">
         <v>272</v>
       </c>
-      <c r="B11" s="44">
-        <f>'HK start year data'!D60</f>
-        <v>0</v>
+      <c r="B11" s="291">
+        <f>'HK start year data'!D36</f>
+        <v>4691871258880</v>
       </c>
       <c r="C11">
         <f>$B11*'Time Series Scaling Factors'!C62</f>
-        <v>0</v>
+        <v>5839259855612.5547</v>
       </c>
       <c r="D11">
         <f>$B11*'Time Series Scaling Factors'!D62</f>
-        <v>0</v>
+        <v>5810742652730.8086</v>
       </c>
       <c r="E11">
         <f>$B11*'Time Series Scaling Factors'!E62</f>
-        <v>0</v>
+        <v>6821569312639.8652</v>
       </c>
       <c r="F11">
         <f>$B11*'Time Series Scaling Factors'!F62</f>
-        <v>0</v>
+        <v>7219948084716.7939</v>
       </c>
       <c r="G11">
         <f>$B11*'Time Series Scaling Factors'!G62</f>
-        <v>0</v>
+        <v>7131049894700.5908</v>
       </c>
       <c r="H11">
         <f>$B11*'Time Series Scaling Factors'!H62</f>
-        <v>0</v>
+        <v>7251099641879.8496</v>
       </c>
       <c r="I11">
         <f>$B11*'Time Series Scaling Factors'!I62</f>
-        <v>0</v>
+        <v>7314609189545.4971</v>
       </c>
       <c r="J11">
         <f>$B11*'Time Series Scaling Factors'!J62</f>
-        <v>0</v>
+        <v>7564214931792.374</v>
       </c>
       <c r="K11">
         <f>$B11*'Time Series Scaling Factors'!K62</f>
-        <v>0</v>
+        <v>7514341316508.4209</v>
       </c>
       <c r="L11">
         <f>$B11*'Time Series Scaling Factors'!L62</f>
-        <v>0</v>
+        <v>7211553511993.793</v>
       </c>
       <c r="M11">
         <f>$B11*'Time Series Scaling Factors'!M62</f>
-        <v>0</v>
+        <v>7347706370845.8408</v>
       </c>
       <c r="N11">
         <f>$B11*'Time Series Scaling Factors'!N62</f>
-        <v>0</v>
+        <v>7394280398650.0898</v>
       </c>
       <c r="O11">
         <f>$B11*'Time Series Scaling Factors'!O62</f>
-        <v>0</v>
+        <v>7482627758629.4053</v>
       </c>
       <c r="P11">
         <f>$B11*'Time Series Scaling Factors'!P62</f>
-        <v>0</v>
+        <v>7630744029569.3223</v>
       </c>
       <c r="Q11">
         <f>$B11*'Time Series Scaling Factors'!Q62</f>
-        <v>0</v>
+        <v>7610964994090.9297</v>
       </c>
       <c r="R11">
         <f>$B11*'Time Series Scaling Factors'!R62</f>
-        <v>0</v>
+        <v>7629304552752.6455</v>
       </c>
       <c r="S11">
         <f>$B11*'Time Series Scaling Factors'!S62</f>
-        <v>0</v>
+        <v>7824880416709.9609</v>
       </c>
       <c r="T11">
         <f>$B11*'Time Series Scaling Factors'!T62</f>
-        <v>0</v>
+        <v>7832454907510.9102</v>
       </c>
       <c r="U11">
         <f>$B11*'Time Series Scaling Factors'!U62</f>
-        <v>0</v>
+        <v>7923815269272.418</v>
       </c>
       <c r="V11">
         <f>$B11*'Time Series Scaling Factors'!V62</f>
-        <v>0</v>
+        <v>7981518760192.6055</v>
       </c>
       <c r="W11">
         <f>$B11*'Time Series Scaling Factors'!W62</f>
-        <v>0</v>
+        <v>8071773609922.0391</v>
       </c>
       <c r="X11">
         <f>$B11*'Time Series Scaling Factors'!X62</f>
-        <v>0</v>
+        <v>8010142277123.4297</v>
       </c>
       <c r="Y11">
         <f>$B11*'Time Series Scaling Factors'!Y62</f>
-        <v>0</v>
+        <v>8105213615511.0732</v>
       </c>
       <c r="Z11">
         <f>$B11*'Time Series Scaling Factors'!Z62</f>
-        <v>0</v>
+        <v>8086112524693.4648</v>
       </c>
       <c r="AA11">
         <f>$B11*'Time Series Scaling Factors'!AA62</f>
-        <v>0</v>
+        <v>7630281794573.334</v>
       </c>
       <c r="AB11">
         <f>$B11*'Time Series Scaling Factors'!AB62</f>
-        <v>0</v>
+        <v>7862593399641.0898</v>
       </c>
       <c r="AC11">
         <f>$B11*'Time Series Scaling Factors'!AC62</f>
-        <v>0</v>
+        <v>7557201671315.7227</v>
       </c>
       <c r="AD11">
         <f>$B11*'Time Series Scaling Factors'!AD62</f>
-        <v>0</v>
+        <v>7783124803543.0732</v>
       </c>
       <c r="AE11">
         <f>$B11*'Time Series Scaling Factors'!AE62</f>
-        <v>0</v>
+        <v>7376600680445.1484</v>
       </c>
       <c r="AF11">
         <f>$B11*'Time Series Scaling Factors'!AF62</f>
-        <v>0</v>
+        <v>7282714589626.3867</v>
       </c>
       <c r="AG11">
         <f>$B11*'Time Series Scaling Factors'!AG62</f>
-        <v>0</v>
+        <v>7173072448577.6621</v>
       </c>
       <c r="AH11">
         <f>$B11*'Time Series Scaling Factors'!AH62</f>
-        <v>0</v>
+        <v>7049060577091.1104</v>
       </c>
       <c r="AI11">
         <f>$B11*'Time Series Scaling Factors'!AI62</f>
-        <v>0</v>
+        <v>7007106202875.9482</v>
       </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="46" t="s">
         <v>273</v>
       </c>
-      <c r="B12" s="44">
-        <f>'HK start year data'!D61</f>
+      <c r="B12">
+        <f>'HK start year data'!D37</f>
         <v>0</v>
       </c>
       <c r="C12">
@@ -21633,8 +23001,8 @@
       <c r="A13" s="46" t="s">
         <v>274</v>
       </c>
-      <c r="B13" s="44">
-        <f>'HK start year data'!D62</f>
+      <c r="B13">
+        <f>'HK start year data'!D38</f>
         <v>0</v>
       </c>
       <c r="C13">
@@ -21774,149 +23142,149 @@
       <c r="A14" s="46" t="s">
         <v>263</v>
       </c>
-      <c r="B14" s="44">
-        <f>'HK start year data'!D63</f>
-        <v>0</v>
+      <c r="B14" s="291">
+        <f>'HK start year data'!D39</f>
+        <v>1426529080.8</v>
       </c>
       <c r="C14">
         <f>$B14*'Time Series Scaling Factors'!C65</f>
-        <v>0</v>
+        <v>1775384177.1796076</v>
       </c>
       <c r="D14">
         <f>$B14*'Time Series Scaling Factors'!D65</f>
-        <v>0</v>
+        <v>1766713730.5775421</v>
       </c>
       <c r="E14">
         <f>$B14*'Time Series Scaling Factors'!E65</f>
-        <v>0</v>
+        <v>2074048170.6006076</v>
       </c>
       <c r="F14">
         <f>$B14*'Time Series Scaling Factors'!F65</f>
-        <v>0</v>
+        <v>2195172317.4888139</v>
       </c>
       <c r="G14">
         <f>$B14*'Time Series Scaling Factors'!G65</f>
-        <v>0</v>
+        <v>2168143474.1358376</v>
       </c>
       <c r="H14">
         <f>$B14*'Time Series Scaling Factors'!H65</f>
-        <v>0</v>
+        <v>2204643720.2092524</v>
       </c>
       <c r="I14">
         <f>$B14*'Time Series Scaling Factors'!I65</f>
-        <v>0</v>
+        <v>2223953332.8679609</v>
       </c>
       <c r="J14">
         <f>$B14*'Time Series Scaling Factors'!J65</f>
-        <v>0</v>
+        <v>2299844130.0367723</v>
       </c>
       <c r="K14">
         <f>$B14*'Time Series Scaling Factors'!K65</f>
-        <v>0</v>
+        <v>2284680422.7137003</v>
       </c>
       <c r="L14">
         <f>$B14*'Time Series Scaling Factors'!L65</f>
-        <v>0</v>
+        <v>2192620009.1560593</v>
       </c>
       <c r="M14">
         <f>$B14*'Time Series Scaling Factors'!M65</f>
-        <v>0</v>
+        <v>2234016288.3525324</v>
       </c>
       <c r="N14">
         <f>$B14*'Time Series Scaling Factors'!N65</f>
-        <v>0</v>
+        <v>2248176780.2771573</v>
       </c>
       <c r="O14">
         <f>$B14*'Time Series Scaling Factors'!O65</f>
-        <v>0</v>
+        <v>2275038147.7931285</v>
       </c>
       <c r="P14">
         <f>$B14*'Time Series Scaling Factors'!P65</f>
-        <v>0</v>
+        <v>2320071814.7837873</v>
       </c>
       <c r="Q14">
         <f>$B14*'Time Series Scaling Factors'!Q65</f>
-        <v>0</v>
+        <v>2314058143.9596567</v>
       </c>
       <c r="R14">
         <f>$B14*'Time Series Scaling Factors'!R65</f>
-        <v>0</v>
+        <v>2319634152.4041467</v>
       </c>
       <c r="S14">
         <f>$B14*'Time Series Scaling Factors'!S65</f>
-        <v>0</v>
+        <v>2379097560.9343061</v>
       </c>
       <c r="T14">
         <f>$B14*'Time Series Scaling Factors'!T65</f>
-        <v>0</v>
+        <v>2381400529.3670731</v>
       </c>
       <c r="U14">
         <f>$B14*'Time Series Scaling Factors'!U65</f>
-        <v>0</v>
+        <v>2409177977.9998622</v>
       </c>
       <c r="V14">
         <f>$B14*'Time Series Scaling Factors'!V65</f>
-        <v>0</v>
+        <v>2426722301.6437674</v>
       </c>
       <c r="W14">
         <f>$B14*'Time Series Scaling Factors'!W65</f>
-        <v>0</v>
+        <v>2454163627.4428482</v>
       </c>
       <c r="X14">
         <f>$B14*'Time Series Scaling Factors'!X65</f>
-        <v>0</v>
+        <v>2435425072.2535343</v>
       </c>
       <c r="Y14">
         <f>$B14*'Time Series Scaling Factors'!Y65</f>
-        <v>0</v>
+        <v>2464330816.1406598</v>
       </c>
       <c r="Z14">
         <f>$B14*'Time Series Scaling Factors'!Z65</f>
-        <v>0</v>
+        <v>2458523269.4236116</v>
       </c>
       <c r="AA14">
         <f>$B14*'Time Series Scaling Factors'!AA65</f>
-        <v>0</v>
+        <v>2319931275.6198673</v>
       </c>
       <c r="AB14">
         <f>$B14*'Time Series Scaling Factors'!AB65</f>
-        <v>0</v>
+        <v>2390563917.0865874</v>
       </c>
       <c r="AC14">
         <f>$B14*'Time Series Scaling Factors'!AC65</f>
-        <v>0</v>
+        <v>2297711799.5721984</v>
       </c>
       <c r="AD14">
         <f>$B14*'Time Series Scaling Factors'!AD65</f>
-        <v>0</v>
+        <v>2366402072.6775761</v>
       </c>
       <c r="AE14">
         <f>$B14*'Time Series Scaling Factors'!AE65</f>
-        <v>0</v>
+        <v>2242801391.4891624</v>
       </c>
       <c r="AF14">
         <f>$B14*'Time Series Scaling Factors'!AF65</f>
-        <v>0</v>
+        <v>2214256013.4415207</v>
       </c>
       <c r="AG14">
         <f>$B14*'Time Series Scaling Factors'!AG65</f>
-        <v>0</v>
+        <v>2180920123.7597318</v>
       </c>
       <c r="AH14">
         <f>$B14*'Time Series Scaling Factors'!AH65</f>
-        <v>0</v>
+        <v>2143215222.8195837</v>
       </c>
       <c r="AI14">
         <f>$B14*'Time Series Scaling Factors'!AI65</f>
-        <v>0</v>
+        <v>2130459302.722368</v>
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="46" t="s">
         <v>275</v>
       </c>
-      <c r="B15" s="44">
-        <f>'HK start year data'!D64</f>
+      <c r="B15">
+        <f>'HK start year data'!D40</f>
         <v>0</v>
       </c>
       <c r="C15">
@@ -22056,8 +23424,8 @@
       <c r="A16" s="46" t="s">
         <v>276</v>
       </c>
-      <c r="B16" s="44">
-        <f>'HK start year data'!D65</f>
+      <c r="B16">
+        <f>'HK start year data'!D41</f>
         <v>0</v>
       </c>
       <c r="C16">
@@ -22197,8 +23565,8 @@
       <c r="A17" s="46" t="s">
         <v>277</v>
       </c>
-      <c r="B17" s="44">
-        <f>'HK start year data'!D66</f>
+      <c r="B17">
+        <f>'HK start year data'!D42</f>
         <v>0</v>
       </c>
       <c r="C17">
@@ -22338,8 +23706,8 @@
       <c r="A18" s="46" t="s">
         <v>264</v>
       </c>
-      <c r="B18" s="44">
-        <f>'HK start year data'!D67</f>
+      <c r="B18">
+        <f>'HK start year data'!D43</f>
         <v>0</v>
       </c>
       <c r="C18">
@@ -22479,290 +23847,290 @@
       <c r="A19" s="46" t="s">
         <v>278</v>
       </c>
-      <c r="B19" s="44">
-        <f>'HK start year data'!D68</f>
-        <v>0</v>
+      <c r="B19" s="291">
+        <f>'HK start year data'!D44</f>
+        <v>6232295294658</v>
       </c>
       <c r="C19">
         <f>$B19*'Time Series Scaling Factors'!C70</f>
-        <v>0</v>
+        <v>7756391792196.4971</v>
       </c>
       <c r="D19">
         <f>$B19*'Time Series Scaling Factors'!D70</f>
-        <v>0</v>
+        <v>7718511888948.8662</v>
       </c>
       <c r="E19">
         <f>$B19*'Time Series Scaling Factors'!E70</f>
-        <v>0</v>
+        <v>9061210758689.3574</v>
       </c>
       <c r="F19">
         <f>$B19*'Time Series Scaling Factors'!F70</f>
-        <v>0</v>
+        <v>9590384303681.1602</v>
       </c>
       <c r="G19">
         <f>$B19*'Time Series Scaling Factors'!G70</f>
-        <v>0</v>
+        <v>9472299270914.541</v>
       </c>
       <c r="H19">
         <f>$B19*'Time Series Scaling Factors'!H70</f>
-        <v>0</v>
+        <v>9631763466155.2227</v>
       </c>
       <c r="I19">
         <f>$B19*'Time Series Scaling Factors'!I70</f>
-        <v>0</v>
+        <v>9716124317773.5078</v>
       </c>
       <c r="J19">
         <f>$B19*'Time Series Scaling Factors'!J70</f>
-        <v>0</v>
+        <v>10047680024887.297</v>
       </c>
       <c r="K19">
         <f>$B19*'Time Series Scaling Factors'!K70</f>
-        <v>0</v>
+        <v>9981432022606.0156</v>
       </c>
       <c r="L19">
         <f>$B19*'Time Series Scaling Factors'!L70</f>
-        <v>0</v>
+        <v>9579233644765.8691</v>
       </c>
       <c r="M19">
         <f>$B19*'Time Series Scaling Factors'!M70</f>
-        <v>0</v>
+        <v>9760087887083.7637</v>
       </c>
       <c r="N19">
         <f>$B19*'Time Series Scaling Factors'!N70</f>
-        <v>0</v>
+        <v>9821952989155.4238</v>
       </c>
       <c r="O19">
         <f>$B19*'Time Series Scaling Factors'!O70</f>
-        <v>0</v>
+        <v>9939306344674.8125</v>
       </c>
       <c r="P19">
         <f>$B19*'Time Series Scaling Factors'!P70</f>
-        <v>0</v>
+        <v>10136051798142.666</v>
       </c>
       <c r="Q19">
         <f>$B19*'Time Series Scaling Factors'!Q70</f>
-        <v>0</v>
+        <v>10109778956680.625</v>
       </c>
       <c r="R19">
         <f>$B19*'Time Series Scaling Factors'!R70</f>
-        <v>0</v>
+        <v>10134139715714.068</v>
       </c>
       <c r="S19">
         <f>$B19*'Time Series Scaling Factors'!S70</f>
-        <v>0</v>
+        <v>10393926583135.664</v>
       </c>
       <c r="T19">
         <f>$B19*'Time Series Scaling Factors'!T70</f>
-        <v>0</v>
+        <v>10403987912778.68</v>
       </c>
       <c r="U19">
         <f>$B19*'Time Series Scaling Factors'!U70</f>
-        <v>0</v>
+        <v>10525343491674.17</v>
       </c>
       <c r="V19">
         <f>$B19*'Time Series Scaling Factors'!V70</f>
-        <v>0</v>
+        <v>10601992055776.73</v>
       </c>
       <c r="W19">
         <f>$B19*'Time Series Scaling Factors'!W70</f>
-        <v>0</v>
+        <v>10721879163553.658</v>
       </c>
       <c r="X19">
         <f>$B19*'Time Series Scaling Factors'!X70</f>
-        <v>0</v>
+        <v>10640013177849.701</v>
       </c>
       <c r="Y19">
         <f>$B19*'Time Series Scaling Factors'!Y70</f>
-        <v>0</v>
+        <v>10766298112409.391</v>
       </c>
       <c r="Z19">
         <f>$B19*'Time Series Scaling Factors'!Z70</f>
-        <v>0</v>
+        <v>10740925796790.094</v>
       </c>
       <c r="AA19">
         <f>$B19*'Time Series Scaling Factors'!AA70</f>
-        <v>0</v>
+        <v>10135437803249.887</v>
       </c>
       <c r="AB19">
         <f>$B19*'Time Series Scaling Factors'!AB70</f>
-        <v>0</v>
+        <v>10444021403112.734</v>
       </c>
       <c r="AC19">
         <f>$B19*'Time Series Scaling Factors'!AC70</f>
-        <v>0</v>
+        <v>10038364187376.6</v>
       </c>
       <c r="AD19">
         <f>$B19*'Time Series Scaling Factors'!AD70</f>
-        <v>0</v>
+        <v>10338461866158.822</v>
       </c>
       <c r="AE19">
         <f>$B19*'Time Series Scaling Factors'!AE70</f>
-        <v>0</v>
+        <v>9798468707831.4219</v>
       </c>
       <c r="AF19">
         <f>$B19*'Time Series Scaling Factors'!AF70</f>
-        <v>0</v>
+        <v>9673758158509.3008</v>
       </c>
       <c r="AG19">
         <f>$B19*'Time Series Scaling Factors'!AG70</f>
-        <v>0</v>
+        <v>9528118569941.9629</v>
       </c>
       <c r="AH19">
         <f>$B19*'Time Series Scaling Factors'!AH70</f>
-        <v>0</v>
+        <v>9363391415145.3359</v>
       </c>
       <c r="AI19">
         <f>$B19*'Time Series Scaling Factors'!AI70</f>
-        <v>0</v>
+        <v>9307662680364.6016</v>
       </c>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20" s="46" t="s">
         <v>265</v>
       </c>
-      <c r="B20" s="44">
-        <f>'HK start year data'!D69</f>
-        <v>0</v>
+      <c r="B20" s="291">
+        <f>'HK start year data'!D45</f>
+        <v>17732000000</v>
       </c>
       <c r="C20">
         <f>$B20*'Time Series Scaling Factors'!C71</f>
-        <v>0</v>
+        <v>22068328401.755497</v>
       </c>
       <c r="D20">
         <f>$B20*'Time Series Scaling Factors'!D71</f>
-        <v>0</v>
+        <v>21960553270.3424</v>
       </c>
       <c r="E20">
         <f>$B20*'Time Series Scaling Factors'!E71</f>
-        <v>0</v>
+        <v>25780772825.511108</v>
       </c>
       <c r="F20">
         <f>$B20*'Time Series Scaling Factors'!F71</f>
-        <v>0</v>
+        <v>27286366648.678875</v>
       </c>
       <c r="G20">
         <f>$B20*'Time Series Scaling Factors'!G71</f>
-        <v>0</v>
+        <v>26950393511.653027</v>
       </c>
       <c r="H20">
         <f>$B20*'Time Series Scaling Factors'!H71</f>
-        <v>0</v>
+        <v>27404097801.376179</v>
       </c>
       <c r="I20">
         <f>$B20*'Time Series Scaling Factors'!I71</f>
-        <v>0</v>
+        <v>27644119583.106842</v>
       </c>
       <c r="J20">
         <f>$B20*'Time Series Scaling Factors'!J71</f>
-        <v>0</v>
+        <v>28587455147.386189</v>
       </c>
       <c r="K20">
         <f>$B20*'Time Series Scaling Factors'!K71</f>
-        <v>0</v>
+        <v>28398967676.733345</v>
       </c>
       <c r="L20">
         <f>$B20*'Time Series Scaling Factors'!L71</f>
-        <v>0</v>
+        <v>27254641020.393032</v>
       </c>
       <c r="M20">
         <f>$B20*'Time Series Scaling Factors'!M71</f>
-        <v>0</v>
+        <v>27769203837.647488</v>
       </c>
       <c r="N20">
         <f>$B20*'Time Series Scaling Factors'!N71</f>
-        <v>0</v>
+        <v>27945221169.636707</v>
       </c>
       <c r="O20">
         <f>$B20*'Time Series Scaling Factors'!O71</f>
-        <v>0</v>
+        <v>28279112553.418446</v>
       </c>
       <c r="P20">
         <f>$B20*'Time Series Scaling Factors'!P71</f>
-        <v>0</v>
+        <v>28838888721.900436</v>
       </c>
       <c r="Q20">
         <f>$B20*'Time Series Scaling Factors'!Q71</f>
-        <v>0</v>
+        <v>28764137766.950623</v>
       </c>
       <c r="R20">
         <f>$B20*'Time Series Scaling Factors'!R71</f>
-        <v>0</v>
+        <v>28833448503.807278</v>
       </c>
       <c r="S20">
         <f>$B20*'Time Series Scaling Factors'!S71</f>
-        <v>0</v>
+        <v>29572588822.95554</v>
       </c>
       <c r="T20">
         <f>$B20*'Time Series Scaling Factors'!T71</f>
-        <v>0</v>
+        <v>29601215113.719215</v>
       </c>
       <c r="U20">
         <f>$B20*'Time Series Scaling Factors'!U71</f>
-        <v>0</v>
+        <v>29946493542.169056</v>
       </c>
       <c r="V20">
         <f>$B20*'Time Series Scaling Factors'!V71</f>
-        <v>0</v>
+        <v>30164572480.089661</v>
       </c>
       <c r="W20">
         <f>$B20*'Time Series Scaling Factors'!W71</f>
-        <v>0</v>
+        <v>30505672844.3363</v>
       </c>
       <c r="X20">
         <f>$B20*'Time Series Scaling Factors'!X71</f>
-        <v>0</v>
+        <v>30272749404.436588</v>
       </c>
       <c r="Y20">
         <f>$B20*'Time Series Scaling Factors'!Y71</f>
-        <v>0</v>
+        <v>30632052735.511387</v>
       </c>
       <c r="Z20">
         <f>$B20*'Time Series Scaling Factors'!Z71</f>
-        <v>0</v>
+        <v>30559863938.400467</v>
       </c>
       <c r="AA20">
         <f>$B20*'Time Series Scaling Factors'!AA71</f>
-        <v>0</v>
+        <v>28837141796.101189</v>
       </c>
       <c r="AB20">
         <f>$B20*'Time Series Scaling Factors'!AB71</f>
-        <v>0</v>
+        <v>29715117587.373177</v>
       </c>
       <c r="AC20">
         <f>$B20*'Time Series Scaling Factors'!AC71</f>
-        <v>0</v>
+        <v>28560949915.697102</v>
       </c>
       <c r="AD20">
         <f>$B20*'Time Series Scaling Factors'!AD71</f>
-        <v>0</v>
+        <v>29414781736.651985</v>
       </c>
       <c r="AE20">
         <f>$B20*'Time Series Scaling Factors'!AE71</f>
-        <v>0</v>
+        <v>27878404169.358471</v>
       </c>
       <c r="AF20">
         <f>$B20*'Time Series Scaling Factors'!AF71</f>
-        <v>0</v>
+        <v>27523580247.187241</v>
       </c>
       <c r="AG20">
         <f>$B20*'Time Series Scaling Factors'!AG71</f>
-        <v>0</v>
+        <v>27109209447.605648</v>
       </c>
       <c r="AH20">
         <f>$B20*'Time Series Scaling Factors'!AH71</f>
-        <v>0</v>
+        <v>26640531092.239937</v>
       </c>
       <c r="AI20">
         <f>$B20*'Time Series Scaling Factors'!AI71</f>
-        <v>0</v>
+        <v>26481972827.842705</v>
       </c>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21" s="46" t="s">
         <v>279</v>
       </c>
-      <c r="B21" s="44">
-        <f>'HK start year data'!D70</f>
+      <c r="B21">
+        <f>'HK start year data'!D46</f>
         <v>0</v>
       </c>
       <c r="C21">
@@ -22902,8 +24270,8 @@
       <c r="A22" s="46" t="s">
         <v>280</v>
       </c>
-      <c r="B22" s="44">
-        <f>'HK start year data'!D71</f>
+      <c r="B22">
+        <f>'HK start year data'!D47</f>
         <v>0</v>
       </c>
       <c r="C22">
@@ -23081,21 +24449,21 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="263" t="s">
+      <c r="B2" s="282" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="263"/>
-      <c r="D2" s="263"/>
-      <c r="E2" s="263"/>
-      <c r="F2" s="263"/>
-      <c r="G2" s="263"/>
-      <c r="H2" s="264" t="s">
+      <c r="C2" s="282"/>
+      <c r="D2" s="282"/>
+      <c r="E2" s="282"/>
+      <c r="F2" s="282"/>
+      <c r="G2" s="282"/>
+      <c r="H2" s="283" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="264"/>
-      <c r="J2" s="264"/>
-      <c r="K2" s="264"/>
-      <c r="L2" s="265" t="s">
+      <c r="I2" s="283"/>
+      <c r="J2" s="283"/>
+      <c r="K2" s="283"/>
+      <c r="L2" s="284" t="s">
         <v>36</v>
       </c>
     </row>
@@ -23130,7 +24498,7 @@
       <c r="K3" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="L3" s="265"/>
+      <c r="L3" s="284"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
@@ -30874,44 +32242,44 @@
     </row>
     <row r="71" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="72" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="266" t="s">
+      <c r="B72" s="285" t="s">
         <v>216</v>
       </c>
-      <c r="C72" s="266"/>
-      <c r="D72" s="266"/>
-      <c r="E72" s="266"/>
-      <c r="F72" s="266"/>
-      <c r="G72" s="266"/>
-      <c r="H72" s="266"/>
-      <c r="I72" s="266"/>
-      <c r="J72" s="266"/>
-      <c r="K72" s="266"/>
-      <c r="L72" s="266"/>
-      <c r="M72" s="266"/>
-      <c r="N72" s="266"/>
-      <c r="O72" s="266"/>
-      <c r="P72" s="266"/>
-      <c r="Q72" s="266"/>
-      <c r="R72" s="266"/>
-      <c r="S72" s="266"/>
-      <c r="T72" s="266"/>
-      <c r="U72" s="266"/>
-      <c r="V72" s="266"/>
-      <c r="W72" s="266"/>
-      <c r="X72" s="266"/>
-      <c r="Y72" s="266"/>
-      <c r="Z72" s="266"/>
-      <c r="AA72" s="266"/>
-      <c r="AB72" s="266"/>
-      <c r="AC72" s="266"/>
-      <c r="AD72" s="266"/>
-      <c r="AE72" s="266"/>
-      <c r="AF72" s="266"/>
-      <c r="AG72" s="266"/>
-      <c r="AH72" s="266"/>
-      <c r="AI72" s="266"/>
-      <c r="AJ72" s="266"/>
-      <c r="AK72" s="266"/>
+      <c r="C72" s="285"/>
+      <c r="D72" s="285"/>
+      <c r="E72" s="285"/>
+      <c r="F72" s="285"/>
+      <c r="G72" s="285"/>
+      <c r="H72" s="285"/>
+      <c r="I72" s="285"/>
+      <c r="J72" s="285"/>
+      <c r="K72" s="285"/>
+      <c r="L72" s="285"/>
+      <c r="M72" s="285"/>
+      <c r="N72" s="285"/>
+      <c r="O72" s="285"/>
+      <c r="P72" s="285"/>
+      <c r="Q72" s="285"/>
+      <c r="R72" s="285"/>
+      <c r="S72" s="285"/>
+      <c r="T72" s="285"/>
+      <c r="U72" s="285"/>
+      <c r="V72" s="285"/>
+      <c r="W72" s="285"/>
+      <c r="X72" s="285"/>
+      <c r="Y72" s="285"/>
+      <c r="Z72" s="285"/>
+      <c r="AA72" s="285"/>
+      <c r="AB72" s="285"/>
+      <c r="AC72" s="285"/>
+      <c r="AD72" s="285"/>
+      <c r="AE72" s="285"/>
+      <c r="AF72" s="285"/>
+      <c r="AG72" s="285"/>
+      <c r="AH72" s="285"/>
+      <c r="AI72" s="285"/>
+      <c r="AJ72" s="285"/>
+      <c r="AK72" s="285"/>
     </row>
     <row r="73" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="35" t="s">
@@ -38025,44 +39393,44 @@
     </row>
     <row r="77" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="78" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="267" t="s">
+      <c r="B78" s="286" t="s">
         <v>430</v>
       </c>
-      <c r="C78" s="267"/>
-      <c r="D78" s="267"/>
-      <c r="E78" s="267"/>
-      <c r="F78" s="267"/>
-      <c r="G78" s="267"/>
-      <c r="H78" s="267"/>
-      <c r="I78" s="267"/>
-      <c r="J78" s="267"/>
-      <c r="K78" s="267"/>
-      <c r="L78" s="267"/>
-      <c r="M78" s="267"/>
-      <c r="N78" s="267"/>
-      <c r="O78" s="267"/>
-      <c r="P78" s="267"/>
-      <c r="Q78" s="267"/>
-      <c r="R78" s="267"/>
-      <c r="S78" s="267"/>
-      <c r="T78" s="267"/>
-      <c r="U78" s="267"/>
-      <c r="V78" s="267"/>
-      <c r="W78" s="267"/>
-      <c r="X78" s="267"/>
-      <c r="Y78" s="267"/>
-      <c r="Z78" s="267"/>
-      <c r="AA78" s="267"/>
-      <c r="AB78" s="267"/>
-      <c r="AC78" s="267"/>
-      <c r="AD78" s="267"/>
-      <c r="AE78" s="267"/>
-      <c r="AF78" s="267"/>
-      <c r="AG78" s="267"/>
-      <c r="AH78" s="267"/>
-      <c r="AI78" s="267"/>
-      <c r="AJ78" s="267"/>
-      <c r="AK78" s="267"/>
+      <c r="C78" s="286"/>
+      <c r="D78" s="286"/>
+      <c r="E78" s="286"/>
+      <c r="F78" s="286"/>
+      <c r="G78" s="286"/>
+      <c r="H78" s="286"/>
+      <c r="I78" s="286"/>
+      <c r="J78" s="286"/>
+      <c r="K78" s="286"/>
+      <c r="L78" s="286"/>
+      <c r="M78" s="286"/>
+      <c r="N78" s="286"/>
+      <c r="O78" s="286"/>
+      <c r="P78" s="286"/>
+      <c r="Q78" s="286"/>
+      <c r="R78" s="286"/>
+      <c r="S78" s="286"/>
+      <c r="T78" s="286"/>
+      <c r="U78" s="286"/>
+      <c r="V78" s="286"/>
+      <c r="W78" s="286"/>
+      <c r="X78" s="286"/>
+      <c r="Y78" s="286"/>
+      <c r="Z78" s="286"/>
+      <c r="AA78" s="286"/>
+      <c r="AB78" s="286"/>
+      <c r="AC78" s="286"/>
+      <c r="AD78" s="286"/>
+      <c r="AE78" s="286"/>
+      <c r="AF78" s="286"/>
+      <c r="AG78" s="286"/>
+      <c r="AH78" s="286"/>
+      <c r="AI78" s="286"/>
+      <c r="AJ78" s="286"/>
+      <c r="AK78" s="286"/>
     </row>
     <row r="79" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="35" t="s">
@@ -42196,14 +43564,453 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{750E80EB-BA61-4D10-ACDF-E9DC154F7AC9}">
+  <dimension ref="A2:M42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="15.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M2" s="4" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>681</v>
+      </c>
+      <c r="D6" t="s">
+        <v>681</v>
+      </c>
+      <c r="E6" t="s">
+        <v>681</v>
+      </c>
+      <c r="F6" t="s">
+        <v>681</v>
+      </c>
+      <c r="G6" t="s">
+        <v>658</v>
+      </c>
+      <c r="H6" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="C7" s="292" t="s">
+        <v>675</v>
+      </c>
+      <c r="D7" s="292" t="s">
+        <v>676</v>
+      </c>
+      <c r="E7" s="292" t="s">
+        <v>677</v>
+      </c>
+      <c r="F7" s="292" t="s">
+        <v>678</v>
+      </c>
+      <c r="G7" s="292" t="s">
+        <v>679</v>
+      </c>
+      <c r="H7" s="292" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>682</v>
+      </c>
+      <c r="C8" s="295">
+        <v>7787355</v>
+      </c>
+      <c r="D8" s="295">
+        <v>625679</v>
+      </c>
+      <c r="E8" s="295">
+        <v>7269099</v>
+      </c>
+      <c r="F8" s="295">
+        <v>807500</v>
+      </c>
+      <c r="G8">
+        <v>377769</v>
+      </c>
+      <c r="H8" s="295">
+        <v>2444030</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>683</v>
+      </c>
+      <c r="C9">
+        <v>7787395</v>
+      </c>
+      <c r="D9">
+        <v>640911</v>
+      </c>
+      <c r="E9">
+        <v>7398379</v>
+      </c>
+      <c r="F9">
+        <v>8248682</v>
+      </c>
+      <c r="G9">
+        <v>378110</v>
+      </c>
+      <c r="H9">
+        <v>2444030</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>684</v>
+      </c>
+      <c r="C10">
+        <v>40</v>
+      </c>
+      <c r="D10">
+        <v>15232</v>
+      </c>
+      <c r="E10">
+        <v>129280</v>
+      </c>
+      <c r="F10">
+        <v>173682</v>
+      </c>
+      <c r="G10">
+        <v>341</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>682</v>
+      </c>
+      <c r="D12" t="s">
+        <v>683</v>
+      </c>
+      <c r="E12" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>681</v>
+      </c>
+      <c r="B13" s="52" t="s">
+        <v>675</v>
+      </c>
+      <c r="C13" s="295">
+        <v>7787355</v>
+      </c>
+      <c r="D13">
+        <v>7787395</v>
+      </c>
+      <c r="E13">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>681</v>
+      </c>
+      <c r="B14" s="52" t="s">
+        <v>676</v>
+      </c>
+      <c r="C14" s="295">
+        <v>625679</v>
+      </c>
+      <c r="D14">
+        <v>640911</v>
+      </c>
+      <c r="E14">
+        <v>15232</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>681</v>
+      </c>
+      <c r="B15" s="52" t="s">
+        <v>677</v>
+      </c>
+      <c r="C15" s="295">
+        <v>7269099</v>
+      </c>
+      <c r="D15">
+        <v>7398379</v>
+      </c>
+      <c r="E15">
+        <v>129280</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>681</v>
+      </c>
+      <c r="B16" s="52" t="s">
+        <v>678</v>
+      </c>
+      <c r="C16" s="295">
+        <v>807500</v>
+      </c>
+      <c r="D16">
+        <v>8248682</v>
+      </c>
+      <c r="E16">
+        <v>173682</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>658</v>
+      </c>
+      <c r="B17" s="52" t="s">
+        <v>679</v>
+      </c>
+      <c r="C17">
+        <v>377769</v>
+      </c>
+      <c r="D17">
+        <v>378110</v>
+      </c>
+      <c r="E17">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>658</v>
+      </c>
+      <c r="B18" s="52" t="s">
+        <v>680</v>
+      </c>
+      <c r="C18" s="295">
+        <v>2444030</v>
+      </c>
+      <c r="D18">
+        <v>2444030</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>688</v>
+      </c>
+      <c r="C23" t="s">
+        <v>685</v>
+      </c>
+      <c r="D23" t="s">
+        <v>686</v>
+      </c>
+      <c r="E23" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>682</v>
+      </c>
+      <c r="C24">
+        <f>C25-C26</f>
+        <v>12350726</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ref="D24:E24" si="0">D25-D26</f>
+        <v>4954</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>683</v>
+      </c>
+      <c r="C25">
+        <v>12350750</v>
+      </c>
+      <c r="D25">
+        <v>9346</v>
+      </c>
+      <c r="E25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>684</v>
+      </c>
+      <c r="C26">
+        <v>24</v>
+      </c>
+      <c r="D26">
+        <v>4392</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>689</v>
+      </c>
+      <c r="D32" t="s">
+        <v>690</v>
+      </c>
+      <c r="E32" t="s">
+        <v>691</v>
+      </c>
+      <c r="F32" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="296" t="s">
+        <v>694</v>
+      </c>
+      <c r="C33" s="296">
+        <v>0</v>
+      </c>
+      <c r="D33" s="296">
+        <v>2894</v>
+      </c>
+      <c r="E33" s="296">
+        <v>0</v>
+      </c>
+      <c r="F33" s="296">
+        <v>0</v>
+      </c>
+      <c r="G33" s="296"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="297" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="297">
+        <v>277058</v>
+      </c>
+      <c r="D34" s="297">
+        <v>1024977</v>
+      </c>
+      <c r="E34" s="297">
+        <v>45274</v>
+      </c>
+      <c r="F34" s="296">
+        <v>0</v>
+      </c>
+      <c r="G34" s="297"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35">
+        <v>9</v>
+      </c>
+      <c r="D35">
+        <v>12132</v>
+      </c>
+      <c r="E35">
+        <v>4828</v>
+      </c>
+      <c r="F35" s="296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>695</v>
+      </c>
+      <c r="F36" s="296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>696</v>
+      </c>
+      <c r="F37" s="296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="296" t="s">
+        <v>698</v>
+      </c>
+      <c r="C38" s="296"/>
+      <c r="D38" s="296"/>
+      <c r="E38" s="296"/>
+      <c r="F38" s="296">
+        <v>0</v>
+      </c>
+      <c r="G38" s="296"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="296" t="s">
+        <v>697</v>
+      </c>
+      <c r="C39" s="296"/>
+      <c r="D39" s="296"/>
+      <c r="E39" s="296"/>
+      <c r="F39" s="296"/>
+      <c r="G39" s="296"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="296" t="s">
+        <v>701</v>
+      </c>
+      <c r="C42" s="296"/>
+      <c r="D42" s="296"/>
+      <c r="E42" s="296"/>
+      <c r="F42" s="296"/>
+      <c r="G42" s="296"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M2" r:id="rId1" xr:uid="{F479A540-2AB3-4A69-86F6-4CA5EC7B3684}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D071F9B-1052-454F-888E-EB0A02CDEA01}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:J102"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28:C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42212,1080 +44019,7 @@
     <col min="2" max="4" width="13.5703125" style="19" customWidth="1"/>
     <col min="5" max="5" width="16.28515625" style="19" customWidth="1"/>
     <col min="6" max="6" width="22.42578125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" customWidth="1"/>
-    <col min="10" max="10" width="20.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
-        <v>254</v>
-      </c>
-      <c r="B1" s="60" t="s">
-        <v>139</v>
-      </c>
-      <c r="C1" s="60" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="60" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="61" t="s">
-        <v>255</v>
-      </c>
-      <c r="F1" s="62" t="s">
-        <v>120</v>
-      </c>
-      <c r="G1" s="36" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
-        <v>266</v>
-      </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="57"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="s">
-        <v>267</v>
-      </c>
-      <c r="B3" s="37">
-        <f>'Uranium, Coal, MSW, Hydrogen'!B13</f>
-        <v>705.25</v>
-      </c>
-      <c r="C3" s="37">
-        <f>'Uranium, Coal, MSW, Hydrogen'!C13</f>
-        <v>6</v>
-      </c>
-      <c r="D3" s="37">
-        <f>'Uranium, Coal, MSW, Hydrogen'!D13</f>
-        <v>97</v>
-      </c>
-      <c r="E3" s="40">
-        <f>B3+C3-D3</f>
-        <v>614.25</v>
-      </c>
-      <c r="F3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="54" t="s">
-        <v>257</v>
-      </c>
-      <c r="B4" s="39">
-        <f>'AEO Table 1'!C18</f>
-        <v>28.178221000000001</v>
-      </c>
-      <c r="C4" s="39">
-        <f>'AEO Table 1'!C30</f>
-        <v>3.107542</v>
-      </c>
-      <c r="D4" s="39">
-        <f>'AEO Table 1'!C36</f>
-        <v>3.1944560000000002</v>
-      </c>
-      <c r="E4" s="40">
-        <f t="shared" ref="E4:E5" si="0">B4+C4-D4</f>
-        <v>28.091307</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="54" t="s">
-        <v>259</v>
-      </c>
-      <c r="B5" s="39">
-        <f>'Uranium, Coal, MSW, Hydrogen'!B3</f>
-        <v>3</v>
-      </c>
-      <c r="C5" s="19">
-        <f>'Uranium, Coal, MSW, Hydrogen'!C3</f>
-        <v>40</v>
-      </c>
-      <c r="D5" s="19">
-        <f>'Uranium, Coal, MSW, Hydrogen'!D3</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="38">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="55" t="s">
-        <v>269</v>
-      </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="57"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="55" t="s">
-        <v>270</v>
-      </c>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="57"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="55" t="s">
-        <v>271</v>
-      </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="57"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="54" t="s">
-        <v>260</v>
-      </c>
-      <c r="B9" s="41">
-        <f>'Biomass Data'!A33</f>
-        <v>6892028</v>
-      </c>
-      <c r="C9" s="42">
-        <f>'Biomass Data'!A50</f>
-        <v>214221.29902704654</v>
-      </c>
-      <c r="D9" s="43">
-        <f>'Biomass Data'!A36</f>
-        <v>4827647</v>
-      </c>
-      <c r="E9" s="40">
-        <f t="shared" ref="E9:E14" si="1">B9+C9-D9</f>
-        <v>2278602.2990270462</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="54" t="s">
-        <v>261</v>
-      </c>
-      <c r="B10" s="19">
-        <f>SUM('Petroleum and Biofuel Data'!C32:D32)</f>
-        <v>3634459</v>
-      </c>
-      <c r="C10" s="19">
-        <f>'Petroleum and Biofuel Data'!E32</f>
-        <v>11784</v>
-      </c>
-      <c r="D10" s="19">
-        <f>'Petroleum and Biofuel Data'!J32</f>
-        <v>273483</v>
-      </c>
-      <c r="E10" s="38">
-        <f t="shared" si="1"/>
-        <v>3372760</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="54" t="s">
-        <v>272</v>
-      </c>
-      <c r="B11" s="19">
-        <f>'Petroleum and Biofuel Data'!D38</f>
-        <v>1833879</v>
-      </c>
-      <c r="C11" s="19">
-        <f>'Petroleum and Biofuel Data'!E38</f>
-        <v>54975</v>
-      </c>
-      <c r="D11" s="19">
-        <f>'Petroleum and Biofuel Data'!J38</f>
-        <v>504155</v>
-      </c>
-      <c r="E11" s="38">
-        <f t="shared" si="1"/>
-        <v>1384699</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="54" t="s">
-        <v>273</v>
-      </c>
-      <c r="B12" s="38">
-        <f>'Petroleum and Biofuel Data'!C23</f>
-        <v>379435</v>
-      </c>
-      <c r="C12" s="19">
-        <f>'Petroleum and Biofuel Data'!E23</f>
-        <v>1824</v>
-      </c>
-      <c r="D12" s="19">
-        <f>'Petroleum and Biofuel Data'!J23</f>
-        <v>33092</v>
-      </c>
-      <c r="E12" s="38">
-        <f t="shared" si="1"/>
-        <v>348167</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="54" t="s">
-        <v>274</v>
-      </c>
-      <c r="B13" s="38">
-        <f>'Petroleum and Biofuel Data'!C24</f>
-        <v>37993</v>
-      </c>
-      <c r="C13" s="19">
-        <f>'Petroleum and Biofuel Data'!E24</f>
-        <v>13883</v>
-      </c>
-      <c r="D13" s="19">
-        <f>'Petroleum and Biofuel Data'!J24</f>
-        <v>2228</v>
-      </c>
-      <c r="E13" s="38">
-        <f t="shared" si="1"/>
-        <v>49648</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="54" t="s">
-        <v>263</v>
-      </c>
-      <c r="B14" s="38">
-        <f>SUM('Petroleum and Biofuel Data'!D36:D37)</f>
-        <v>623914</v>
-      </c>
-      <c r="C14" s="19">
-        <f>SUM('Petroleum and Biofuel Data'!E36:E37)</f>
-        <v>59702</v>
-      </c>
-      <c r="D14" s="19">
-        <f>SUM('Petroleum and Biofuel Data'!J36:J37)</f>
-        <v>69428</v>
-      </c>
-      <c r="E14" s="38">
-        <f t="shared" si="1"/>
-        <v>614188</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="55" t="s">
-        <v>315</v>
-      </c>
-      <c r="B15" s="56"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="57"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="55" t="s">
-        <v>276</v>
-      </c>
-      <c r="B16" s="56"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="57"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="54" t="s">
-        <v>277</v>
-      </c>
-      <c r="B17" s="40">
-        <f>'Uranium, Coal, MSW, Hydrogen'!B14</f>
-        <v>69.75</v>
-      </c>
-      <c r="C17" s="19">
-        <f>'Uranium, Coal, MSW, Hydrogen'!C14</f>
-        <v>0</v>
-      </c>
-      <c r="D17" s="19">
-        <f>'Uranium, Coal, MSW, Hydrogen'!D14</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="40">
-        <f t="shared" ref="E17:E22" si="2">B17+C17-D17</f>
-        <v>69.75</v>
-      </c>
-      <c r="F17" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="54" t="s">
-        <v>264</v>
-      </c>
-      <c r="B18" s="38">
-        <f>'Petroleum and Biofuel Data'!B5</f>
-        <v>3413376</v>
-      </c>
-      <c r="C18" s="19">
-        <f>'Petroleum and Biofuel Data'!E5</f>
-        <v>2908670</v>
-      </c>
-      <c r="D18" s="19">
-        <f>'Petroleum and Biofuel Data'!J5</f>
-        <v>422518</v>
-      </c>
-      <c r="E18" s="38">
-        <f t="shared" si="2"/>
-        <v>5899528</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="54" t="s">
-        <v>278</v>
-      </c>
-      <c r="B19" s="38">
-        <f>'Petroleum and Biofuel Data'!D42</f>
-        <v>155851</v>
-      </c>
-      <c r="C19" s="19">
-        <f>'Petroleum and Biofuel Data'!E42</f>
-        <v>69015</v>
-      </c>
-      <c r="D19" s="19">
-        <f>'Petroleum and Biofuel Data'!J42</f>
-        <v>112240</v>
-      </c>
-      <c r="E19" s="38">
-        <f t="shared" si="2"/>
-        <v>112626</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="54" t="s">
-        <v>265</v>
-      </c>
-      <c r="B20" s="38">
-        <f>SUM('Petroleum and Biofuel Data'!B9:D11)</f>
-        <v>820120</v>
-      </c>
-      <c r="C20" s="19">
-        <f>SUM('Petroleum and Biofuel Data'!E9:E11)</f>
-        <v>57845</v>
-      </c>
-      <c r="D20" s="19">
-        <f>SUM('Petroleum and Biofuel Data'!J9:J11)</f>
-        <v>384433</v>
-      </c>
-      <c r="E20" s="38">
-        <f t="shared" si="2"/>
-        <v>493532</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="54" t="s">
-        <v>279</v>
-      </c>
-      <c r="B21" s="19">
-        <f>'Uranium, Coal, MSW, Hydrogen'!A18</f>
-        <v>262.39999999999998</v>
-      </c>
-      <c r="C21" s="19">
-        <v>0</v>
-      </c>
-      <c r="D21" s="19">
-        <v>0</v>
-      </c>
-      <c r="E21" s="38">
-        <f t="shared" si="2"/>
-        <v>262.39999999999998</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="I21" s="256"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="54" t="s">
-        <v>280</v>
-      </c>
-      <c r="B22" s="19">
-        <f>'Uranium, Coal, MSW, Hydrogen'!A35</f>
-        <v>10</v>
-      </c>
-      <c r="C22" s="19">
-        <v>0</v>
-      </c>
-      <c r="D22" s="19">
-        <v>0</v>
-      </c>
-      <c r="E22" s="38">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="249" t="s">
-        <v>611</v>
-      </c>
-      <c r="B24" s="250"/>
-      <c r="C24" s="250"/>
-      <c r="D24" s="250"/>
-      <c r="E24" s="250"/>
-      <c r="F24" s="251"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="59" t="s">
-        <v>254</v>
-      </c>
-      <c r="B25" s="60" t="s">
-        <v>139</v>
-      </c>
-      <c r="C25" s="60" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" s="60" t="s">
-        <v>45</v>
-      </c>
-      <c r="E25" s="61" t="s">
-        <v>255</v>
-      </c>
-      <c r="F25" s="62" t="s">
-        <v>120</v>
-      </c>
-      <c r="H25" s="257" t="s">
-        <v>627</v>
-      </c>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="58" t="s">
-        <v>266</v>
-      </c>
-      <c r="B26" s="56"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="57"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="54" t="s">
-        <v>267</v>
-      </c>
-      <c r="B27" s="252">
-        <f>B3*$H27</f>
-        <v>1.370828065425E+16</v>
-      </c>
-      <c r="C27" s="252">
-        <f t="shared" ref="C27:E27" si="3">C3*$H27</f>
-        <v>116624862000000</v>
-      </c>
-      <c r="D27" s="252">
-        <f>D3*$H27</f>
-        <v>1885435269000000</v>
-      </c>
-      <c r="E27" s="252">
-        <f t="shared" si="3"/>
-        <v>1.193947024725E+16</v>
-      </c>
-      <c r="F27" t="s">
-        <v>608</v>
-      </c>
-      <c r="H27">
-        <f>'AEO Table 73'!$C66*10^12</f>
-        <v>19437477000000</v>
-      </c>
-      <c r="I27" t="s">
-        <v>626</v>
-      </c>
-      <c r="J27" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="54" t="s">
-        <v>257</v>
-      </c>
-      <c r="B28" s="252">
-        <f t="shared" ref="B28:E29" si="4">B4*$H28</f>
-        <v>2.8178221E+16</v>
-      </c>
-      <c r="C28" s="252">
-        <f t="shared" si="4"/>
-        <v>3107542000000000</v>
-      </c>
-      <c r="D28" s="252">
-        <f t="shared" si="4"/>
-        <v>3194456000000000</v>
-      </c>
-      <c r="E28" s="252">
-        <f t="shared" si="4"/>
-        <v>2.8091307E+16</v>
-      </c>
-      <c r="F28" t="s">
-        <v>608</v>
-      </c>
-      <c r="H28">
-        <f>10^15</f>
-        <v>1000000000000000</v>
-      </c>
-      <c r="I28" t="s">
-        <v>626</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="54" t="s">
-        <v>259</v>
-      </c>
-      <c r="B29" s="252">
-        <f t="shared" si="4"/>
-        <v>540000000000000</v>
-      </c>
-      <c r="C29" s="252">
-        <f t="shared" si="4"/>
-        <v>7200000000000000</v>
-      </c>
-      <c r="D29" s="252">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E29" s="252">
-        <f t="shared" si="4"/>
-        <v>7740000000000000</v>
-      </c>
-      <c r="F29" t="s">
-        <v>608</v>
-      </c>
-      <c r="H29">
-        <f>10^6*1.8*10^8</f>
-        <v>180000000000000</v>
-      </c>
-      <c r="I29" t="s">
-        <v>626</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="55" t="s">
-        <v>269</v>
-      </c>
-      <c r="B30" s="253"/>
-      <c r="C30" s="253"/>
-      <c r="D30" s="253"/>
-      <c r="E30" s="253"/>
-      <c r="F30" s="57"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="55" t="s">
-        <v>270</v>
-      </c>
-      <c r="B31" s="253"/>
-      <c r="C31" s="253"/>
-      <c r="D31" s="253"/>
-      <c r="E31" s="253"/>
-      <c r="F31" s="57"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="55" t="s">
-        <v>271</v>
-      </c>
-      <c r="B32" s="253"/>
-      <c r="C32" s="253"/>
-      <c r="D32" s="253"/>
-      <c r="E32" s="253"/>
-      <c r="F32" s="57"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="54" t="s">
-        <v>260</v>
-      </c>
-      <c r="B33" s="252">
-        <f>B9*$H33</f>
-        <v>123408653368000</v>
-      </c>
-      <c r="C33" s="252">
-        <f t="shared" ref="C33:E33" si="5">C9*$H33</f>
-        <v>3835846580378.2954</v>
-      </c>
-      <c r="D33" s="252">
-        <f t="shared" si="5"/>
-        <v>86443847182000</v>
-      </c>
-      <c r="E33" s="252">
-        <f t="shared" si="5"/>
-        <v>40800652766378.289</v>
-      </c>
-      <c r="F33" t="s">
-        <v>608</v>
-      </c>
-      <c r="H33" s="255">
-        <f>'GREET1 Fuel_Specs'!$D$79</f>
-        <v>17906000</v>
-      </c>
-      <c r="I33" t="s">
-        <v>626</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="54" t="s">
-        <v>261</v>
-      </c>
-      <c r="B34" s="252">
-        <f t="shared" ref="B34:E38" si="6">B10*$H34</f>
-        <v>1.8378161661137E+16</v>
-      </c>
-      <c r="C34" s="252">
-        <f t="shared" si="6"/>
-        <v>59587481112000</v>
-      </c>
-      <c r="D34" s="252">
-        <f t="shared" si="6"/>
-        <v>1382905897569000</v>
-      </c>
-      <c r="E34" s="252">
-        <f t="shared" si="6"/>
-        <v>1.705484324468E+16</v>
-      </c>
-      <c r="F34" t="s">
-        <v>608</v>
-      </c>
-      <c r="H34">
-        <f>'AEO Table 73'!$C32*10^9</f>
-        <v>5056643000</v>
-      </c>
-      <c r="I34" t="s">
-        <v>626</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="54" t="s">
-        <v>272</v>
-      </c>
-      <c r="B35" s="252">
-        <f t="shared" si="6"/>
-        <v>1.0682345175E+16</v>
-      </c>
-      <c r="C35" s="252">
-        <f t="shared" si="6"/>
-        <v>320229375000000</v>
-      </c>
-      <c r="D35" s="252">
-        <f t="shared" si="6"/>
-        <v>2936702875000000</v>
-      </c>
-      <c r="E35" s="252">
-        <f t="shared" si="6"/>
-        <v>8065871675000000</v>
-      </c>
-      <c r="F35" t="s">
-        <v>608</v>
-      </c>
-      <c r="H35">
-        <f>'AEO Table 73'!$C19*10^9</f>
-        <v>5825000000</v>
-      </c>
-      <c r="I35" t="s">
-        <v>626</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="54" t="s">
-        <v>273</v>
-      </c>
-      <c r="B36" s="252">
-        <f t="shared" si="6"/>
-        <v>1516685170700000</v>
-      </c>
-      <c r="C36" s="252">
-        <f t="shared" si="6"/>
-        <v>7290929280000</v>
-      </c>
-      <c r="D36" s="252">
-        <f t="shared" si="6"/>
-        <v>132276004240000</v>
-      </c>
-      <c r="E36" s="252">
-        <f t="shared" si="6"/>
-        <v>1391700095740000</v>
-      </c>
-      <c r="F36" t="s">
-        <v>608</v>
-      </c>
-      <c r="H36">
-        <f>'AEO Table 73'!$C29*10^9</f>
-        <v>3997220000</v>
-      </c>
-      <c r="I36" t="s">
-        <v>626</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="54" t="s">
-        <v>274</v>
-      </c>
-      <c r="B37" s="252">
-        <f t="shared" si="6"/>
-        <v>203604487000000</v>
-      </c>
-      <c r="C37" s="252">
-        <f t="shared" si="6"/>
-        <v>74398997000000</v>
-      </c>
-      <c r="D37" s="252">
-        <f t="shared" si="6"/>
-        <v>11939852000000</v>
-      </c>
-      <c r="E37" s="252">
-        <f t="shared" si="6"/>
-        <v>266063632000000</v>
-      </c>
-      <c r="F37" t="s">
-        <v>608</v>
-      </c>
-      <c r="H37">
-        <f>'AEO Table 73'!$C18*10^9</f>
-        <v>5359000000</v>
-      </c>
-      <c r="I37" t="s">
-        <v>626</v>
-      </c>
-      <c r="J37" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="54" t="s">
-        <v>263</v>
-      </c>
-      <c r="B38" s="252">
-        <f t="shared" si="6"/>
-        <v>3537592380000000</v>
-      </c>
-      <c r="C38" s="252">
-        <f t="shared" si="6"/>
-        <v>338510340000000</v>
-      </c>
-      <c r="D38" s="252">
-        <f t="shared" si="6"/>
-        <v>393656760000000</v>
-      </c>
-      <c r="E38" s="252">
-        <f t="shared" si="6"/>
-        <v>3482445960000000</v>
-      </c>
-      <c r="F38" t="s">
-        <v>608</v>
-      </c>
-      <c r="H38">
-        <f>'AEO Table 73'!$C30*10^9</f>
-        <v>5670000000</v>
-      </c>
-      <c r="I38" t="s">
-        <v>626</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="55" t="s">
-        <v>315</v>
-      </c>
-      <c r="B39" s="253"/>
-      <c r="C39" s="253"/>
-      <c r="D39" s="253"/>
-      <c r="E39" s="253"/>
-      <c r="F39" s="57"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="55" t="s">
-        <v>276</v>
-      </c>
-      <c r="B40" s="253"/>
-      <c r="C40" s="253"/>
-      <c r="D40" s="253"/>
-      <c r="E40" s="253"/>
-      <c r="F40" s="57"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="54" t="s">
-        <v>277</v>
-      </c>
-      <c r="B41" s="252">
-        <f t="shared" ref="B41:E42" si="7">B17*$H41</f>
-        <v>906213062527442.13</v>
-      </c>
-      <c r="C41" s="252">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D41" s="252">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E41" s="252">
-        <f t="shared" si="7"/>
-        <v>906213062527442.13</v>
-      </c>
-      <c r="F41" t="s">
-        <v>608</v>
-      </c>
-      <c r="H41">
-        <f>'GREET1 Fuel_Specs'!$D$68*10^6</f>
-        <v>12992301971719.6</v>
-      </c>
-      <c r="I41" t="s">
-        <v>626</v>
-      </c>
-      <c r="J41" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="54" t="s">
-        <v>264</v>
-      </c>
-      <c r="B42" s="252">
-        <f t="shared" si="7"/>
-        <v>1.9534750848E+16</v>
-      </c>
-      <c r="C42" s="252">
-        <f t="shared" si="7"/>
-        <v>1.664631841E+16</v>
-      </c>
-      <c r="D42" s="252">
-        <f t="shared" si="7"/>
-        <v>2418070514000000</v>
-      </c>
-      <c r="E42" s="252">
-        <f t="shared" si="7"/>
-        <v>3.3762998744E+16</v>
-      </c>
-      <c r="F42" t="s">
-        <v>608</v>
-      </c>
-      <c r="H42">
-        <f>'AEO Table 73'!$C48*10^9</f>
-        <v>5723000000</v>
-      </c>
-      <c r="I42" t="s">
-        <v>626</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="54" t="s">
-        <v>278</v>
-      </c>
-      <c r="B43" s="252">
-        <f t="shared" ref="B43:E43" si="8">B19*$H43</f>
-        <v>979835237000000</v>
-      </c>
-      <c r="C43" s="252">
-        <f t="shared" si="8"/>
-        <v>433897305000000</v>
-      </c>
-      <c r="D43" s="252">
-        <f t="shared" si="8"/>
-        <v>705652880000000</v>
-      </c>
-      <c r="E43" s="252">
-        <f t="shared" si="8"/>
-        <v>708079662000000</v>
-      </c>
-      <c r="F43" t="s">
-        <v>608</v>
-      </c>
-      <c r="H43">
-        <f>'AEO Table 73'!$C41*10^9</f>
-        <v>6287000000</v>
-      </c>
-      <c r="I43" t="s">
-        <v>626</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="54" t="s">
-        <v>265</v>
-      </c>
-      <c r="B44" s="252">
-        <f t="shared" ref="B44:E44" si="9">B20*$H44</f>
-        <v>3148621106400000</v>
-      </c>
-      <c r="C44" s="252">
-        <f t="shared" si="9"/>
-        <v>222079680900000</v>
-      </c>
-      <c r="D44" s="252">
-        <f t="shared" si="9"/>
-        <v>1475922862260000</v>
-      </c>
-      <c r="E44" s="252">
-        <f t="shared" si="9"/>
-        <v>1894777925040000</v>
-      </c>
-      <c r="F44" t="s">
-        <v>608</v>
-      </c>
-      <c r="H44">
-        <f>'GREET1 Fuel_Specs'!$D$35*10^3*42</f>
-        <v>3839220000</v>
-      </c>
-      <c r="I44" t="s">
-        <v>626</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="54" t="s">
-        <v>279</v>
-      </c>
-      <c r="B45" s="252">
-        <f t="shared" ref="B45:E45" si="10">B21*$H45</f>
-        <v>3564295858911020.5</v>
-      </c>
-      <c r="C45" s="252">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="D45" s="252">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E45" s="252">
-        <f t="shared" si="10"/>
-        <v>3564295858911020.5</v>
-      </c>
-      <c r="F45" t="s">
-        <v>608</v>
-      </c>
-      <c r="H45">
-        <f>'GREET1 Fuel_Specs'!$D$87*10^6</f>
-        <v>13583444584264.561</v>
-      </c>
-      <c r="I45" t="s">
-        <v>626</v>
-      </c>
-      <c r="J45" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="54" t="s">
-        <v>280</v>
-      </c>
-      <c r="B46" s="252">
-        <f t="shared" ref="B46:E46" si="11">B22*$H46</f>
-        <v>8746500000000000</v>
-      </c>
-      <c r="C46" s="252">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="D46" s="252">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E46" s="252">
-        <f t="shared" si="11"/>
-        <v>8746500000000000</v>
-      </c>
-      <c r="F46" t="s">
-        <v>608</v>
-      </c>
-      <c r="H46">
-        <f>'GREET1 Fuel_Specs'!$D$61*'GREET1 Fuel_Specs'!$E$61*10^12</f>
-        <v>874650000000000</v>
-      </c>
-      <c r="I46" t="s">
-        <v>626</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>306</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D071F9B-1052-454F-888E-EB0A02CDEA01}">
-  <sheetPr>
-    <tabColor rgb="FF92D050"/>
-  </sheetPr>
-  <dimension ref="A1:J71"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="44.5703125" customWidth="1"/>
-    <col min="2" max="4" width="13.5703125" style="19" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" style="19" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" customWidth="1"/>
+    <col min="7" max="7" width="27.140625" customWidth="1"/>
     <col min="8" max="8" width="14.140625" customWidth="1"/>
     <col min="9" max="9" width="8.85546875" customWidth="1"/>
     <col min="10" max="10" width="20.28515625" customWidth="1"/>
@@ -43324,365 +44058,370 @@
       <c r="D2" s="56"/>
       <c r="E2" s="56"/>
       <c r="F2" s="57"/>
-      <c r="G2" s="268" t="s">
+      <c r="G2" s="263" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="271" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="284" t="s">
+    <row r="3" spans="1:7" s="266" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="279" t="s">
         <v>267</v>
       </c>
-      <c r="B3" s="269">
-        <v>0</v>
-      </c>
-      <c r="C3" s="269">
+      <c r="B3" s="264">
+        <v>0</v>
+      </c>
+      <c r="C3" s="264">
         <v>277058</v>
       </c>
-      <c r="D3" s="269">
+      <c r="D3" s="264">
         <v>9</v>
       </c>
-      <c r="E3" s="270">
+      <c r="E3" s="265">
         <f>B3+C3-D3</f>
         <v>277049</v>
       </c>
-      <c r="F3" s="271" t="s">
+      <c r="F3" s="266" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="271" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="284" t="s">
+    <row r="4" spans="1:7" s="266" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="279" t="s">
         <v>257</v>
       </c>
-      <c r="B4" s="272">
-        <v>0</v>
-      </c>
-      <c r="C4" s="269">
-        <f>427658+699347+728411+588614</f>
+      <c r="B4" s="267">
+        <v>0</v>
+      </c>
+      <c r="C4" s="293">
+        <f>'HK energy statistics'!H8</f>
         <v>2444030</v>
       </c>
-      <c r="D4" s="272">
-        <v>0</v>
-      </c>
-      <c r="E4" s="270">
+      <c r="D4" s="267">
+        <v>0</v>
+      </c>
+      <c r="E4" s="265">
         <f t="shared" ref="E4:E23" si="0">B4+C4-D4</f>
         <v>2444030</v>
       </c>
-      <c r="F4" s="271" t="s">
+      <c r="F4" s="266" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="271" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="273" t="s">
+    <row r="5" spans="1:7" s="266" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="268" t="s">
         <v>259</v>
       </c>
-      <c r="B5" s="272"/>
-      <c r="C5" s="274"/>
-      <c r="D5" s="274"/>
-      <c r="E5" s="270">
+      <c r="B5" s="267"/>
+      <c r="C5" s="269"/>
+      <c r="D5" s="269"/>
+      <c r="E5" s="265">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F5" s="271" t="s">
+      <c r="F5" s="266" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="271" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="275" t="s">
+    <row r="6" spans="1:7" s="266" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="270" t="s">
         <v>269</v>
       </c>
-      <c r="B6" s="276"/>
-      <c r="C6" s="276"/>
-      <c r="D6" s="276"/>
-      <c r="E6" s="276"/>
-      <c r="F6" s="277"/>
-    </row>
-    <row r="7" spans="1:7" s="271" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="275" t="s">
+      <c r="B6" s="271"/>
+      <c r="C6" s="271"/>
+      <c r="D6" s="271"/>
+      <c r="E6" s="271"/>
+      <c r="F6" s="272"/>
+    </row>
+    <row r="7" spans="1:7" s="266" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="270" t="s">
         <v>270</v>
       </c>
-      <c r="B7" s="276"/>
-      <c r="C7" s="276"/>
-      <c r="D7" s="276"/>
-      <c r="E7" s="276"/>
-      <c r="F7" s="277"/>
-    </row>
-    <row r="8" spans="1:7" s="271" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="275" t="s">
+      <c r="B7" s="271"/>
+      <c r="C7" s="271"/>
+      <c r="D7" s="271"/>
+      <c r="E7" s="271"/>
+      <c r="F7" s="272"/>
+    </row>
+    <row r="8" spans="1:7" s="266" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="270" t="s">
         <v>271</v>
       </c>
-      <c r="B8" s="276"/>
-      <c r="C8" s="276"/>
-      <c r="D8" s="276"/>
-      <c r="E8" s="276"/>
-      <c r="F8" s="277"/>
-    </row>
-    <row r="9" spans="1:7" s="271" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="273" t="s">
+      <c r="B8" s="271"/>
+      <c r="C8" s="271"/>
+      <c r="D8" s="271"/>
+      <c r="E8" s="271"/>
+      <c r="F8" s="272"/>
+    </row>
+    <row r="9" spans="1:7" s="266" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="268" t="s">
         <v>260</v>
       </c>
-      <c r="B9" s="278"/>
-      <c r="C9" s="279"/>
-      <c r="D9" s="280"/>
-      <c r="E9" s="270">
+      <c r="B9" s="273"/>
+      <c r="C9" s="274"/>
+      <c r="D9" s="275"/>
+      <c r="E9" s="265">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F9" s="271" t="s">
+      <c r="F9" s="266" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="271" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="281" t="s">
+    <row r="10" spans="1:7" s="266" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="276" t="s">
         <v>261</v>
       </c>
-      <c r="B10" s="274">
-        <v>0</v>
-      </c>
-      <c r="C10" s="274">
-        <f>125538+199234+135945+164962</f>
-        <v>625679</v>
-      </c>
-      <c r="D10" s="274">
-        <v>0</v>
-      </c>
-      <c r="E10" s="270">
+      <c r="B10" s="269">
+        <v>0</v>
+      </c>
+      <c r="C10" s="294">
+        <f>'HK energy statistics'!D14</f>
+        <v>640911</v>
+      </c>
+      <c r="D10" s="294">
+        <f>'HK energy statistics'!E14</f>
+        <v>15232</v>
+      </c>
+      <c r="E10" s="265">
         <f t="shared" si="0"/>
         <v>625679</v>
       </c>
-      <c r="F10" s="271" t="s">
+      <c r="F10" s="266" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="271" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="281" t="s">
+    <row r="11" spans="1:7" s="266" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="276" t="s">
         <v>272</v>
       </c>
-      <c r="B11" s="274">
-        <v>0</v>
-      </c>
-      <c r="C11" s="274">
-        <f>1642723+1696789+1862001+2067586</f>
-        <v>7269099</v>
-      </c>
-      <c r="D11" s="274">
-        <v>0</v>
-      </c>
-      <c r="E11" s="270">
+      <c r="B11" s="269">
+        <v>0</v>
+      </c>
+      <c r="C11" s="294">
+        <f>'HK energy statistics'!D15</f>
+        <v>7398379</v>
+      </c>
+      <c r="D11" s="294">
+        <f>'HK energy statistics'!E15</f>
+        <v>129280</v>
+      </c>
+      <c r="E11" s="265">
         <f t="shared" si="0"/>
         <v>7269099</v>
       </c>
-      <c r="F11" s="271" t="s">
+      <c r="F11" s="266" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="271" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="281" t="s">
+    <row r="12" spans="1:7" s="266" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="276" t="s">
         <v>273</v>
       </c>
-      <c r="B12" s="282"/>
-      <c r="C12" s="274"/>
-      <c r="D12" s="274"/>
-      <c r="E12" s="270">
+      <c r="B12" s="277"/>
+      <c r="C12" s="269"/>
+      <c r="D12" s="269"/>
+      <c r="E12" s="265">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12" s="271" t="s">
+      <c r="F12" s="266" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="271" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="281" t="s">
+    <row r="13" spans="1:7" s="266" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="276" t="s">
         <v>274</v>
       </c>
-      <c r="B13" s="282"/>
-      <c r="C13" s="274"/>
-      <c r="D13" s="274"/>
-      <c r="E13" s="270">
+      <c r="B13" s="277"/>
+      <c r="C13" s="269"/>
+      <c r="D13" s="269"/>
+      <c r="E13" s="265">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F13" s="271" t="s">
+      <c r="F13" s="266" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="271" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="281" t="s">
+    <row r="14" spans="1:7" s="266" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="276" t="s">
         <v>263</v>
       </c>
-      <c r="B14" s="282">
-        <v>0</v>
-      </c>
-      <c r="C14" s="274">
-        <f>1779087+1860215+2083424+2064629</f>
-        <v>7787355</v>
-      </c>
-      <c r="D14" s="274">
-        <v>0</v>
-      </c>
-      <c r="E14" s="270">
+      <c r="B14" s="277">
+        <v>0</v>
+      </c>
+      <c r="C14" s="294">
+        <f>'HK energy statistics'!D13</f>
+        <v>7787395</v>
+      </c>
+      <c r="D14" s="294">
+        <f>'HK energy statistics'!E13</f>
+        <v>40</v>
+      </c>
+      <c r="E14" s="265">
         <f t="shared" si="0"/>
         <v>7787355</v>
       </c>
-      <c r="F14" s="271" t="s">
+      <c r="F14" s="266" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="271" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="275" t="s">
+    <row r="15" spans="1:7" s="266" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="270" t="s">
         <v>315</v>
       </c>
-      <c r="B15" s="276"/>
-      <c r="C15" s="276"/>
-      <c r="D15" s="276"/>
-      <c r="E15" s="276"/>
-      <c r="F15" s="277"/>
-    </row>
-    <row r="16" spans="1:7" s="271" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="275" t="s">
+      <c r="B15" s="271"/>
+      <c r="C15" s="271"/>
+      <c r="D15" s="271"/>
+      <c r="E15" s="271"/>
+      <c r="F15" s="272"/>
+    </row>
+    <row r="16" spans="1:7" s="266" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="270" t="s">
         <v>276</v>
       </c>
-      <c r="B16" s="276"/>
-      <c r="C16" s="276"/>
-      <c r="D16" s="276"/>
-      <c r="E16" s="276"/>
-      <c r="F16" s="277"/>
-    </row>
-    <row r="17" spans="1:9" s="271" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="284" t="s">
+      <c r="B16" s="271"/>
+      <c r="C16" s="271"/>
+      <c r="D16" s="271"/>
+      <c r="E16" s="271"/>
+      <c r="F16" s="272"/>
+    </row>
+    <row r="17" spans="1:9" s="266" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="279" t="s">
         <v>277</v>
       </c>
-      <c r="B17" s="270"/>
-      <c r="C17" s="274"/>
-      <c r="D17" s="274"/>
-      <c r="E17" s="270">
+      <c r="B17" s="265"/>
+      <c r="C17" s="269"/>
+      <c r="D17" s="269"/>
+      <c r="E17" s="265">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F17" s="271" t="s">
+      <c r="F17" s="266" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="271" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="284" t="s">
+    <row r="18" spans="1:9" s="266" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="279" t="s">
         <v>264</v>
       </c>
-      <c r="B18" s="282"/>
-      <c r="C18" s="274"/>
-      <c r="D18" s="274"/>
-      <c r="E18" s="270">
+      <c r="B18" s="277"/>
+      <c r="C18" s="269"/>
+      <c r="D18" s="269"/>
+      <c r="E18" s="265">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F18" s="271" t="s">
+      <c r="F18" s="266" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="271" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="281" t="s">
+    <row r="19" spans="1:9" s="266" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="276" t="s">
         <v>278</v>
       </c>
-      <c r="B19" s="282">
-        <v>0</v>
-      </c>
-      <c r="C19" s="274">
-        <f>1916017+2292212+1864586+2002185</f>
-        <v>8075000</v>
-      </c>
-      <c r="D19" s="274">
-        <v>0</v>
-      </c>
-      <c r="E19" s="270">
+      <c r="B19" s="277">
+        <v>0</v>
+      </c>
+      <c r="C19" s="294">
+        <f>'HK energy statistics'!D16</f>
+        <v>8248682</v>
+      </c>
+      <c r="D19" s="294">
+        <f>'HK energy statistics'!E16</f>
+        <v>173682</v>
+      </c>
+      <c r="E19" s="265">
         <f t="shared" si="0"/>
         <v>8075000</v>
       </c>
-      <c r="F19" s="271" t="s">
+      <c r="F19" s="266" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="271" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="281" t="s">
+    <row r="20" spans="1:9" s="266" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="276" t="s">
         <v>265</v>
       </c>
-      <c r="B20" s="282">
-        <v>0</v>
-      </c>
-      <c r="C20" s="274">
-        <f>82375+98904+105839+90651</f>
-        <v>377769</v>
-      </c>
-      <c r="D20" s="274">
-        <v>0</v>
-      </c>
-      <c r="E20" s="270">
+      <c r="B20" s="277">
+        <v>0</v>
+      </c>
+      <c r="C20" s="294">
+        <f>'HK energy statistics'!D17</f>
+        <v>378110</v>
+      </c>
+      <c r="D20" s="294">
+        <f>'HK energy statistics'!E17</f>
+        <v>341</v>
+      </c>
+      <c r="E20" s="265">
         <f t="shared" si="0"/>
         <v>377769</v>
       </c>
-      <c r="F20" s="271" t="s">
+      <c r="F20" s="266" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="271" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="273" t="s">
+    <row r="21" spans="1:9" s="266" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="268" t="s">
         <v>279</v>
       </c>
-      <c r="B21" s="274"/>
-      <c r="C21" s="274"/>
-      <c r="D21" s="274"/>
-      <c r="E21" s="270">
+      <c r="B21" s="269"/>
+      <c r="C21" s="269"/>
+      <c r="D21" s="269"/>
+      <c r="E21" s="265">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F21" s="271" t="s">
+      <c r="F21" s="266" t="s">
         <v>655</v>
       </c>
-      <c r="I21" s="283"/>
-    </row>
-    <row r="22" spans="1:9" s="271" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="273" t="s">
+      <c r="I21" s="278"/>
+    </row>
+    <row r="22" spans="1:9" s="266" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="268" t="s">
         <v>280</v>
       </c>
-      <c r="B22" s="274"/>
-      <c r="C22" s="274"/>
-      <c r="D22" s="274"/>
-      <c r="E22" s="270">
+      <c r="B22" s="269"/>
+      <c r="C22" s="269"/>
+      <c r="D22" s="269"/>
+      <c r="E22" s="265">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F22" s="271" t="s">
+      <c r="F22" s="266" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="271" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="274"/>
-      <c r="C23" s="274"/>
-      <c r="D23" s="274"/>
-      <c r="E23" s="270">
+    <row r="23" spans="1:9" s="266" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="269"/>
+      <c r="C23" s="269"/>
+      <c r="D23" s="269"/>
+      <c r="E23" s="265">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F23" s="271" t="s">
+      <c r="F23" s="266" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="271" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="274"/>
-      <c r="C24" s="274"/>
-      <c r="D24" s="274"/>
-      <c r="E24" s="270"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="249" t="s">
-        <v>669</v>
-      </c>
-      <c r="B25" s="250"/>
-      <c r="C25" s="250"/>
-      <c r="D25" s="250"/>
-      <c r="E25" s="250"/>
-      <c r="F25" s="251"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" s="266" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="269"/>
+      <c r="C24" s="269"/>
+      <c r="D24" s="269"/>
+      <c r="E24" s="265"/>
+    </row>
+    <row r="25" spans="1:9" s="266" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="288" t="s">
+        <v>608</v>
+      </c>
+      <c r="B25" s="289"/>
+      <c r="C25" s="289"/>
+      <c r="D25" s="289"/>
+      <c r="E25" s="290"/>
+      <c r="F25" s="288"/>
+    </row>
+    <row r="26" spans="1:9" s="266" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="59" t="s">
-        <v>254</v>
+        <v>656</v>
       </c>
       <c r="B26" s="60" t="s">
         <v>139</v>
@@ -43699,11 +44438,8 @@
       <c r="F26" s="62" t="s">
         <v>120</v>
       </c>
-      <c r="G26" s="36" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:9" s="266" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="58" t="s">
         <v>266</v>
       </c>
@@ -43713,959 +44449,1534 @@
       <c r="E27" s="56"/>
       <c r="F27" s="57"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="54" t="s">
+    <row r="28" spans="1:9" s="266" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="279" t="s">
         <v>267</v>
       </c>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37">
-        <f>C3*10^12/H29*H28/10^6</f>
+      <c r="B28" s="264">
+        <v>0</v>
+      </c>
+      <c r="C28" s="300">
+        <f>C3*$H$28</f>
+        <v>262600315632960</v>
+      </c>
+      <c r="D28" s="300">
+        <f>D3*$H$28</f>
+        <v>8530354080</v>
+      </c>
+      <c r="E28" s="287">
+        <f>B28+C28-D28</f>
+        <v>262591785278880</v>
+      </c>
+      <c r="F28" s="301" t="s">
+        <v>608</v>
+      </c>
+      <c r="G28" s="266" t="s">
+        <v>673</v>
+      </c>
+      <c r="H28" s="266">
+        <f>947.81712*10^6</f>
+        <v>947817120</v>
+      </c>
+      <c r="I28" s="44" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="266" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="279" t="s">
+        <v>257</v>
+      </c>
+      <c r="B29" s="267">
+        <v>0</v>
+      </c>
+      <c r="C29" s="300">
+        <f>C4*$H$29*100*$H$30</f>
+        <v>9744252294628.3535</v>
+      </c>
+      <c r="D29" s="300">
+        <f>D4*$H$29*100*$H$30</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="287">
+        <f t="shared" ref="E29:E30" si="1">B29+C29-D29</f>
+        <v>9744252294628.3535</v>
+      </c>
+      <c r="F29" s="301" t="s">
+        <v>608</v>
+      </c>
+      <c r="G29" s="266" t="s">
+        <v>706</v>
+      </c>
+      <c r="H29" s="266">
+        <v>38.484179543781998</v>
+      </c>
+      <c r="I29" s="44" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="266" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="268" t="s">
+        <v>259</v>
+      </c>
+      <c r="B30" s="267"/>
+      <c r="C30" s="269"/>
+      <c r="D30" s="269"/>
+      <c r="E30" s="265">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="266" t="s">
+        <v>655</v>
+      </c>
+      <c r="G30" s="266" t="s">
+        <v>707</v>
+      </c>
+      <c r="H30" s="302">
+        <v>1036</v>
+      </c>
+      <c r="I30" s="44" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="266" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="270" t="s">
+        <v>269</v>
+      </c>
+      <c r="B31" s="271"/>
+      <c r="C31" s="271"/>
+      <c r="D31" s="271"/>
+      <c r="E31" s="271"/>
+      <c r="F31" s="272"/>
+    </row>
+    <row r="32" spans="1:9" s="266" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="270" t="s">
+        <v>270</v>
+      </c>
+      <c r="B32" s="271"/>
+      <c r="C32" s="271"/>
+      <c r="D32" s="271"/>
+      <c r="E32" s="271"/>
+      <c r="F32" s="272"/>
+    </row>
+    <row r="33" spans="1:9" s="266" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="270" t="s">
+        <v>271</v>
+      </c>
+      <c r="B33" s="271"/>
+      <c r="C33" s="271"/>
+      <c r="D33" s="271"/>
+      <c r="E33" s="271"/>
+      <c r="F33" s="272"/>
+    </row>
+    <row r="34" spans="1:9" s="266" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="268" t="s">
+        <v>260</v>
+      </c>
+      <c r="B34" s="273"/>
+      <c r="C34" s="274"/>
+      <c r="D34" s="275"/>
+      <c r="E34" s="265">
+        <f t="shared" ref="E34:E39" si="2">B34+C34-D34</f>
+        <v>0</v>
+      </c>
+      <c r="F34" s="266" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="266" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="276" t="s">
+        <v>261</v>
+      </c>
+      <c r="B35" s="269">
+        <v>0</v>
+      </c>
+      <c r="C35" s="299">
+        <f>C10*1000*$H$35</f>
+        <v>20373793519533</v>
+      </c>
+      <c r="D35" s="299">
+        <f>D10*1000*$H$35</f>
+        <v>484207047296</v>
+      </c>
+      <c r="E35" s="269">
+        <f t="shared" si="2"/>
+        <v>19889586472237</v>
+      </c>
+      <c r="F35" s="301" t="s">
+        <v>608</v>
+      </c>
+      <c r="G35" s="266" t="s">
+        <v>703</v>
+      </c>
+      <c r="H35" s="298">
+        <v>31788.803</v>
+      </c>
+      <c r="I35" s="44" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="266" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="276" t="s">
+        <v>272</v>
+      </c>
+      <c r="B36" s="269">
+        <v>0</v>
+      </c>
+      <c r="C36" s="299">
+        <f>C11*1000*$H$36</f>
+        <v>268504345547659.03</v>
+      </c>
+      <c r="D36" s="299">
+        <f>D11*1000*$H$36</f>
+        <v>4691871258880</v>
+      </c>
+      <c r="E36" s="269">
+        <f t="shared" si="2"/>
+        <v>263812474288779.03</v>
+      </c>
+      <c r="F36" s="301" t="s">
+        <v>608</v>
+      </c>
+      <c r="G36" s="266" t="s">
+        <v>704</v>
+      </c>
+      <c r="H36" s="298">
+        <v>36292.321000000004</v>
+      </c>
+      <c r="I36" s="44" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="266" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="276" t="s">
+        <v>273</v>
+      </c>
+      <c r="B37" s="277"/>
+      <c r="C37" s="269"/>
+      <c r="D37" s="269"/>
+      <c r="E37" s="265">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F37" s="266" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="266" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="276" t="s">
+        <v>274</v>
+      </c>
+      <c r="B38" s="277"/>
+      <c r="C38" s="269"/>
+      <c r="D38" s="269"/>
+      <c r="E38" s="265">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F38" s="266" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="266" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="276" t="s">
+        <v>263</v>
+      </c>
+      <c r="B39" s="277">
+        <v>0</v>
+      </c>
+      <c r="C39" s="299">
+        <f>C14*1000*$H$40*$H$39</f>
+        <v>277723635779412.88</v>
+      </c>
+      <c r="D39" s="299">
+        <f>D14*1000*$H$40*$H$39</f>
+        <v>1426529080.8</v>
+      </c>
+      <c r="E39" s="269">
+        <f t="shared" si="2"/>
+        <v>277722209250332.06</v>
+      </c>
+      <c r="F39" s="301" t="s">
+        <v>608</v>
+      </c>
+      <c r="G39" s="266" t="s">
+        <v>714</v>
+      </c>
+      <c r="H39" s="266">
+        <v>135000</v>
+      </c>
+      <c r="I39" s="44" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" s="266" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="270" t="s">
+        <v>315</v>
+      </c>
+      <c r="B40" s="271"/>
+      <c r="C40" s="271"/>
+      <c r="D40" s="271"/>
+      <c r="E40" s="271"/>
+      <c r="F40" s="272"/>
+      <c r="G40" s="266" t="s">
+        <v>715</v>
+      </c>
+      <c r="H40" s="266">
+        <v>0.26417205199999999</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" s="266" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="270" t="s">
+        <v>276</v>
+      </c>
+      <c r="B41" s="271"/>
+      <c r="C41" s="271"/>
+      <c r="D41" s="271"/>
+      <c r="E41" s="271"/>
+      <c r="F41" s="272"/>
+    </row>
+    <row r="42" spans="1:9" s="266" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="279" t="s">
+        <v>277</v>
+      </c>
+      <c r="B42" s="265"/>
+      <c r="C42" s="269"/>
+      <c r="D42" s="269"/>
+      <c r="E42" s="265">
+        <f t="shared" ref="E42:E48" si="3">B42+C42-D42</f>
+        <v>0</v>
+      </c>
+      <c r="F42" s="266" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" s="266" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="279" t="s">
+        <v>264</v>
+      </c>
+      <c r="B43" s="277"/>
+      <c r="C43" s="269"/>
+      <c r="D43" s="269"/>
+      <c r="E43" s="265">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F43" s="266" t="s">
+        <v>655</v>
+      </c>
+      <c r="G43" s="266" t="s">
+        <v>710</v>
+      </c>
+      <c r="H43" s="298">
+        <v>35883.368999999999</v>
+      </c>
+      <c r="I43" s="44" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" s="266" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="276" t="s">
+        <v>278</v>
+      </c>
+      <c r="B44" s="277">
+        <v>0</v>
+      </c>
+      <c r="C44" s="299">
+        <f>C19*1000*$H$44</f>
+        <v>295990499969658</v>
+      </c>
+      <c r="D44" s="299">
+        <f>D19*1000*$H$44</f>
+        <v>6232295294658</v>
+      </c>
+      <c r="E44" s="300">
+        <f t="shared" si="3"/>
+        <v>289758204675000</v>
+      </c>
+      <c r="F44" s="301" t="s">
+        <v>608</v>
+      </c>
+      <c r="H44" s="298">
+        <v>35883.368999999999</v>
+      </c>
+      <c r="I44" s="266" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" s="266" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="276" t="s">
+        <v>265</v>
+      </c>
+      <c r="B45" s="277">
+        <v>0</v>
+      </c>
+      <c r="C45" s="300">
+        <f>C20*$H$45</f>
+        <v>19661720000000</v>
+      </c>
+      <c r="D45" s="300">
+        <f>D20*$H$45</f>
+        <v>17732000000</v>
+      </c>
+      <c r="E45" s="300">
+        <f t="shared" si="3"/>
+        <v>19643988000000</v>
+      </c>
+      <c r="F45" s="266" t="s">
+        <v>608</v>
+      </c>
+      <c r="G45" s="303" t="s">
+        <v>711</v>
+      </c>
+      <c r="H45" s="266">
+        <f>52*10^12/10^6</f>
+        <v>52000000</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" s="266" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="268" t="s">
+        <v>279</v>
+      </c>
+      <c r="B46" s="269"/>
+      <c r="C46" s="269"/>
+      <c r="D46" s="269"/>
+      <c r="E46" s="265">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F46" s="266" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" s="266" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="268" t="s">
+        <v>280</v>
+      </c>
+      <c r="B47" s="269"/>
+      <c r="C47" s="269"/>
+      <c r="D47" s="269"/>
+      <c r="E47" s="265">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F47" s="266" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" s="266" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="269"/>
+      <c r="C48" s="269"/>
+      <c r="D48" s="269"/>
+      <c r="E48" s="265">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F48" s="266" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" s="266" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="310" t="s">
+        <v>717</v>
+      </c>
+      <c r="B49" s="295"/>
+      <c r="C49" s="295"/>
+      <c r="D49" s="295"/>
+      <c r="E49" s="295"/>
+      <c r="F49" s="295"/>
+    </row>
+    <row r="50" spans="1:9" s="266" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>693</v>
+      </c>
+      <c r="B50" t="s">
+        <v>689</v>
+      </c>
+      <c r="C50" s="304" t="s">
+        <v>690</v>
+      </c>
+      <c r="D50" t="s">
+        <v>691</v>
+      </c>
+      <c r="E50" s="304" t="s">
+        <v>716</v>
+      </c>
+      <c r="F50"/>
+    </row>
+    <row r="51" spans="1:9" s="266" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="296" t="s">
+        <v>694</v>
+      </c>
+      <c r="B51" s="296">
+        <v>0</v>
+      </c>
+      <c r="C51" s="305">
+        <v>2894</v>
+      </c>
+      <c r="D51" s="296">
+        <v>0</v>
+      </c>
+      <c r="E51" s="296">
+        <f>C51*$H$28</f>
+        <v>2742982745280</v>
+      </c>
+      <c r="F51" s="296"/>
+    </row>
+    <row r="52" spans="1:9" s="266" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="297" t="s">
+        <v>40</v>
+      </c>
+      <c r="B52" s="297">
+        <v>277058</v>
+      </c>
+      <c r="C52" s="306">
+        <v>1024977</v>
+      </c>
+      <c r="D52" s="297">
+        <v>45274</v>
+      </c>
+      <c r="E52" s="308">
+        <f t="shared" ref="E52:E53" si="4">C52*$H$28</f>
+        <v>971490748206240</v>
+      </c>
+      <c r="F52" s="309">
+        <f>SUM(C29,C35:C36,C39,C44:C45)</f>
+        <v>891998247110891.25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" s="266" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>45</v>
+      </c>
+      <c r="B53">
+        <v>9</v>
+      </c>
+      <c r="C53" s="304">
+        <v>12132</v>
+      </c>
+      <c r="D53">
+        <v>4828</v>
+      </c>
+      <c r="E53" s="296">
+        <f t="shared" si="4"/>
+        <v>11498917299840</v>
+      </c>
+      <c r="F53" s="307">
+        <f>SUM(D29,D35:D36,D39,D44:D45)</f>
+        <v>11427532129914.801</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" s="266" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54"/>
+      <c r="B54"/>
+      <c r="C54"/>
+      <c r="D54"/>
+      <c r="E54" s="297"/>
+      <c r="F54"/>
+    </row>
+    <row r="55" spans="1:9" s="311" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="311" t="s">
+        <v>718</v>
+      </c>
+      <c r="E55" s="312"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="249" t="s">
+        <v>669</v>
+      </c>
+      <c r="B56" s="250"/>
+      <c r="C56" s="250"/>
+      <c r="D56" s="250"/>
+      <c r="E56" s="250"/>
+      <c r="F56" s="251"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="59" t="s">
+        <v>254</v>
+      </c>
+      <c r="B57" s="60" t="s">
+        <v>139</v>
+      </c>
+      <c r="C57" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="D57" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="E57" s="61" t="s">
+        <v>255</v>
+      </c>
+      <c r="F57" s="62" t="s">
+        <v>120</v>
+      </c>
+      <c r="G57" s="36" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="58" t="s">
+        <v>266</v>
+      </c>
+      <c r="B58" s="56"/>
+      <c r="C58" s="56"/>
+      <c r="D58" s="56"/>
+      <c r="E58" s="56"/>
+      <c r="F58" s="57"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="54" t="s">
+        <v>267</v>
+      </c>
+      <c r="B59" s="37"/>
+      <c r="C59" s="37">
+        <f>C3*10^12/H60*H59/10^6</f>
         <v>14588906.284293493</v>
       </c>
-      <c r="D28" s="37">
-        <f>D3*10^12/H29*H28/10^6</f>
+      <c r="D59" s="37">
+        <f>D3*10^12/H60*H59/10^6</f>
         <v>473.90855546001723</v>
       </c>
-      <c r="E28" s="37">
-        <f>B28+C28-D28</f>
+      <c r="E59" s="37">
+        <f>B59+C59-D59</f>
         <v>14588432.375738034</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F59" t="s">
         <v>253</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G59" t="s">
         <v>661</v>
       </c>
-      <c r="H28">
+      <c r="H59">
         <v>1.1023113</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I59" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="54" t="s">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="54" t="s">
         <v>257</v>
       </c>
-      <c r="B29" s="39"/>
-      <c r="C29" s="37">
-        <f>C4*H31*H32/1000000</f>
+      <c r="B60" s="39"/>
+      <c r="C60" s="37">
+        <f>C4*H62*H63/1000000</f>
         <v>129093.6646</v>
       </c>
-      <c r="D29" s="39"/>
-      <c r="E29" s="37">
-        <f>B29+C29-D29</f>
+      <c r="D60" s="39"/>
+      <c r="E60" s="37">
+        <f>B60+C60-D60</f>
         <v>129093.6646</v>
       </c>
-      <c r="F29" s="285" t="s">
+      <c r="F60" s="280" t="s">
         <v>655</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G60" t="s">
         <v>660</v>
       </c>
-      <c r="H29">
+      <c r="H60">
         <v>20934</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I60" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="54" t="s">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="54" t="s">
         <v>259</v>
       </c>
-      <c r="B30" s="39"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="3" t="s">
+      <c r="B61" s="39"/>
+      <c r="E61" s="38"/>
+      <c r="F61" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G61" t="s">
         <v>662</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H61" t="s">
         <v>663</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I61" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="55" t="s">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="55" t="s">
         <v>269</v>
       </c>
-      <c r="B31" s="56"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="57"/>
-      <c r="G31" t="s">
+      <c r="B62" s="56"/>
+      <c r="C62" s="56"/>
+      <c r="D62" s="56"/>
+      <c r="E62" s="56"/>
+      <c r="F62" s="57"/>
+      <c r="G62" t="s">
         <v>664</v>
       </c>
-      <c r="H31">
+      <c r="H62">
         <v>1390</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I62" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="55" t="s">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="55" t="s">
         <v>270</v>
       </c>
-      <c r="B32" s="56"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="57"/>
-      <c r="G32" t="s">
+      <c r="B63" s="56"/>
+      <c r="C63" s="56"/>
+      <c r="D63" s="56"/>
+      <c r="E63" s="56"/>
+      <c r="F63" s="57"/>
+      <c r="G63" t="s">
         <v>665</v>
       </c>
-      <c r="H32">
+      <c r="H63">
         <v>38</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I63" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="55" t="s">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="55" t="s">
         <v>271</v>
       </c>
-      <c r="B33" s="56"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="57"/>
-      <c r="G33" t="s">
+      <c r="B64" s="56"/>
+      <c r="C64" s="56"/>
+      <c r="D64" s="56"/>
+      <c r="E64" s="56"/>
+      <c r="F64" s="57"/>
+      <c r="G64" t="s">
         <v>666</v>
       </c>
-      <c r="H33">
+      <c r="H64">
         <v>9.4781710000000003E-4</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I64" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="54" t="s">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="54" t="s">
         <v>260</v>
       </c>
-      <c r="B34" s="41"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="3" t="s">
+      <c r="B65" s="41"/>
+      <c r="C65" s="42"/>
+      <c r="D65" s="43"/>
+      <c r="E65" s="40"/>
+      <c r="F65" s="3" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="54" t="s">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="54" t="s">
         <v>261</v>
       </c>
-      <c r="C35" s="37">
-        <f>C10*H35/1000</f>
-        <v>5247.1943656000003</v>
-      </c>
-      <c r="E35" s="37">
-        <f>B35+C35-D35</f>
-        <v>5247.1943656000003</v>
-      </c>
-      <c r="F35" s="3" t="s">
+      <c r="C66" s="37">
+        <f>C10*H66/1000</f>
+        <v>5374.9360103999998</v>
+      </c>
+      <c r="E66" s="37">
+        <f>B66+C66-D66</f>
+        <v>5374.9360103999998</v>
+      </c>
+      <c r="F66" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G66" t="s">
         <v>667</v>
       </c>
-      <c r="H35">
+      <c r="H66">
         <v>8.3864000000000001</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I66" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="54" t="s">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="54" t="s">
         <v>272</v>
       </c>
-      <c r="C36" s="37">
-        <f>C11*H35/1000</f>
-        <v>60961.571853600006</v>
-      </c>
-      <c r="E36" s="37">
-        <f t="shared" ref="E36:E39" si="1">B36+C36-D36</f>
-        <v>60961.571853600006</v>
-      </c>
-      <c r="F36" s="3" t="s">
+      <c r="C67" s="37">
+        <f>C11*H66/1000</f>
+        <v>62045.765645599997</v>
+      </c>
+      <c r="E67" s="37">
+        <f t="shared" ref="E67:E70" si="5">B67+C67-D67</f>
+        <v>62045.765645599997</v>
+      </c>
+      <c r="F67" s="3" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="54" t="s">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="54" t="s">
         <v>273</v>
       </c>
-      <c r="B37" s="38"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="3" t="s">
+      <c r="B68" s="38"/>
+      <c r="E68" s="37"/>
+      <c r="F68" s="3" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="54" t="s">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="54" t="s">
         <v>274</v>
       </c>
-      <c r="B38" s="38"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="3" t="s">
+      <c r="B69" s="38"/>
+      <c r="E69" s="37"/>
+      <c r="F69" s="3" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="54" t="s">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="54" t="s">
         <v>263</v>
       </c>
-      <c r="B39" s="38"/>
-      <c r="C39" s="37">
-        <f>C14*H35/1000</f>
-        <v>65307.873972000001</v>
-      </c>
-      <c r="E39" s="37">
-        <f t="shared" si="1"/>
-        <v>65307.873972000001</v>
-      </c>
-      <c r="F39" s="3" t="s">
+      <c r="B70" s="38"/>
+      <c r="C70" s="37">
+        <f>C14*H66/1000</f>
+        <v>65308.209428000002</v>
+      </c>
+      <c r="E70" s="37">
+        <f t="shared" si="5"/>
+        <v>65308.209428000002</v>
+      </c>
+      <c r="F70" s="3" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="55" t="s">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="55" t="s">
         <v>315</v>
       </c>
-      <c r="B40" s="56"/>
-      <c r="C40" s="56"/>
-      <c r="D40" s="56"/>
-      <c r="E40" s="56"/>
-      <c r="F40" s="57"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="55" t="s">
+      <c r="B71" s="56"/>
+      <c r="C71" s="56"/>
+      <c r="D71" s="56"/>
+      <c r="E71" s="56"/>
+      <c r="F71" s="57"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="55" t="s">
         <v>276</v>
       </c>
-      <c r="B41" s="56"/>
-      <c r="C41" s="56"/>
-      <c r="D41" s="56"/>
-      <c r="E41" s="56"/>
-      <c r="F41" s="57"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="54" t="s">
+      <c r="B72" s="56"/>
+      <c r="C72" s="56"/>
+      <c r="D72" s="56"/>
+      <c r="E72" s="56"/>
+      <c r="F72" s="57"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="54" t="s">
         <v>277</v>
       </c>
-      <c r="B42" s="40"/>
-      <c r="E42" s="40"/>
-      <c r="F42" t="s">
+      <c r="B73" s="40"/>
+      <c r="E73" s="40"/>
+      <c r="F73" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="54" t="s">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="54" t="s">
         <v>264</v>
       </c>
-      <c r="B43" s="38"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="3" t="s">
+      <c r="B74" s="38"/>
+      <c r="E74" s="38"/>
+      <c r="F74" s="3" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="54" t="s">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="54" t="s">
         <v>278</v>
       </c>
-      <c r="B44" s="38"/>
-      <c r="C44" s="37">
-        <f>C19*H35/1000</f>
-        <v>67720.179999999993</v>
-      </c>
-      <c r="E44" s="37">
-        <f>B44+C44-D44</f>
-        <v>67720.179999999993</v>
-      </c>
-      <c r="F44" s="3" t="s">
+      <c r="B75" s="38"/>
+      <c r="C75" s="37">
+        <f>C19*H66/1000</f>
+        <v>69176.746724800003</v>
+      </c>
+      <c r="E75" s="37">
+        <f>B75+C75-D75</f>
+        <v>69176.746724800003</v>
+      </c>
+      <c r="F75" s="3" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="54" t="s">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="54" t="s">
         <v>265</v>
       </c>
-      <c r="B45" s="38"/>
-      <c r="C45" s="37">
-        <f>C20*H45*H46/1000*H35</f>
-        <v>5987750.4696239997</v>
-      </c>
-      <c r="E45" s="37">
-        <f>B45+C45-D45</f>
-        <v>5987750.4696239997</v>
-      </c>
-      <c r="F45" s="3" t="s">
+      <c r="B76" s="38"/>
+      <c r="C76" s="37">
+        <f>C20*H76*H77/1000*H66</f>
+        <v>5993155.4205599995</v>
+      </c>
+      <c r="E76" s="37">
+        <f>B76+C76-D76</f>
+        <v>5993155.4205599995</v>
+      </c>
+      <c r="F76" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G76" t="s">
         <v>671</v>
       </c>
-      <c r="H45" s="286">
+      <c r="H76" s="281">
         <v>1.89</v>
       </c>
-      <c r="I45" t="s">
+      <c r="I76" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="54" t="s">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="54" t="s">
         <v>279</v>
       </c>
-      <c r="E46" s="38"/>
-      <c r="F46" s="3" t="s">
+      <c r="E77" s="38"/>
+      <c r="F77" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G77" t="s">
         <v>672</v>
       </c>
-      <c r="H46">
+      <c r="H77">
         <v>1000</v>
       </c>
-      <c r="I46" s="256" t="s">
+      <c r="I77" s="256" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="54" t="s">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="54" t="s">
         <v>280</v>
       </c>
-      <c r="E47" s="38"/>
-      <c r="F47" s="3" t="s">
+      <c r="E78" s="38"/>
+      <c r="F78" s="3" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="249" t="s">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="249" t="s">
         <v>611</v>
       </c>
-      <c r="B49" s="250"/>
-      <c r="C49" s="250"/>
-      <c r="D49" s="250"/>
-      <c r="E49" s="250"/>
-      <c r="F49" s="251"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="59" t="s">
+      <c r="B80" s="250"/>
+      <c r="C80" s="250"/>
+      <c r="D80" s="250"/>
+      <c r="E80" s="250"/>
+      <c r="F80" s="251"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="59" t="s">
         <v>254</v>
       </c>
-      <c r="B50" s="60" t="s">
+      <c r="B81" s="60" t="s">
         <v>139</v>
       </c>
-      <c r="C50" s="60" t="s">
+      <c r="C81" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="D50" s="60" t="s">
+      <c r="D81" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="E50" s="61" t="s">
+      <c r="E81" s="61" t="s">
         <v>255</v>
       </c>
-      <c r="F50" s="62" t="s">
+      <c r="F81" s="62" t="s">
         <v>120</v>
       </c>
-      <c r="H50" s="257" t="s">
+      <c r="H81" s="257" t="s">
         <v>627</v>
       </c>
-      <c r="I50" s="7"/>
-      <c r="J50" s="7"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="58" t="s">
+      <c r="I81" s="7"/>
+      <c r="J81" s="7"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="58" t="s">
         <v>266</v>
       </c>
-      <c r="B51" s="56"/>
-      <c r="C51" s="56"/>
-      <c r="D51" s="56"/>
-      <c r="E51" s="56"/>
-      <c r="F51" s="57"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="54" t="s">
+      <c r="B82" s="56"/>
+      <c r="C82" s="56"/>
+      <c r="D82" s="56"/>
+      <c r="E82" s="56"/>
+      <c r="F82" s="57"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="54" t="s">
         <v>267</v>
       </c>
-      <c r="B52" s="252">
-        <f>B28*$H52</f>
-        <v>0</v>
-      </c>
-      <c r="C52" s="252">
-        <f t="shared" ref="C52:E52" si="2">C28*$H52</f>
+      <c r="B83" s="252">
+        <f>B59*$H83</f>
+        <v>0</v>
+      </c>
+      <c r="C83" s="252">
+        <f t="shared" ref="C83:E83" si="6">C59*$H83</f>
         <v>2.8357153035611023E+20</v>
       </c>
-      <c r="D52" s="252">
-        <f>D28*$H52</f>
+      <c r="D83" s="252">
+        <f>D59*$H83</f>
         <v>9211586646857310</v>
       </c>
-      <c r="E52" s="252">
-        <f t="shared" si="2"/>
+      <c r="E83" s="252">
+        <f t="shared" si="6"/>
         <v>2.8356231876946339E+20</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F83" t="s">
         <v>608</v>
       </c>
-      <c r="H52">
+      <c r="H83">
         <f>'AEO Table 73'!$C66*10^12</f>
         <v>19437477000000</v>
       </c>
-      <c r="I52" t="s">
+      <c r="I83" t="s">
         <v>626</v>
       </c>
-      <c r="J52" t="s">
+      <c r="J83" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="54" t="s">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="54" t="s">
         <v>257</v>
       </c>
-      <c r="B53" s="252">
-        <f>B29*10^12*H33</f>
-        <v>0</v>
-      </c>
-      <c r="C53" s="252">
-        <f>C29*10^12*H33</f>
+      <c r="B84" s="252">
+        <f>B60*10^12*H64</f>
+        <v>0</v>
+      </c>
+      <c r="C84" s="252">
+        <f>C60*10^12*H64</f>
         <v>122357182809544.66</v>
       </c>
-      <c r="D53" s="252">
-        <f>D29*10^12*H33</f>
-        <v>0</v>
-      </c>
-      <c r="E53" s="252">
-        <f t="shared" ref="B53:E54" si="3">E29*$H53</f>
+      <c r="D84" s="252">
+        <f>D60*10^12*H64</f>
+        <v>0</v>
+      </c>
+      <c r="E84" s="252">
+        <f t="shared" ref="B84:E85" si="7">E60*$H84</f>
         <v>1.290936646E+20</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F84" t="s">
         <v>608</v>
       </c>
-      <c r="H53">
+      <c r="H84">
         <f>10^15</f>
         <v>1000000000000000</v>
       </c>
-      <c r="I53" t="s">
+      <c r="I84" t="s">
         <v>626</v>
       </c>
-      <c r="J53" s="3" t="s">
+      <c r="J84" s="3" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="54" t="s">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="54" t="s">
         <v>259</v>
       </c>
-      <c r="B54" s="252">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C54" s="252">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D54" s="252">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E54" s="252">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F54" t="s">
+      <c r="B85" s="252">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C85" s="252">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="D85" s="252">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E85" s="252">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F85" t="s">
         <v>608</v>
       </c>
-      <c r="H54">
+      <c r="H85">
         <f>10^6*1.8*10^8</f>
         <v>180000000000000</v>
       </c>
-      <c r="I54" t="s">
+      <c r="I85" t="s">
         <v>626</v>
       </c>
-      <c r="J54" s="3" t="s">
+      <c r="J85" s="3" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="55" t="s">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="55" t="s">
         <v>269</v>
       </c>
-      <c r="B55" s="253"/>
-      <c r="C55" s="253"/>
-      <c r="D55" s="253"/>
-      <c r="E55" s="253"/>
-      <c r="F55" s="57"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="55" t="s">
+      <c r="B86" s="253"/>
+      <c r="C86" s="253"/>
+      <c r="D86" s="253"/>
+      <c r="E86" s="253"/>
+      <c r="F86" s="57"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="55" t="s">
         <v>270</v>
       </c>
-      <c r="B56" s="253"/>
-      <c r="C56" s="253"/>
-      <c r="D56" s="253"/>
-      <c r="E56" s="253"/>
-      <c r="F56" s="57"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="55" t="s">
+      <c r="B87" s="253"/>
+      <c r="C87" s="253"/>
+      <c r="D87" s="253"/>
+      <c r="E87" s="253"/>
+      <c r="F87" s="57"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="55" t="s">
         <v>271</v>
       </c>
-      <c r="B57" s="253"/>
-      <c r="C57" s="253"/>
-      <c r="D57" s="253"/>
-      <c r="E57" s="253"/>
-      <c r="F57" s="57"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="54" t="s">
+      <c r="B88" s="253"/>
+      <c r="C88" s="253"/>
+      <c r="D88" s="253"/>
+      <c r="E88" s="253"/>
+      <c r="F88" s="57"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="54" t="s">
         <v>260</v>
       </c>
-      <c r="B58" s="252">
-        <f>B34*$H58</f>
-        <v>0</v>
-      </c>
-      <c r="C58" s="252">
-        <f t="shared" ref="C58:E58" si="4">C34*$H58</f>
-        <v>0</v>
-      </c>
-      <c r="D58" s="252">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E58" s="252">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F58" t="s">
+      <c r="B89" s="252">
+        <f>B65*$H89</f>
+        <v>0</v>
+      </c>
+      <c r="C89" s="252">
+        <f t="shared" ref="C89:E89" si="8">C65*$H89</f>
+        <v>0</v>
+      </c>
+      <c r="D89" s="252">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E89" s="252">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F89" t="s">
         <v>608</v>
       </c>
-      <c r="H58" s="255">
+      <c r="H89" s="255">
         <f>'GREET1 Fuel_Specs'!$D$79</f>
         <v>17906000</v>
       </c>
-      <c r="I58" t="s">
+      <c r="I89" t="s">
         <v>626</v>
       </c>
-      <c r="J58" s="3" t="s">
+      <c r="J89" s="3" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="54" t="s">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="54" t="s">
         <v>261</v>
       </c>
-      <c r="B59" s="252">
-        <f t="shared" ref="B59:E63" si="5">B35*$H59</f>
-        <v>0</v>
-      </c>
-      <c r="C59" s="252">
-        <f t="shared" si="5"/>
-        <v>26533188658450.684</v>
-      </c>
-      <c r="D59" s="252">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E59" s="252">
-        <f t="shared" si="5"/>
-        <v>26533188658450.684</v>
-      </c>
-      <c r="F59" t="s">
+      <c r="B90" s="252">
+        <f t="shared" ref="B90:E94" si="9">B66*$H90</f>
+        <v>0</v>
+      </c>
+      <c r="C90" s="252">
+        <f t="shared" si="9"/>
+        <v>27179132552437.086</v>
+      </c>
+      <c r="D90" s="252">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E90" s="252">
+        <f t="shared" si="9"/>
+        <v>27179132552437.086</v>
+      </c>
+      <c r="F90" t="s">
         <v>608</v>
       </c>
-      <c r="H59">
+      <c r="H90">
         <f>'AEO Table 73'!$C32*10^9</f>
         <v>5056643000</v>
       </c>
-      <c r="I59" t="s">
+      <c r="I90" t="s">
         <v>626</v>
       </c>
-      <c r="J59" s="3" t="s">
+      <c r="J90" s="3" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="54" t="s">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="54" t="s">
         <v>272</v>
       </c>
-      <c r="B60" s="252">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="C60" s="252">
-        <f t="shared" si="5"/>
-        <v>355101156047220.06</v>
-      </c>
-      <c r="D60" s="252">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E60" s="252">
-        <f t="shared" si="5"/>
-        <v>355101156047220.06</v>
-      </c>
-      <c r="F60" t="s">
+      <c r="B91" s="252">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="C91" s="252">
+        <f t="shared" si="9"/>
+        <v>361416584885620</v>
+      </c>
+      <c r="D91" s="252">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E91" s="252">
+        <f t="shared" si="9"/>
+        <v>361416584885620</v>
+      </c>
+      <c r="F91" t="s">
         <v>608</v>
       </c>
-      <c r="H60">
+      <c r="H91">
         <f>'AEO Table 73'!$C19*10^9</f>
         <v>5825000000</v>
       </c>
-      <c r="I60" t="s">
+      <c r="I91" t="s">
         <v>626</v>
       </c>
-      <c r="J60" s="3" t="s">
+      <c r="J91" s="3" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="54" t="s">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="54" t="s">
         <v>273</v>
       </c>
-      <c r="B61" s="252">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="C61" s="252">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="D61" s="252">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E61" s="252">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F61" t="s">
+      <c r="B92" s="252">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="C92" s="252">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D92" s="252">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E92" s="252">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F92" t="s">
         <v>608</v>
       </c>
-      <c r="H61">
+      <c r="H92">
         <f>'AEO Table 73'!$C29*10^9</f>
         <v>3997220000</v>
       </c>
-      <c r="I61" t="s">
+      <c r="I92" t="s">
         <v>626</v>
       </c>
-      <c r="J61" s="3" t="s">
+      <c r="J92" s="3" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="54" t="s">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="54" t="s">
         <v>274</v>
       </c>
-      <c r="B62" s="252">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="C62" s="252">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="D62" s="252">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E62" s="252">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F62" t="s">
+      <c r="B93" s="252">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="C93" s="252">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D93" s="252">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E93" s="252">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F93" t="s">
         <v>608</v>
       </c>
-      <c r="H62">
+      <c r="H93">
         <f>'AEO Table 73'!$C18*10^9</f>
         <v>5359000000</v>
       </c>
-      <c r="I62" t="s">
+      <c r="I93" t="s">
         <v>626</v>
       </c>
-      <c r="J62" s="3" t="s">
+      <c r="J93" s="3" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="54" t="s">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" s="54" t="s">
         <v>263</v>
       </c>
-      <c r="B63" s="252">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="C63" s="252">
-        <f t="shared" si="5"/>
-        <v>370295645421240</v>
-      </c>
-      <c r="D63" s="252">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E63" s="252">
-        <f t="shared" si="5"/>
-        <v>370295645421240</v>
-      </c>
-      <c r="F63" t="s">
+      <c r="B94" s="252">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="C94" s="252">
+        <f t="shared" si="9"/>
+        <v>370297547456760</v>
+      </c>
+      <c r="D94" s="252">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E94" s="252">
+        <f t="shared" si="9"/>
+        <v>370297547456760</v>
+      </c>
+      <c r="F94" t="s">
         <v>608</v>
       </c>
-      <c r="H63">
+      <c r="H94">
         <f>'AEO Table 73'!$C30*10^9</f>
         <v>5670000000</v>
       </c>
-      <c r="I63" t="s">
+      <c r="I94" t="s">
         <v>626</v>
       </c>
-      <c r="J63" s="3" t="s">
+      <c r="J94" s="3" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="55" t="s">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" s="55" t="s">
         <v>315</v>
       </c>
-      <c r="B64" s="253"/>
-      <c r="C64" s="253"/>
-      <c r="D64" s="253"/>
-      <c r="E64" s="253"/>
-      <c r="F64" s="57"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="55" t="s">
+      <c r="B95" s="253"/>
+      <c r="C95" s="253"/>
+      <c r="D95" s="253"/>
+      <c r="E95" s="253"/>
+      <c r="F95" s="57"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" s="55" t="s">
         <v>276</v>
       </c>
-      <c r="B65" s="253"/>
-      <c r="C65" s="253"/>
-      <c r="D65" s="253"/>
-      <c r="E65" s="253"/>
-      <c r="F65" s="57"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="54" t="s">
+      <c r="B96" s="253"/>
+      <c r="C96" s="253"/>
+      <c r="D96" s="253"/>
+      <c r="E96" s="253"/>
+      <c r="F96" s="57"/>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" s="54" t="s">
         <v>277</v>
       </c>
-      <c r="B66" s="252">
-        <f t="shared" ref="B66:E71" si="6">B42*$H66</f>
-        <v>0</v>
-      </c>
-      <c r="C66" s="252">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D66" s="252">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E66" s="252">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F66" t="s">
+      <c r="B97" s="252">
+        <f t="shared" ref="B97:E102" si="10">B73*$H97</f>
+        <v>0</v>
+      </c>
+      <c r="C97" s="252">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D97" s="252">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E97" s="252">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F97" t="s">
         <v>608</v>
       </c>
-      <c r="H66">
+      <c r="H97">
         <f>'GREET1 Fuel_Specs'!$D$68*10^6</f>
         <v>12992301971719.6</v>
       </c>
-      <c r="I66" t="s">
+      <c r="I97" t="s">
         <v>626</v>
       </c>
-      <c r="J66" t="s">
+      <c r="J97" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="54" t="s">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" s="54" t="s">
         <v>264</v>
       </c>
-      <c r="B67" s="252">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="C67" s="252">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D67" s="252">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E67" s="252">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F67" t="s">
+      <c r="B98" s="252">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C98" s="252">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D98" s="252">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E98" s="252">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F98" t="s">
         <v>608</v>
       </c>
-      <c r="H67">
+      <c r="H98">
         <f>'AEO Table 73'!$C48*10^9</f>
         <v>5723000000</v>
       </c>
-      <c r="I67" t="s">
+      <c r="I98" t="s">
         <v>626</v>
       </c>
-      <c r="J67" s="3" t="s">
+      <c r="J98" s="3" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="54" t="s">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" s="54" t="s">
         <v>278</v>
       </c>
-      <c r="B68" s="252">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="C68" s="252">
-        <f t="shared" si="6"/>
-        <v>425756771659999.94</v>
-      </c>
-      <c r="D68" s="252">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E68" s="252">
-        <f t="shared" si="6"/>
-        <v>425756771659999.94</v>
-      </c>
-      <c r="F68" t="s">
+      <c r="B99" s="252">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C99" s="252">
+        <f t="shared" si="10"/>
+        <v>434914206658817.63</v>
+      </c>
+      <c r="D99" s="252">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E99" s="252">
+        <f t="shared" si="10"/>
+        <v>434914206658817.63</v>
+      </c>
+      <c r="F99" t="s">
         <v>608</v>
       </c>
-      <c r="H68">
+      <c r="H99">
         <f>'AEO Table 73'!$C41*10^9</f>
         <v>6287000000</v>
       </c>
-      <c r="I68" t="s">
+      <c r="I99" t="s">
         <v>626</v>
       </c>
-      <c r="J68" s="3" t="s">
+      <c r="J99" s="3" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="54" t="s">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" s="54" t="s">
         <v>265</v>
       </c>
-      <c r="B69" s="252">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="C69" s="252">
-        <f t="shared" si="6"/>
-        <v>2.2988291357989852E+16</v>
-      </c>
-      <c r="D69" s="252">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E69" s="252">
-        <f t="shared" si="6"/>
-        <v>2.2988291357989852E+16</v>
-      </c>
-      <c r="F69" t="s">
+      <c r="B100" s="252">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C100" s="252">
+        <f t="shared" si="10"/>
+        <v>2.300904215372236E+16</v>
+      </c>
+      <c r="D100" s="252">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E100" s="252">
+        <f t="shared" si="10"/>
+        <v>2.300904215372236E+16</v>
+      </c>
+      <c r="F100" t="s">
         <v>608</v>
       </c>
-      <c r="H69">
+      <c r="H100">
         <f>'GREET1 Fuel_Specs'!$D$35*10^3*42</f>
         <v>3839220000</v>
       </c>
-      <c r="I69" t="s">
+      <c r="I100" t="s">
         <v>626</v>
       </c>
-      <c r="J69" s="3" t="s">
+      <c r="J100" s="3" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="54" t="s">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" s="54" t="s">
         <v>279</v>
       </c>
-      <c r="B70" s="252">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="C70" s="252">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D70" s="252">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E70" s="252">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F70" t="s">
+      <c r="B101" s="252">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C101" s="252">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D101" s="252">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E101" s="252">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F101" t="s">
         <v>608</v>
       </c>
-      <c r="H70">
+      <c r="H101">
         <f>'GREET1 Fuel_Specs'!$D$87*10^6</f>
         <v>13583444584264.561</v>
       </c>
-      <c r="I70" t="s">
+      <c r="I101" t="s">
         <v>626</v>
       </c>
-      <c r="J70" t="s">
+      <c r="J101" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="54" t="s">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" s="54" t="s">
         <v>280</v>
       </c>
-      <c r="B71" s="252">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="C71" s="252">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D71" s="252">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E71" s="252">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F71" t="s">
+      <c r="B102" s="252">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C102" s="252">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D102" s="252">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E102" s="252">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F102" t="s">
         <v>608</v>
       </c>
-      <c r="H71">
+      <c r="H102">
         <f>'GREET1 Fuel_Specs'!$D$61*'GREET1 Fuel_Specs'!$E$61*10^12</f>
         <v>874650000000000</v>
       </c>
-      <c r="I71" t="s">
+      <c r="I102" t="s">
         <v>626</v>
       </c>
-      <c r="J71" s="3" t="s">
+      <c r="J102" s="3" t="s">
         <v>306</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I45" r:id="rId1" xr:uid="{E06E1984-B060-4808-9536-CDF60C991CE6}"/>
+    <hyperlink ref="I40" r:id="rId2" xr:uid="{F11C5CDB-240B-496F-A627-B42681A62EA0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010095990DC6317597479C114DD4E6AB1F33" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="00c0eb7d4c43453177323eb1ac58d7e7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="7889d872-e2a2-4afb-87bc-97561eced75f" xmlns:ns3="c9df191c-55f2-496b-9838-9a5abe4742ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5fe72540fcc493259a136614ad94e00" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -44899,6 +46210,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -44909,24 +46229,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1192ED43-A8B9-413C-9889-138F7E05A110}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="c9df191c-55f2-496b-9838-9a5abe4742ad"/>
-    <ds:schemaRef ds:uri="7889d872-e2a2-4afb-87bc-97561eced75f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7863F173-7487-4EE0-AE1E-9D19CF7D8656}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -44946,6 +46248,24 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1192ED43-A8B9-413C-9889-138F7E05A110}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="c9df191c-55f2-496b-9838-9a5abe4742ad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="7889d872-e2a2-4afb-87bc-97561eced75f"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78B92840-F632-4677-803A-76F818EEA6A7}">
   <ds:schemaRefs>
